--- a/config/excel/Hero.xlsx
+++ b/config/excel/Hero.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29560" windowHeight="17020"/>
+    <workbookView windowWidth="31240" windowHeight="17020"/>
   </bookViews>
   <sheets>
     <sheet name="Hero" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -34,6 +34,29 @@
 3:破灭</t>
   </si>
   <si>
+    <t>0: 单手剑
+1: 双手剑
+2: 长柄
+3: 手枪
+4: 法杖
+5: 召唤物</t>
+  </si>
+  <si>
+    <t>初始武器</t>
+  </si>
+  <si>
+    <t>初始衣服</t>
+  </si>
+  <si>
+    <t>初始鞋子</t>
+  </si>
+  <si>
+    <t>初始饰品</t>
+  </si>
+  <si>
+    <t>此列由前4列自动生成，不用填写</t>
+  </si>
+  <si>
     <t>导出字段名</t>
   </si>
   <si>
@@ -49,6 +72,12 @@
     <t>race</t>
   </si>
   <si>
+    <t>weaponType</t>
+  </si>
+  <si>
+    <t>initEquipId</t>
+  </si>
+  <si>
     <t>attId</t>
   </si>
   <si>
@@ -70,6 +99,24 @@
     <t>种族</t>
   </si>
   <si>
+    <t>武器类型</t>
+  </si>
+  <si>
+    <t>武器id</t>
+  </si>
+  <si>
+    <t>衣服id</t>
+  </si>
+  <si>
+    <t>鞋子id</t>
+  </si>
+  <si>
+    <t>饰品id</t>
+  </si>
+  <si>
+    <t>装备位置</t>
+  </si>
+  <si>
     <t>属性id</t>
   </si>
   <si>
@@ -92,6 +139,9 @@
   </si>
   <si>
     <t>string</t>
+  </si>
+  <si>
+    <t>[]int32</t>
   </si>
   <si>
     <t>demo版本防战</t>
@@ -111,12 +161,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -127,6 +177,11 @@
       <b/>
       <sz val="9"/>
       <color indexed="8"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -145,17 +200,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -168,7 +224,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
@@ -184,7 +240,38 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -198,16 +285,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -228,9 +315,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -245,44 +331,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -303,187 +358,193 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -521,11 +582,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -541,15 +626,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -594,170 +670,155 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -765,6 +826,9 @@
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1967,10 +2031,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1"/>
@@ -1980,14 +2044,16 @@
     <col min="3" max="3" width="8.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="17.3461538461538" style="1" customWidth="1"/>
     <col min="5" max="5" width="16.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="18.4615384615385" style="1" customWidth="1"/>
-    <col min="9" max="9" width="20.125" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="6" style="1" customWidth="1"/>
+    <col min="6" max="7" width="16.25" style="1" customWidth="1"/>
+    <col min="8" max="11" width="9.42307692307692" style="1" customWidth="1"/>
+    <col min="12" max="12" width="16.1538461538462" style="1" customWidth="1"/>
+    <col min="13" max="13" width="16.75" style="1" customWidth="1"/>
+    <col min="14" max="14" width="18.4615384615385" style="1" customWidth="1"/>
+    <col min="15" max="15" width="20.125" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="6" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14" customHeight="1" spans="1:9">
+    <row r="1" ht="14" customHeight="1" spans="1:15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1999,8 +2065,14 @@
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
     </row>
-    <row r="2" ht="68" spans="1:9">
+    <row r="2" ht="101" spans="1:15">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="2" t="s">
@@ -2013,114 +2085,176 @@
       <c r="F2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
+      <c r="G2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
     </row>
-    <row r="3" ht="16.15" customHeight="1" spans="1:9">
+    <row r="3" ht="16.15" customHeight="1" spans="1:15">
       <c r="A3" s="3"/>
       <c r="B3" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
+      </c>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="4" ht="16.15" customHeight="1" spans="1:9">
+    <row r="4" ht="16.15" customHeight="1" spans="1:15">
       <c r="A4" s="3"/>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>18</v>
+        <v>26</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="5" ht="16.15" customHeight="1" spans="1:9">
+    <row r="5" ht="16.15" customHeight="1" spans="1:15">
       <c r="A5" s="3"/>
       <c r="B5" s="2" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
     </row>
-    <row r="6" ht="16.15" customHeight="1" spans="1:9">
+    <row r="6" ht="16.15" customHeight="1" spans="1:15">
       <c r="A6" s="3"/>
       <c r="B6" s="2" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>22</v>
+        <v>36</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="7" ht="25" customHeight="1" spans="1:9">
+    <row r="7" ht="25" customHeight="1" spans="1:15">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="5">
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="E7" s="5">
         <v>0</v>
@@ -2129,23 +2263,42 @@
         <v>0</v>
       </c>
       <c r="G7" s="5">
+        <v>0</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0</v>
+      </c>
+      <c r="I7" s="5">
+        <v>0</v>
+      </c>
+      <c r="J7" s="5">
+        <v>0</v>
+      </c>
+      <c r="K7" s="5">
+        <v>0</v>
+      </c>
+      <c r="L7" s="5" t="str">
+        <f>H7&amp;","&amp;I7&amp;","&amp;J7&amp;","&amp;K7</f>
+        <v>0,0,0,0</v>
+      </c>
+      <c r="M7" s="5">
         <v>1</v>
       </c>
-      <c r="H7" s="5">
+      <c r="N7" s="5">
         <v>50</v>
       </c>
-      <c r="I7" s="5">
+      <c r="O7" s="5">
         <v>30</v>
       </c>
     </row>
-    <row r="8" ht="25" customHeight="1" spans="1:9">
+    <row r="8" ht="25" customHeight="1" spans="1:15">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="5">
         <v>2</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="E8" s="5">
         <v>1</v>
@@ -2154,23 +2307,42 @@
         <v>1</v>
       </c>
       <c r="G8" s="5">
+        <v>1</v>
+      </c>
+      <c r="H8" s="5">
+        <v>1</v>
+      </c>
+      <c r="I8" s="5">
+        <v>1</v>
+      </c>
+      <c r="J8" s="5">
+        <v>1</v>
+      </c>
+      <c r="K8" s="5">
+        <v>1</v>
+      </c>
+      <c r="L8" s="5" t="str">
+        <f>H8&amp;","&amp;I8&amp;","&amp;J8&amp;","&amp;K8</f>
+        <v>1,1,1,1</v>
+      </c>
+      <c r="M8" s="5">
         <v>2</v>
       </c>
-      <c r="H8" s="5">
+      <c r="N8" s="5">
         <v>80</v>
       </c>
-      <c r="I8" s="5">
+      <c r="O8" s="5">
         <v>50</v>
       </c>
     </row>
-    <row r="9" ht="16.15" customHeight="1" spans="1:9">
+    <row r="9" ht="16.15" customHeight="1" spans="1:15">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="5">
         <v>3</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="E9" s="3">
         <v>0</v>
@@ -2179,23 +2351,42 @@
         <v>2</v>
       </c>
       <c r="G9" s="3">
+        <v>2</v>
+      </c>
+      <c r="H9" s="3">
+        <v>2</v>
+      </c>
+      <c r="I9" s="3">
+        <v>2</v>
+      </c>
+      <c r="J9" s="3">
+        <v>2</v>
+      </c>
+      <c r="K9" s="3">
+        <v>2</v>
+      </c>
+      <c r="L9" s="5" t="str">
+        <f>H9&amp;","&amp;I9&amp;","&amp;J9&amp;","&amp;K9</f>
+        <v>2,2,2,2</v>
+      </c>
+      <c r="M9" s="3">
         <v>3</v>
       </c>
-      <c r="H9" s="5">
+      <c r="N9" s="5">
         <v>50</v>
       </c>
-      <c r="I9" s="5">
+      <c r="O9" s="5">
         <v>30</v>
       </c>
     </row>
-    <row r="10" ht="14" customHeight="1" spans="1:9">
+    <row r="10" ht="14" customHeight="1" spans="1:15">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="5">
         <v>4</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="E10" s="3">
         <v>1</v>
@@ -2204,12 +2395,31 @@
         <v>3</v>
       </c>
       <c r="G10" s="3">
+        <v>3</v>
+      </c>
+      <c r="H10" s="3">
+        <v>3</v>
+      </c>
+      <c r="I10" s="3">
+        <v>3</v>
+      </c>
+      <c r="J10" s="3">
+        <v>3</v>
+      </c>
+      <c r="K10" s="3">
+        <v>3</v>
+      </c>
+      <c r="L10" s="5" t="str">
+        <f>H10&amp;","&amp;I10&amp;","&amp;J10&amp;","&amp;K10</f>
+        <v>3,3,3,3</v>
+      </c>
+      <c r="M10" s="3">
         <v>4</v>
       </c>
-      <c r="H10" s="5">
+      <c r="N10" s="5">
         <v>80</v>
       </c>
-      <c r="I10" s="5">
+      <c r="O10" s="5">
         <v>50</v>
       </c>
     </row>

--- a/config/excel/Hero.xlsx
+++ b/config/excel/Hero.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="31240" windowHeight="17020"/>
+    <workbookView windowWidth="29560" windowHeight="17020"/>
   </bookViews>
   <sheets>
     <sheet name="Hero" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -24,6 +24,11 @@
   <si>
     <t>0:SR  1:SSR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0: 
+1:
+</t>
   </si>
   <si>
     <t>0:自然
@@ -69,6 +74,9 @@
     <t>quality</t>
   </si>
   <si>
+    <t>Profession</t>
+  </si>
+  <si>
     <t>race</t>
   </si>
   <si>
@@ -94,6 +102,9 @@
   </si>
   <si>
     <t>品质</t>
+  </si>
+  <si>
+    <t>职业</t>
   </si>
   <si>
     <t>种族</t>
@@ -162,8 +173,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -200,9 +211,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,9 +235,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -231,64 +257,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -302,9 +275,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -330,8 +311,38 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -370,67 +381,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -442,109 +555,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -583,39 +594,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -626,6 +604,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -645,17 +643,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -670,145 +657,169 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2031,10 +2042,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1"/>
@@ -2043,17 +2054,17 @@
     <col min="2" max="2" width="17.3461538461538" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="17.3461538461538" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.75" style="1" customWidth="1"/>
-    <col min="6" max="7" width="16.25" style="1" customWidth="1"/>
-    <col min="8" max="11" width="9.42307692307692" style="1" customWidth="1"/>
-    <col min="12" max="12" width="16.1538461538462" style="1" customWidth="1"/>
-    <col min="13" max="13" width="16.75" style="1" customWidth="1"/>
-    <col min="14" max="14" width="18.4615384615385" style="1" customWidth="1"/>
-    <col min="15" max="15" width="20.125" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="6" style="1" customWidth="1"/>
+    <col min="5" max="6" width="16.75" style="1" customWidth="1"/>
+    <col min="7" max="8" width="16.25" style="1" customWidth="1"/>
+    <col min="9" max="12" width="9.42307692307692" style="1" customWidth="1"/>
+    <col min="13" max="13" width="16.1538461538462" style="1" customWidth="1"/>
+    <col min="14" max="14" width="16.75" style="1" customWidth="1"/>
+    <col min="15" max="15" width="18.4615384615385" style="1" customWidth="1"/>
+    <col min="16" max="16" width="20.125" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="6" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14" customHeight="1" spans="1:15">
+    <row r="1" ht="14" customHeight="1" spans="1:16">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2071,8 +2082,9 @@
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
     </row>
-    <row r="2" ht="101" spans="1:15">
+    <row r="2" ht="101" spans="1:16">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="2" t="s">
@@ -2100,103 +2112,112 @@
       <c r="K2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="2"/>
+      <c r="M2" s="7" t="s">
+        <v>10</v>
+      </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
     </row>
-    <row r="3" ht="16.15" customHeight="1" spans="1:15">
+    <row r="3" ht="16.15" customHeight="1" spans="1:16">
       <c r="A3" s="3"/>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="4"/>
+        <v>16</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
-      <c r="L3" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="L3" s="4"/>
       <c r="M3" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="4" ht="16.15" customHeight="1" spans="1:15">
+    <row r="4" ht="16.15" customHeight="1" spans="1:16">
       <c r="A4" s="3"/>
       <c r="B4" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="5" ht="16.15" customHeight="1" spans="1:15">
+    <row r="5" ht="16.15" customHeight="1" spans="1:16">
       <c r="A5" s="3"/>
       <c r="B5" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -2209,59 +2230,61 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
     </row>
-    <row r="6" ht="16.15" customHeight="1" spans="1:15">
+    <row r="6" ht="16.15" customHeight="1" spans="1:16">
       <c r="A6" s="3"/>
       <c r="B6" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6" s="4"/>
+        <v>39</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
-      <c r="L6" s="4" t="s">
-        <v>38</v>
-      </c>
+      <c r="L6" s="4"/>
       <c r="M6" s="4" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>36</v>
+        <v>39</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="7" ht="25" customHeight="1" spans="1:15">
+    <row r="7" ht="25" customHeight="1" spans="1:16">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="5">
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E7" s="5">
         <v>0</v>
       </c>
-      <c r="F7" s="5">
-        <v>0</v>
-      </c>
+      <c r="F7" s="5"/>
       <c r="G7" s="5">
         <v>0</v>
       </c>
@@ -2277,35 +2300,36 @@
       <c r="K7" s="5">
         <v>0</v>
       </c>
-      <c r="L7" s="5" t="str">
-        <f>H7&amp;","&amp;I7&amp;","&amp;J7&amp;","&amp;K7</f>
+      <c r="L7" s="5">
+        <v>0</v>
+      </c>
+      <c r="M7" s="5" t="str">
+        <f>I7&amp;","&amp;J7&amp;","&amp;K7&amp;","&amp;L7</f>
         <v>0,0,0,0</v>
       </c>
-      <c r="M7" s="5">
+      <c r="N7" s="5">
         <v>1</v>
       </c>
-      <c r="N7" s="5">
+      <c r="O7" s="5">
         <v>50</v>
       </c>
-      <c r="O7" s="5">
+      <c r="P7" s="5">
         <v>30</v>
       </c>
     </row>
-    <row r="8" ht="25" customHeight="1" spans="1:15">
+    <row r="8" ht="25" customHeight="1" spans="1:16">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="5">
         <v>2</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E8" s="5">
         <v>1</v>
       </c>
-      <c r="F8" s="5">
-        <v>1</v>
-      </c>
+      <c r="F8" s="5"/>
       <c r="G8" s="5">
         <v>1</v>
       </c>
@@ -2321,35 +2345,36 @@
       <c r="K8" s="5">
         <v>1</v>
       </c>
-      <c r="L8" s="5" t="str">
-        <f>H8&amp;","&amp;I8&amp;","&amp;J8&amp;","&amp;K8</f>
+      <c r="L8" s="5">
+        <v>1</v>
+      </c>
+      <c r="M8" s="5" t="str">
+        <f>I8&amp;","&amp;J8&amp;","&amp;K8&amp;","&amp;L8</f>
         <v>1,1,1,1</v>
       </c>
-      <c r="M8" s="5">
+      <c r="N8" s="5">
         <v>2</v>
       </c>
-      <c r="N8" s="5">
+      <c r="O8" s="5">
         <v>80</v>
       </c>
-      <c r="O8" s="5">
+      <c r="P8" s="5">
         <v>50</v>
       </c>
     </row>
-    <row r="9" ht="16.15" customHeight="1" spans="1:15">
+    <row r="9" ht="16.15" customHeight="1" spans="1:16">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="5">
         <v>3</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E9" s="3">
         <v>0</v>
       </c>
-      <c r="F9" s="3">
-        <v>2</v>
-      </c>
+      <c r="F9" s="3"/>
       <c r="G9" s="3">
         <v>2</v>
       </c>
@@ -2365,35 +2390,36 @@
       <c r="K9" s="3">
         <v>2</v>
       </c>
-      <c r="L9" s="5" t="str">
-        <f>H9&amp;","&amp;I9&amp;","&amp;J9&amp;","&amp;K9</f>
+      <c r="L9" s="3">
+        <v>2</v>
+      </c>
+      <c r="M9" s="5" t="str">
+        <f>I9&amp;","&amp;J9&amp;","&amp;K9&amp;","&amp;L9</f>
         <v>2,2,2,2</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3</v>
       </c>
-      <c r="N9" s="5">
+      <c r="O9" s="5">
         <v>50</v>
       </c>
-      <c r="O9" s="5">
+      <c r="P9" s="5">
         <v>30</v>
       </c>
     </row>
-    <row r="10" ht="14" customHeight="1" spans="1:15">
+    <row r="10" ht="14" customHeight="1" spans="1:16">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="5">
         <v>4</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E10" s="3">
         <v>1</v>
       </c>
-      <c r="F10" s="3">
-        <v>3</v>
-      </c>
+      <c r="F10" s="3"/>
       <c r="G10" s="3">
         <v>3</v>
       </c>
@@ -2409,17 +2435,20 @@
       <c r="K10" s="3">
         <v>3</v>
       </c>
-      <c r="L10" s="5" t="str">
-        <f>H10&amp;","&amp;I10&amp;","&amp;J10&amp;","&amp;K10</f>
+      <c r="L10" s="3">
+        <v>3</v>
+      </c>
+      <c r="M10" s="5" t="str">
+        <f>I10&amp;","&amp;J10&amp;","&amp;K10&amp;","&amp;L10</f>
         <v>3,3,3,3</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>4</v>
       </c>
-      <c r="N10" s="5">
+      <c r="O10" s="5">
         <v>80</v>
       </c>
-      <c r="O10" s="5">
+      <c r="P10" s="5">
         <v>50</v>
       </c>
     </row>

--- a/config/excel/Hero.xlsx
+++ b/config/excel/Hero.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29560" windowHeight="17020"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Hero" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="47">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -26,8 +26,15 @@
 1:SSR</t>
   </si>
   <si>
-    <t xml:space="preserve">0: 
-1:
+    <t xml:space="preserve">0:先锋
+1:重装
+2:阻击
+3:法师
+4:医疗
+5:侠盗
+6:护卫
+7:特种
+8:术士
 </t>
   </si>
   <si>
@@ -62,6 +69,9 @@
     <t>此列由前4列自动生成，不用填写</t>
   </si>
   <si>
+    <t>卡牌1级的属性固定值。目前先用于demo版本，之后再改回正常值。</t>
+  </si>
+  <si>
     <t>导出字段名</t>
   </si>
   <si>
@@ -172,12 +182,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -198,7 +208,80 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="SimSun"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -212,30 +295,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -243,7 +303,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -258,26 +318,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -289,44 +333,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -340,13 +349,20 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -375,91 +391,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -471,91 +571,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -584,11 +600,65 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -622,277 +692,226 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0"/>
   <colors>
@@ -2040,26 +2059,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.3461538461538" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.3461538461538" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.35" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.35" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.3461538461538" style="1" customWidth="1"/>
-    <col min="5" max="6" width="16.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.35" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.625" style="1" customWidth="1"/>
     <col min="7" max="8" width="16.25" style="1" customWidth="1"/>
-    <col min="9" max="12" width="9.42307692307692" style="1" customWidth="1"/>
-    <col min="13" max="13" width="16.1538461538462" style="1" customWidth="1"/>
+    <col min="9" max="12" width="9.425" style="1" customWidth="1"/>
+    <col min="13" max="13" width="16.15" style="1" customWidth="1"/>
     <col min="14" max="14" width="16.75" style="1" customWidth="1"/>
-    <col min="15" max="15" width="18.4615384615385" style="1" customWidth="1"/>
+    <col min="15" max="15" width="18.4583333333333" style="1" customWidth="1"/>
     <col min="16" max="16" width="20.125" style="1" customWidth="1"/>
     <col min="17" max="16384" width="6" style="1" customWidth="1"/>
   </cols>
@@ -2084,7 +2104,7 @@
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
     </row>
-    <row r="2" ht="101" spans="1:16">
+    <row r="2" ht="121" customHeight="1" spans="1:16">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="2" t="s">
@@ -2094,287 +2114,295 @@
       <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="M2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="2"/>
+      <c r="N2" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
     </row>
     <row r="3" ht="16.15" customHeight="1" spans="1:16">
       <c r="A3" s="3"/>
       <c r="B3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="F3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="G3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4" t="s">
+      <c r="H3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="N3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="O3" s="5" t="s">
         <v>21</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="4" ht="16.15" customHeight="1" spans="1:16">
       <c r="A4" s="3"/>
       <c r="B4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="C4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="E4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="F4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="G4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="H4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="I4" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="J4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="K4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="L4" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="M4" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="N4" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="O4" s="5" t="s">
         <v>35</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="5" ht="16.15" customHeight="1" spans="1:16">
       <c r="A5" s="3"/>
       <c r="B5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
     </row>
     <row r="6" ht="16.15" customHeight="1" spans="1:16">
       <c r="A6" s="3"/>
       <c r="B6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="C6" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4" t="s">
+      <c r="D6" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="N6" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="P6" s="4" t="s">
-        <v>39</v>
+      <c r="E6" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="7" ht="25" customHeight="1" spans="1:16">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
-      <c r="C7" s="5">
+      <c r="C7" s="6">
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="5">
+        <v>43</v>
+      </c>
+      <c r="E7" s="6">
         <v>0</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5">
+      <c r="F7" s="6">
+        <v>1</v>
+      </c>
+      <c r="G7" s="6">
         <v>0</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="6">
         <v>0</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="6">
         <v>0</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="6">
         <v>0</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="6">
         <v>0</v>
       </c>
-      <c r="L7" s="5">
+      <c r="L7" s="6">
         <v>0</v>
       </c>
-      <c r="M7" s="5" t="str">
+      <c r="M7" s="6" t="str">
         <f>I7&amp;","&amp;J7&amp;","&amp;K7&amp;","&amp;L7</f>
         <v>0,0,0,0</v>
       </c>
-      <c r="N7" s="5">
+      <c r="N7" s="6">
         <v>1</v>
       </c>
-      <c r="O7" s="5">
+      <c r="O7" s="6">
         <v>50</v>
       </c>
-      <c r="P7" s="5">
+      <c r="P7" s="6">
         <v>30</v>
       </c>
     </row>
     <row r="8" ht="25" customHeight="1" spans="1:16">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
-      <c r="C8" s="5">
+      <c r="C8" s="6">
         <v>2</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="5">
+        <v>44</v>
+      </c>
+      <c r="E8" s="6">
         <v>1</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5">
+      <c r="F8" s="6">
+        <v>0</v>
+      </c>
+      <c r="G8" s="6">
         <v>1</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="6">
         <v>1</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="6">
         <v>1</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8" s="6">
         <v>1</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K8" s="6">
         <v>1</v>
       </c>
-      <c r="L8" s="5">
+      <c r="L8" s="6">
         <v>1</v>
       </c>
-      <c r="M8" s="5" t="str">
+      <c r="M8" s="6" t="str">
         <f>I8&amp;","&amp;J8&amp;","&amp;K8&amp;","&amp;L8</f>
         <v>1,1,1,1</v>
       </c>
-      <c r="N8" s="5">
+      <c r="N8" s="6">
         <v>2</v>
       </c>
-      <c r="O8" s="5">
+      <c r="O8" s="6">
         <v>80</v>
       </c>
-      <c r="P8" s="5">
+      <c r="P8" s="6">
         <v>50</v>
       </c>
     </row>
     <row r="9" ht="16.15" customHeight="1" spans="1:16">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
-      <c r="C9" s="5">
+      <c r="C9" s="6">
         <v>3</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E9" s="3">
         <v>0</v>
       </c>
-      <c r="F9" s="3"/>
+      <c r="F9" s="3">
+        <v>3</v>
+      </c>
       <c r="G9" s="3">
         <v>2</v>
       </c>
@@ -2393,33 +2421,35 @@
       <c r="L9" s="3">
         <v>2</v>
       </c>
-      <c r="M9" s="5" t="str">
+      <c r="M9" s="6" t="str">
         <f>I9&amp;","&amp;J9&amp;","&amp;K9&amp;","&amp;L9</f>
         <v>2,2,2,2</v>
       </c>
       <c r="N9" s="3">
         <v>3</v>
       </c>
-      <c r="O9" s="5">
+      <c r="O9" s="6">
         <v>50</v>
       </c>
-      <c r="P9" s="5">
+      <c r="P9" s="6">
         <v>30</v>
       </c>
     </row>
     <row r="10" ht="14" customHeight="1" spans="1:16">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
-      <c r="C10" s="5">
+      <c r="C10" s="6">
         <v>4</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E10" s="3">
         <v>1</v>
       </c>
-      <c r="F10" s="3"/>
+      <c r="F10" s="3">
+        <v>4</v>
+      </c>
       <c r="G10" s="3">
         <v>3</v>
       </c>
@@ -2438,17 +2468,17 @@
       <c r="L10" s="3">
         <v>3</v>
       </c>
-      <c r="M10" s="5" t="str">
+      <c r="M10" s="6" t="str">
         <f>I10&amp;","&amp;J10&amp;","&amp;K10&amp;","&amp;L10</f>
         <v>3,3,3,3</v>
       </c>
       <c r="N10" s="3">
         <v>4</v>
       </c>
-      <c r="O10" s="5">
+      <c r="O10" s="6">
         <v>80</v>
       </c>
-      <c r="P10" s="5">
+      <c r="P10" s="6">
         <v>50</v>
       </c>
     </row>

--- a/config/excel/Hero.xlsx
+++ b/config/excel/Hero.xlsx
@@ -69,7 +69,8 @@
     <t>此列由前4列自动生成，不用填写</t>
   </si>
   <si>
-    <t>卡牌1级的属性固定值。目前先用于demo版本，之后再改回正常值。</t>
+    <t>对应att表
+卡牌1级的属性固定值。目前先用于demo版本，之后再改回正常值。目前正常值应该填61</t>
   </si>
   <si>
     <t>导出字段名</t>
@@ -182,10 +183,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -214,21 +215,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
@@ -236,7 +222,44 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -251,14 +274,69 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -274,76 +352,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -355,14 +364,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -391,61 +392,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -457,121 +572,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -600,21 +601,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -626,39 +612,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -680,11 +633,59 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -700,148 +701,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2063,8 +2064,8 @@
   <sheetPr/>
   <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1"/>

--- a/config/excel/Hero.xlsx
+++ b/config/excel/Hero.xlsx
@@ -69,8 +69,25 @@
     <t>此列由前4列自动生成，不用填写</t>
   </si>
   <si>
-    <t>对应att表
-卡牌1级的属性固定值。目前先用于demo版本，之后再改回正常值。目前正常值应该填61</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">对应att表
+卡牌1级的属性固定值。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>目前先用于demo版本，之后再改回正常值。目前正常值应该填21</t>
+    </r>
   </si>
   <si>
     <t>导出字段名</t>
@@ -183,12 +200,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -209,16 +226,8 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="SimSun"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -236,7 +245,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -244,6 +267,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -267,16 +305,17 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -288,8 +327,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -311,9 +351,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -328,23 +367,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -359,10 +382,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <color rgb="FFFF0000"/>
+      <name val="SimSun"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="36">
@@ -392,19 +414,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -416,43 +558,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -464,115 +594,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -631,11 +653,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -655,22 +692,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -689,160 +720,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2065,7 +2087,7 @@
   <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="N7" sqref="N7:N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1"/>

--- a/config/excel/Hero.xlsx
+++ b/config/excel/Hero.xlsx
@@ -14,12 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="56">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
   <si>
     <t>英雄id</t>
+  </si>
+  <si>
+    <t>单位米，程序处理除10000</t>
   </si>
   <si>
     <t>0:SR @@ -99,6 +102,9 @@
     <t>name</t>
   </si>
   <si>
+    <t>modelscope</t>
+  </si>
+  <si>
     <t>quality</t>
   </si>
   <si>
@@ -129,6 +135,9 @@
     <t>英雄名字</t>
   </si>
   <si>
+    <t>模型范围</t>
+  </si>
+  <si>
     <t>品质</t>
   </si>
   <si>
@@ -186,13 +195,31 @@
     <t>demo版本防战</t>
   </si>
   <si>
+    <t>15000</t>
+  </si>
+  <si>
     <t>demo版本狂战</t>
   </si>
   <si>
+    <t>10000</t>
+  </si>
+  <si>
     <t>demo版本法师</t>
   </si>
   <si>
     <t>demo版本治疗</t>
+  </si>
+  <si>
+    <t>7000</t>
+  </si>
+  <si>
+    <t>怪物1</t>
+  </si>
+  <si>
+    <t>怪物2</t>
+  </si>
+  <si>
+    <t>怪物3</t>
   </si>
 </sst>
 </file>
@@ -200,8 +227,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -230,6 +257,76 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
@@ -245,67 +342,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -320,10 +364,25 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -335,37 +394,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
@@ -373,9 +401,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -414,13 +441,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -432,13 +555,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -450,151 +591,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -624,6 +651,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -634,6 +676,39 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -653,26 +728,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -687,184 +747,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2084,10 +2111,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7:N10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1"/>
@@ -2095,19 +2122,19 @@
     <col min="1" max="1" width="14.35" style="1" customWidth="1"/>
     <col min="2" max="2" width="17.35" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.35" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="27.625" style="1" customWidth="1"/>
-    <col min="7" max="8" width="16.25" style="1" customWidth="1"/>
-    <col min="9" max="12" width="9.425" style="1" customWidth="1"/>
-    <col min="13" max="13" width="16.15" style="1" customWidth="1"/>
-    <col min="14" max="14" width="16.75" style="1" customWidth="1"/>
-    <col min="15" max="15" width="18.4583333333333" style="1" customWidth="1"/>
-    <col min="16" max="16" width="20.125" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="6" style="1" customWidth="1"/>
+    <col min="4" max="5" width="17.35" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="27.625" style="1" customWidth="1"/>
+    <col min="8" max="9" width="16.25" style="1" customWidth="1"/>
+    <col min="10" max="13" width="9.425" style="1" customWidth="1"/>
+    <col min="14" max="14" width="16.15" style="1" customWidth="1"/>
+    <col min="15" max="15" width="16.75" style="1" customWidth="1"/>
+    <col min="16" max="16" width="18.4583333333333" style="1" customWidth="1"/>
+    <col min="17" max="17" width="20.125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="6" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14" customHeight="1" spans="1:16">
+    <row r="1" ht="14" customHeight="1" spans="1:17">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2126,18 +2153,19 @@
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
     </row>
-    <row r="2" ht="121" customHeight="1" spans="1:16">
+    <row r="2" ht="121" customHeight="1" spans="1:17">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="2"/>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G2" s="4" t="s">
@@ -2158,111 +2186,120 @@
       <c r="L2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="N2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="O2" s="2"/>
+      <c r="O2" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
     </row>
-    <row r="3" ht="16.15" customHeight="1" spans="1:16">
+    <row r="3" ht="16.15" customHeight="1" spans="1:17">
       <c r="A3" s="3"/>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="5"/>
+        <v>19</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
-      <c r="M3" s="5" t="s">
-        <v>19</v>
-      </c>
+      <c r="M3" s="5"/>
       <c r="N3" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="4" ht="16.15" customHeight="1" spans="1:16">
+    <row r="4" ht="16.15" customHeight="1" spans="1:17">
       <c r="A4" s="3"/>
       <c r="B4" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="5" ht="16.15" customHeight="1" spans="1:16">
+    <row r="5" ht="16.15" customHeight="1" spans="1:17">
       <c r="A5" s="3"/>
       <c r="B5" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -2276,64 +2313,68 @@
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
     </row>
-    <row r="6" ht="16.15" customHeight="1" spans="1:16">
+    <row r="6" ht="16.15" customHeight="1" spans="1:17">
       <c r="A6" s="3"/>
       <c r="B6" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="I6" s="5"/>
+        <v>43</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>43</v>
+      </c>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
-      <c r="M6" s="5" t="s">
-        <v>42</v>
-      </c>
+      <c r="M6" s="5"/>
       <c r="N6" s="5" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>40</v>
+        <v>43</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="7" ht="25" customHeight="1" spans="1:16">
+    <row r="7" ht="25" customHeight="1" spans="1:17">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="6">
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" s="6">
+        <v>46</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="6">
         <v>0</v>
       </c>
-      <c r="F7" s="6">
+      <c r="G7" s="6">
         <v>1</v>
-      </c>
-      <c r="G7" s="6">
-        <v>0</v>
       </c>
       <c r="H7" s="6">
         <v>0</v>
@@ -2350,37 +2391,40 @@
       <c r="L7" s="6">
         <v>0</v>
       </c>
-      <c r="M7" s="6" t="str">
-        <f>I7&amp;","&amp;J7&amp;","&amp;K7&amp;","&amp;L7</f>
+      <c r="M7" s="6">
+        <v>0</v>
+      </c>
+      <c r="N7" s="6" t="str">
+        <f t="shared" ref="N7:N13" si="0">J7&amp;","&amp;K7&amp;","&amp;L7&amp;","&amp;M7</f>
         <v>0,0,0,0</v>
       </c>
-      <c r="N7" s="6">
+      <c r="O7" s="6">
         <v>1</v>
       </c>
-      <c r="O7" s="6">
+      <c r="P7" s="6">
         <v>50</v>
       </c>
-      <c r="P7" s="6">
+      <c r="Q7" s="6">
         <v>30</v>
       </c>
     </row>
-    <row r="8" ht="25" customHeight="1" spans="1:16">
+    <row r="8" ht="25" customHeight="1" spans="1:17">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="6">
         <v>2</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" s="6">
+        <v>48</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="6">
         <v>1</v>
       </c>
-      <c r="F8" s="6">
+      <c r="G8" s="6">
         <v>0</v>
-      </c>
-      <c r="G8" s="6">
-        <v>1</v>
       </c>
       <c r="H8" s="6">
         <v>1</v>
@@ -2397,37 +2441,40 @@
       <c r="L8" s="6">
         <v>1</v>
       </c>
-      <c r="M8" s="6" t="str">
-        <f>I8&amp;","&amp;J8&amp;","&amp;K8&amp;","&amp;L8</f>
+      <c r="M8" s="6">
+        <v>1</v>
+      </c>
+      <c r="N8" s="6" t="str">
+        <f t="shared" si="0"/>
         <v>1,1,1,1</v>
       </c>
-      <c r="N8" s="6">
+      <c r="O8" s="6">
         <v>2</v>
       </c>
-      <c r="O8" s="6">
+      <c r="P8" s="6">
         <v>80</v>
       </c>
-      <c r="P8" s="6">
+      <c r="Q8" s="6">
         <v>50</v>
       </c>
     </row>
-    <row r="9" ht="16.15" customHeight="1" spans="1:16">
+    <row r="9" ht="16.15" customHeight="1" spans="1:17">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="6">
         <v>3</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" s="3">
+        <v>50</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="3">
         <v>0</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>3</v>
-      </c>
-      <c r="G9" s="3">
-        <v>2</v>
       </c>
       <c r="H9" s="3">
         <v>2</v>
@@ -2444,37 +2491,40 @@
       <c r="L9" s="3">
         <v>2</v>
       </c>
-      <c r="M9" s="6" t="str">
-        <f>I9&amp;","&amp;J9&amp;","&amp;K9&amp;","&amp;L9</f>
+      <c r="M9" s="3">
+        <v>2</v>
+      </c>
+      <c r="N9" s="6" t="str">
+        <f t="shared" si="0"/>
         <v>2,2,2,2</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3</v>
       </c>
-      <c r="O9" s="6">
+      <c r="P9" s="6">
         <v>50</v>
       </c>
-      <c r="P9" s="6">
+      <c r="Q9" s="6">
         <v>30</v>
       </c>
     </row>
-    <row r="10" ht="14" customHeight="1" spans="1:16">
+    <row r="10" ht="14" customHeight="1" spans="1:17">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="6">
         <v>4</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="3">
+        <v>51</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="3">
         <v>1</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>4</v>
-      </c>
-      <c r="G10" s="3">
-        <v>3</v>
       </c>
       <c r="H10" s="3">
         <v>3</v>
@@ -2491,18 +2541,171 @@
       <c r="L10" s="3">
         <v>3</v>
       </c>
-      <c r="M10" s="6" t="str">
-        <f>I10&amp;","&amp;J10&amp;","&amp;K10&amp;","&amp;L10</f>
+      <c r="M10" s="3">
+        <v>3</v>
+      </c>
+      <c r="N10" s="6" t="str">
+        <f t="shared" si="0"/>
         <v>3,3,3,3</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>4</v>
       </c>
-      <c r="O10" s="6">
+      <c r="P10" s="6">
         <v>80</v>
       </c>
-      <c r="P10" s="6">
+      <c r="Q10" s="6">
         <v>50</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="25" customHeight="1" spans="1:17">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="6">
+        <v>5</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="6">
+        <v>1</v>
+      </c>
+      <c r="G11" s="6">
+        <v>0</v>
+      </c>
+      <c r="H11" s="6">
+        <v>1</v>
+      </c>
+      <c r="I11" s="6">
+        <v>-1</v>
+      </c>
+      <c r="J11" s="6">
+        <v>-1</v>
+      </c>
+      <c r="K11" s="6">
+        <v>-1</v>
+      </c>
+      <c r="L11" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M11" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N11" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>-1,-1,-1,-1</v>
+      </c>
+      <c r="O11" s="6">
+        <v>5</v>
+      </c>
+      <c r="P11" s="6">
+        <v>-1</v>
+      </c>
+      <c r="Q11" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="16.15" customHeight="1" spans="1:17">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="6">
+        <v>6</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3">
+        <v>3</v>
+      </c>
+      <c r="H12" s="3">
+        <v>2</v>
+      </c>
+      <c r="I12" s="6">
+        <v>-1</v>
+      </c>
+      <c r="J12" s="6">
+        <v>-1</v>
+      </c>
+      <c r="K12" s="6">
+        <v>-1</v>
+      </c>
+      <c r="L12" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M12" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N12" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>-1,-1,-1,-1</v>
+      </c>
+      <c r="O12" s="3">
+        <v>6</v>
+      </c>
+      <c r="P12" s="6">
+        <v>-1</v>
+      </c>
+      <c r="Q12" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="14" customHeight="1" spans="1:17">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="6">
+        <v>7</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="3">
+        <v>1</v>
+      </c>
+      <c r="G13" s="3">
+        <v>4</v>
+      </c>
+      <c r="H13" s="3">
+        <v>3</v>
+      </c>
+      <c r="I13" s="6">
+        <v>-1</v>
+      </c>
+      <c r="J13" s="6">
+        <v>-1</v>
+      </c>
+      <c r="K13" s="6">
+        <v>-1</v>
+      </c>
+      <c r="L13" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M13" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N13" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>-1,-1,-1,-1</v>
+      </c>
+      <c r="O13" s="3">
+        <v>7</v>
+      </c>
+      <c r="P13" s="6">
+        <v>-1</v>
+      </c>
+      <c r="Q13" s="6">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/config/excel/Hero.xlsx
+++ b/config/excel/Hero.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\global\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E699529-D2A1-4EEC-BE02-734AA28C6560}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hero" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="69">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -221,18 +227,72 @@
   <si>
     <t>怪物3</t>
   </si>
+  <si>
+    <t>技能1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能4</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Demo版本
+技能1
+普攻攻击</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Demo版本
+技能2
+战技技能</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Demo版本
+技能3
+奥义技能</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Demo版本
+技能4
+残响技能</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill4</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -244,11 +304,13 @@
       <sz val="9"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -257,164 +319,25 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="SimSun"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="SimSun"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="SimSun"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="36">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -441,192 +364,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -649,253 +392,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -911,58 +412,15 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
@@ -1035,6 +493,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1266,7 +727,7 @@
           </a:outerShdw>
         </a:effectLst>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1556,7 +1017,7 @@
           </a:outerShdw>
         </a:effectLst>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1832,7 +1293,7 @@
           <a:miter lim="400000"/>
         </a:ln>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2105,36 +1566,37 @@
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:Q13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:U13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.35" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.35" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.375" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.5" style="1" customWidth="1"/>
-    <col min="4" max="5" width="17.35" style="1" customWidth="1"/>
+    <col min="4" max="5" width="17.375" style="1" customWidth="1"/>
     <col min="6" max="6" width="16.75" style="1" customWidth="1"/>
     <col min="7" max="7" width="27.625" style="1" customWidth="1"/>
     <col min="8" max="9" width="16.25" style="1" customWidth="1"/>
-    <col min="10" max="13" width="9.425" style="1" customWidth="1"/>
-    <col min="14" max="14" width="16.15" style="1" customWidth="1"/>
+    <col min="10" max="13" width="9.375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="16.125" style="1" customWidth="1"/>
     <col min="15" max="15" width="16.75" style="1" customWidth="1"/>
-    <col min="16" max="16" width="18.4583333333333" style="1" customWidth="1"/>
+    <col min="16" max="16" width="18.5" style="1" customWidth="1"/>
     <col min="17" max="17" width="20.125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="6" style="1" customWidth="1"/>
+    <col min="18" max="21" width="9.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="6" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14" customHeight="1" spans="1:17">
+    <row r="1" spans="1:21" ht="14.1" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2155,7 +1617,7 @@
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
     </row>
-    <row r="2" ht="121" customHeight="1" spans="1:17">
+    <row r="2" spans="1:21" ht="120.95" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="2" t="s">
@@ -2197,8 +1659,20 @@
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
+      <c r="R2" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="S2" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="T2" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="U2" s="9" t="s">
+        <v>63</v>
+      </c>
     </row>
-    <row r="3" ht="16.15" customHeight="1" spans="1:17">
+    <row r="3" spans="1:21" ht="16.149999999999999" customHeight="1">
       <c r="A3" s="3"/>
       <c r="B3" s="2" t="s">
         <v>13</v>
@@ -2240,8 +1714,20 @@
       <c r="Q3" s="5" t="s">
         <v>24</v>
       </c>
+      <c r="R3" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="S3" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="T3" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="U3" s="10" t="s">
+        <v>68</v>
+      </c>
     </row>
-    <row r="4" ht="16.15" customHeight="1" spans="1:17">
+    <row r="4" spans="1:21" ht="16.149999999999999" customHeight="1">
       <c r="A4" s="3"/>
       <c r="B4" s="2" t="s">
         <v>25</v>
@@ -2291,8 +1777,20 @@
       <c r="Q4" s="5" t="s">
         <v>39</v>
       </c>
+      <c r="R4" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="S4" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="T4" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="U4" s="10" t="s">
+        <v>59</v>
+      </c>
     </row>
-    <row r="5" ht="16.15" customHeight="1" spans="1:17">
+    <row r="5" spans="1:21" ht="16.149999999999999" customHeight="1">
       <c r="A5" s="3"/>
       <c r="B5" s="2" t="s">
         <v>40</v>
@@ -2314,8 +1812,12 @@
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
     </row>
-    <row r="6" ht="16.15" customHeight="1" spans="1:17">
+    <row r="6" spans="1:21" ht="16.149999999999999" customHeight="1">
       <c r="A6" s="3"/>
       <c r="B6" s="2" t="s">
         <v>42</v>
@@ -2357,8 +1859,20 @@
       <c r="Q6" s="5" t="s">
         <v>43</v>
       </c>
+      <c r="R6" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="S6" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="T6" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="U6" s="10" t="s">
+        <v>64</v>
+      </c>
     </row>
-    <row r="7" ht="25" customHeight="1" spans="1:17">
+    <row r="7" spans="1:21" ht="24.95" customHeight="1">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="6">
@@ -2407,8 +1921,20 @@
       <c r="Q7" s="6">
         <v>30</v>
       </c>
+      <c r="R7" s="1">
+        <v>101001</v>
+      </c>
+      <c r="S7" s="1">
+        <v>101002</v>
+      </c>
+      <c r="T7" s="1">
+        <v>101003</v>
+      </c>
+      <c r="U7" s="1">
+        <v>101004</v>
+      </c>
     </row>
-    <row r="8" ht="25" customHeight="1" spans="1:17">
+    <row r="8" spans="1:21" ht="24.95" customHeight="1">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="6">
@@ -2457,8 +1983,20 @@
       <c r="Q8" s="6">
         <v>50</v>
       </c>
+      <c r="R8" s="1">
+        <v>102001</v>
+      </c>
+      <c r="S8" s="1">
+        <v>102002</v>
+      </c>
+      <c r="T8" s="1">
+        <v>102003</v>
+      </c>
+      <c r="U8" s="1">
+        <v>102004</v>
+      </c>
     </row>
-    <row r="9" ht="16.15" customHeight="1" spans="1:17">
+    <row r="9" spans="1:21" ht="16.149999999999999" customHeight="1">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="6">
@@ -2507,8 +2045,20 @@
       <c r="Q9" s="6">
         <v>30</v>
       </c>
+      <c r="R9" s="1">
+        <v>103001</v>
+      </c>
+      <c r="S9" s="1">
+        <v>103002</v>
+      </c>
+      <c r="T9" s="1">
+        <v>103003</v>
+      </c>
+      <c r="U9" s="1">
+        <v>103004</v>
+      </c>
     </row>
-    <row r="10" ht="14" customHeight="1" spans="1:17">
+    <row r="10" spans="1:21" ht="14.1" customHeight="1">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="6">
@@ -2557,8 +2107,20 @@
       <c r="Q10" s="6">
         <v>50</v>
       </c>
+      <c r="R10" s="1">
+        <v>104001</v>
+      </c>
+      <c r="S10" s="1">
+        <v>104002</v>
+      </c>
+      <c r="T10" s="1">
+        <v>104003</v>
+      </c>
+      <c r="U10" s="1">
+        <v>104004</v>
+      </c>
     </row>
-    <row r="11" s="1" customFormat="1" ht="25" customHeight="1" spans="1:17">
+    <row r="11" spans="1:21" ht="24.95" customHeight="1">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="6">
@@ -2607,8 +2169,20 @@
       <c r="Q11" s="6">
         <v>-1</v>
       </c>
+      <c r="R11" s="1">
+        <v>105001</v>
+      </c>
+      <c r="S11" s="1">
+        <v>105002</v>
+      </c>
+      <c r="T11" s="1">
+        <v>105003</v>
+      </c>
+      <c r="U11" s="1">
+        <v>105004</v>
+      </c>
     </row>
-    <row r="12" s="1" customFormat="1" ht="16.15" customHeight="1" spans="1:17">
+    <row r="12" spans="1:21" ht="16.149999999999999" customHeight="1">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="6">
@@ -2657,8 +2231,20 @@
       <c r="Q12" s="6">
         <v>-1</v>
       </c>
+      <c r="R12" s="1">
+        <v>106001</v>
+      </c>
+      <c r="S12" s="1">
+        <v>106002</v>
+      </c>
+      <c r="T12" s="1">
+        <v>106003</v>
+      </c>
+      <c r="U12" s="1">
+        <v>106004</v>
+      </c>
     </row>
-    <row r="13" s="1" customFormat="1" ht="14" customHeight="1" spans="1:17">
+    <row r="13" spans="1:21" ht="14.1" customHeight="1">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="6">
@@ -2707,10 +2293,23 @@
       <c r="Q13" s="6">
         <v>-1</v>
       </c>
+      <c r="R13" s="1">
+        <v>107001</v>
+      </c>
+      <c r="S13" s="1">
+        <v>107002</v>
+      </c>
+      <c r="T13" s="1">
+        <v>107003</v>
+      </c>
+      <c r="U13" s="1">
+        <v>107004</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/config/excel/Hero.xlsx
+++ b/config/excel/Hero.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\global\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E699529-D2A1-4EEC-BE02-734AA28C6560}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Hero" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -25,10 +19,10 @@
     <t>行列头两行不会被读取</t>
   </si>
   <si>
-    <t>英雄id</t>
-  </si>
-  <si>
-    <t>单位米，程序处理除10000</t>
+    <t>英雄和怪物id</t>
+  </si>
+  <si>
+    <t>单位米</t>
   </si>
   <si>
     <t>0:SR @@ -99,200 +93,193 @@
     </r>
   </si>
   <si>
-    <t>导出字段名</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>modelscope</t>
-  </si>
-  <si>
-    <t>quality</t>
-  </si>
-  <si>
-    <t>Profession</t>
-  </si>
-  <si>
-    <t>race</t>
-  </si>
-  <si>
-    <t>weaponType</t>
-  </si>
-  <si>
-    <t>initEquipId</t>
-  </si>
-  <si>
-    <t>attId</t>
-  </si>
-  <si>
-    <t>fragmentCompose</t>
-  </si>
-  <si>
-    <t>fragmentTransform</t>
-  </si>
-  <si>
-    <t>导出字段描述</t>
-  </si>
-  <si>
-    <t>英雄名字</t>
-  </si>
-  <si>
-    <t>模型范围</t>
-  </si>
-  <si>
-    <t>品质</t>
-  </si>
-  <si>
-    <t>职业</t>
-  </si>
-  <si>
-    <t>种族</t>
-  </si>
-  <si>
-    <t>武器类型</t>
-  </si>
-  <si>
-    <t>武器id</t>
-  </si>
-  <si>
-    <t>衣服id</t>
-  </si>
-  <si>
-    <t>鞋子id</t>
-  </si>
-  <si>
-    <t>饰品id</t>
-  </si>
-  <si>
-    <t>装备位置</t>
-  </si>
-  <si>
-    <t>属性id</t>
-  </si>
-  <si>
-    <t>合成卡牌所需碎片</t>
-  </si>
-  <si>
-    <t>重复获得卡牌转化碎片数</t>
-  </si>
-  <si>
-    <t>字段控制</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>导出字段类型</t>
-  </si>
-  <si>
-    <t>int32</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>[]int32</t>
-  </si>
-  <si>
-    <t>demo版本防战</t>
-  </si>
-  <si>
-    <t>15000</t>
-  </si>
-  <si>
-    <t>demo版本狂战</t>
-  </si>
-  <si>
-    <t>10000</t>
-  </si>
-  <si>
-    <t>demo版本法师</t>
-  </si>
-  <si>
-    <t>demo版本治疗</t>
-  </si>
-  <si>
-    <t>7000</t>
-  </si>
-  <si>
-    <t>怪物1</t>
-  </si>
-  <si>
-    <t>怪物2</t>
-  </si>
-  <si>
-    <t>怪物3</t>
-  </si>
-  <si>
-    <t>技能1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能3</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能4</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>Demo版本
 技能1
 普攻攻击</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Demo版本
 技能2
 战技技能</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Demo版本
 技能3
 奥义技能</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Demo版本
 技能4
 残响技能</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>导出字段名</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>modelscope</t>
+  </si>
+  <si>
+    <t>quality</t>
+  </si>
+  <si>
+    <t>Profession</t>
+  </si>
+  <si>
+    <t>race</t>
+  </si>
+  <si>
+    <t>weaponType</t>
+  </si>
+  <si>
+    <t>initEquipId</t>
+  </si>
+  <si>
+    <t>attId</t>
+  </si>
+  <si>
+    <t>fragmentCompose</t>
+  </si>
+  <si>
+    <t>fragmentTransform</t>
+  </si>
+  <si>
+    <t>skill1</t>
+  </si>
+  <si>
+    <t>skill2</t>
+  </si>
+  <si>
+    <t>skill3</t>
+  </si>
+  <si>
+    <t>skill4</t>
+  </si>
+  <si>
+    <t>导出字段描述</t>
+  </si>
+  <si>
+    <t>英雄名字</t>
+  </si>
+  <si>
+    <t>模型范围</t>
+  </si>
+  <si>
+    <t>品质</t>
+  </si>
+  <si>
+    <t>职业</t>
+  </si>
+  <si>
+    <t>种族</t>
+  </si>
+  <si>
+    <t>武器类型</t>
+  </si>
+  <si>
+    <t>武器id</t>
+  </si>
+  <si>
+    <t>衣服id</t>
+  </si>
+  <si>
+    <t>鞋子id</t>
+  </si>
+  <si>
+    <t>饰品id</t>
+  </si>
+  <si>
+    <t>装备位置</t>
+  </si>
+  <si>
+    <t>属性id</t>
+  </si>
+  <si>
+    <t>合成卡牌所需碎片</t>
+  </si>
+  <si>
+    <t>重复获得卡牌转化碎片数</t>
+  </si>
+  <si>
+    <t>技能1</t>
+  </si>
+  <si>
+    <t>技能2</t>
+  </si>
+  <si>
+    <t>技能3</t>
+  </si>
+  <si>
+    <t>技能4</t>
+  </si>
+  <si>
+    <t>字段控制</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>导出字段类型</t>
   </si>
   <si>
     <t>int32</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>skill1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>skill2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>skill3</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>skill4</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>[]int32</t>
+  </si>
+  <si>
+    <t>demo版本防战</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>demo版本狂战</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>demo版本法师</t>
+  </si>
+  <si>
+    <t>demo版本治疗</t>
+  </si>
+  <si>
+    <t>0.7</t>
+  </si>
+  <si>
+    <t>怪物1</t>
+  </si>
+  <si>
+    <t>怪物2</t>
+  </si>
+  <si>
+    <t>怪物3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -304,28 +291,15 @@
       <sz val="9"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="SimSun"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="SimSun"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <name val="SimSun"/>
       <charset val="134"/>
     </font>
@@ -336,8 +310,165 @@
       <name val="SimSun"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="SimSun"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -368,8 +499,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -392,9 +709,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -415,12 +974,59 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
@@ -493,9 +1099,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1566,23 +2169,23 @@
       </a:style>
     </a:txDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:U13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="T8" sqref="T8"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="14.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.375" style="1" customWidth="1"/>
     <col min="4" max="5" width="17.375" style="1" customWidth="1"/>
     <col min="6" max="6" width="16.75" style="1" customWidth="1"/>
     <col min="7" max="7" width="27.625" style="1" customWidth="1"/>
@@ -1592,11 +2195,11 @@
     <col min="15" max="15" width="16.75" style="1" customWidth="1"/>
     <col min="16" max="16" width="18.5" style="1" customWidth="1"/>
     <col min="17" max="17" width="20.125" style="1" customWidth="1"/>
-    <col min="18" max="21" width="9.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="21" width="9.25" style="1" customWidth="1"/>
     <col min="22" max="16384" width="6" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="14.1" customHeight="1">
+    <row r="1" ht="14.1" customHeight="1" spans="1:17">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1617,7 +2220,7 @@
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
     </row>
-    <row r="2" spans="1:21" ht="120.95" customHeight="1">
+    <row r="2" ht="120.95" customHeight="1" spans="1:21">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="2" t="s">
@@ -1660,144 +2263,144 @@
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
       <c r="R2" s="9" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="S2" s="9" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="T2" s="9" t="s">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="U2" s="9" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="16.149999999999999" customHeight="1">
+    <row r="3" ht="16.15" customHeight="1" spans="1:21">
       <c r="A3" s="3"/>
       <c r="B3" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
       <c r="N3" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="R3" s="10" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="S3" s="10" t="s">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="T3" s="10" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="U3" s="10" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="16.149999999999999" customHeight="1">
+    <row r="4" ht="16.15" customHeight="1" spans="1:21">
       <c r="A4" s="3"/>
       <c r="B4" s="2" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="R4" s="10" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="S4" s="10" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="T4" s="10" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="U4" s="10" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="16.149999999999999" customHeight="1">
+    <row r="5" ht="16.15" customHeight="1" spans="1:21">
       <c r="A5" s="3"/>
       <c r="B5" s="2" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -1817,72 +2420,72 @@
       <c r="T5" s="10"/>
       <c r="U5" s="10"/>
     </row>
-    <row r="6" spans="1:21" ht="16.149999999999999" customHeight="1">
+    <row r="6" ht="16.15" customHeight="1" spans="1:21">
       <c r="A6" s="3"/>
       <c r="B6" s="2" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="R6" s="10" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="S6" s="10" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="T6" s="10" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="U6" s="10" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="24.95" customHeight="1">
+    <row r="7" ht="24.95" customHeight="1" spans="1:21">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="6">
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="F7" s="6">
         <v>0</v>
@@ -1934,17 +2537,17 @@
         <v>101004</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="24.95" customHeight="1">
+    <row r="8" ht="24.95" customHeight="1" spans="1:21">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="6">
         <v>2</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="F8" s="6">
         <v>1</v>
@@ -1996,17 +2599,17 @@
         <v>102004</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="16.149999999999999" customHeight="1">
+    <row r="9" ht="16.15" customHeight="1" spans="1:21">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="6">
         <v>3</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="F9" s="3">
         <v>0</v>
@@ -2058,17 +2661,17 @@
         <v>103004</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="14.1" customHeight="1">
+    <row r="10" ht="14.1" customHeight="1" spans="1:21">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="6">
         <v>4</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="F10" s="3">
         <v>1</v>
@@ -2120,17 +2723,17 @@
         <v>104004</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="24.95" customHeight="1">
+    <row r="11" ht="24.95" customHeight="1" spans="1:21">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="6">
         <v>5</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="F11" s="6">
         <v>1</v>
@@ -2182,17 +2785,17 @@
         <v>105004</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="16.149999999999999" customHeight="1">
+    <row r="12" ht="16.15" customHeight="1" spans="1:21">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="6">
         <v>6</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="F12" s="3">
         <v>0</v>
@@ -2244,17 +2847,17 @@
         <v>106004</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="14.1" customHeight="1">
+    <row r="13" ht="14.1" customHeight="1" spans="1:21">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="6">
         <v>7</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="F13" s="3">
         <v>1</v>
@@ -2307,9 +2910,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/config/excel/Hero.xlsx
+++ b/config/excel/Hero.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\global\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66056CD1-3C46-4564-9E69-03DD71CB403E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hero" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="74">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -268,18 +274,32 @@
   <si>
     <t>怪物3</t>
   </si>
+  <si>
+    <t>模型资源</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>modelresource</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>模型资源文件名称</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>puluomixiusi</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="26">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -291,11 +311,13 @@
       <sz val="9"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -311,164 +333,18 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="SimSun"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="SimSun"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -499,194 +375,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -709,251 +399,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -976,57 +424,10 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
@@ -1099,6 +500,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2169,16 +1573,16 @@
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:U13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:V13"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1"/>
@@ -2186,20 +1590,20 @@
     <col min="1" max="1" width="14.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="13.25" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.375" style="1" customWidth="1"/>
-    <col min="4" max="5" width="17.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="27.625" style="1" customWidth="1"/>
-    <col min="8" max="9" width="16.25" style="1" customWidth="1"/>
-    <col min="10" max="13" width="9.375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="16.125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="16.75" style="1" customWidth="1"/>
-    <col min="16" max="16" width="18.5" style="1" customWidth="1"/>
-    <col min="17" max="17" width="20.125" style="1" customWidth="1"/>
-    <col min="18" max="21" width="9.25" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="6" style="1"/>
+    <col min="4" max="6" width="17.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="27.625" style="1" customWidth="1"/>
+    <col min="9" max="10" width="16.25" style="1" customWidth="1"/>
+    <col min="11" max="14" width="9.375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="16.125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="16.75" style="1" customWidth="1"/>
+    <col min="17" max="17" width="18.5" style="1" customWidth="1"/>
+    <col min="18" max="18" width="20.125" style="1" customWidth="1"/>
+    <col min="19" max="22" width="9.25" style="1" customWidth="1"/>
+    <col min="23" max="16384" width="6" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.1" customHeight="1" spans="1:17">
+    <row r="1" spans="1:22" ht="14.1" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2219,63 +1623,67 @@
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
     </row>
-    <row r="2" ht="120.95" customHeight="1" spans="1:21">
+    <row r="2" spans="1:22" ht="120.95" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="2"/>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="O2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="P2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
-      <c r="R2" s="9" t="s">
+      <c r="R2" s="2"/>
+      <c r="S2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="S2" s="9" t="s">
+      <c r="T2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="T2" s="9" t="s">
+      <c r="U2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="9" t="s">
+      <c r="V2" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" ht="16.15" customHeight="1" spans="1:21">
+    <row r="3" spans="1:22" ht="16.149999999999999" customHeight="1">
       <c r="A3" s="3"/>
       <c r="B3" s="2" t="s">
         <v>17</v>
@@ -2287,50 +1695,53 @@
         <v>19</v>
       </c>
       <c r="E3" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="I3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="J3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
-      <c r="N3" s="5" t="s">
+      <c r="N3" s="5"/>
+      <c r="O3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="P3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="P3" s="5" t="s">
+      <c r="Q3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="Q3" s="5" t="s">
+      <c r="R3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="R3" s="10" t="s">
+      <c r="S3" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="S3" s="10" t="s">
+      <c r="T3" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="T3" s="10" t="s">
+      <c r="U3" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="U3" s="10" t="s">
+      <c r="V3" s="10" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" ht="16.15" customHeight="1" spans="1:21">
+    <row r="4" spans="1:22" ht="16.149999999999999" customHeight="1">
       <c r="A4" s="3"/>
       <c r="B4" s="2" t="s">
         <v>33</v>
@@ -2342,58 +1753,61 @@
         <v>34</v>
       </c>
       <c r="E4" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="H4" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="I4" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="J4" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="K4" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="L4" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="M4" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="M4" s="5" t="s">
+      <c r="N4" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="N4" s="5" t="s">
+      <c r="O4" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="O4" s="5" t="s">
+      <c r="P4" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="P4" s="5" t="s">
+      <c r="Q4" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="Q4" s="5" t="s">
+      <c r="R4" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="R4" s="10" t="s">
+      <c r="S4" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="S4" s="10" t="s">
+      <c r="T4" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="T4" s="10" t="s">
+      <c r="U4" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="U4" s="10" t="s">
+      <c r="V4" s="10" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="5" ht="16.15" customHeight="1" spans="1:21">
+    <row r="5" spans="1:22" ht="16.149999999999999" customHeight="1">
       <c r="A5" s="3"/>
       <c r="B5" s="2" t="s">
         <v>52</v>
@@ -2415,12 +1829,13 @@
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
-      <c r="R5" s="10"/>
+      <c r="R5" s="5"/>
       <c r="S5" s="10"/>
       <c r="T5" s="10"/>
       <c r="U5" s="10"/>
+      <c r="V5" s="10"/>
     </row>
-    <row r="6" ht="16.15" customHeight="1" spans="1:21">
+    <row r="6" spans="1:22" ht="16.149999999999999" customHeight="1">
       <c r="A6" s="3"/>
       <c r="B6" s="2" t="s">
         <v>54</v>
@@ -2432,10 +1847,10 @@
         <v>56</v>
       </c>
       <c r="E6" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>57</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>55</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>55</v>
@@ -2446,15 +1861,15 @@
       <c r="I6" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="J6" s="5"/>
+      <c r="J6" s="5" t="s">
+        <v>55</v>
+      </c>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
-      <c r="N6" s="5" t="s">
+      <c r="N6" s="5"/>
+      <c r="O6" s="5" t="s">
         <v>58</v>
-      </c>
-      <c r="O6" s="5" t="s">
-        <v>55</v>
       </c>
       <c r="P6" s="5" t="s">
         <v>55</v>
@@ -2462,7 +1877,7 @@
       <c r="Q6" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="R6" s="10" t="s">
+      <c r="R6" s="5" t="s">
         <v>55</v>
       </c>
       <c r="S6" s="10" t="s">
@@ -2474,8 +1889,11 @@
       <c r="U6" s="10" t="s">
         <v>55</v>
       </c>
+      <c r="V6" s="10" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="7" ht="24.95" customHeight="1" spans="1:21">
+    <row r="7" spans="1:22" ht="24.95" customHeight="1">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="6">
@@ -2485,16 +1903,16 @@
         <v>59</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F7" s="6">
+      <c r="G7" s="6">
         <v>0</v>
       </c>
-      <c r="G7" s="6">
+      <c r="H7" s="6">
         <v>1</v>
-      </c>
-      <c r="H7" s="6">
-        <v>0</v>
       </c>
       <c r="I7" s="6">
         <v>0</v>
@@ -2511,33 +1929,36 @@
       <c r="M7" s="6">
         <v>0</v>
       </c>
-      <c r="N7" s="6" t="str">
-        <f t="shared" ref="N7:N13" si="0">J7&amp;","&amp;K7&amp;","&amp;L7&amp;","&amp;M7</f>
+      <c r="N7" s="6">
+        <v>0</v>
+      </c>
+      <c r="O7" s="6" t="str">
+        <f t="shared" ref="O7:O13" si="0">K7&amp;","&amp;L7&amp;","&amp;M7&amp;","&amp;N7</f>
         <v>0,0,0,0</v>
       </c>
-      <c r="O7" s="6">
+      <c r="P7" s="6">
         <v>1</v>
       </c>
-      <c r="P7" s="6">
+      <c r="Q7" s="6">
         <v>50</v>
       </c>
-      <c r="Q7" s="6">
+      <c r="R7" s="6">
         <v>30</v>
       </c>
-      <c r="R7" s="1">
+      <c r="S7" s="1">
         <v>101001</v>
       </c>
-      <c r="S7" s="1">
+      <c r="T7" s="1">
         <v>101002</v>
       </c>
-      <c r="T7" s="1">
+      <c r="U7" s="1">
         <v>101003</v>
       </c>
-      <c r="U7" s="1">
+      <c r="V7" s="1">
         <v>101004</v>
       </c>
     </row>
-    <row r="8" ht="24.95" customHeight="1" spans="1:21">
+    <row r="8" spans="1:22" ht="24.95" customHeight="1">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="6">
@@ -2547,16 +1968,16 @@
         <v>61</v>
       </c>
       <c r="E8" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F8" s="6">
+      <c r="G8" s="6">
         <v>1</v>
       </c>
-      <c r="G8" s="6">
+      <c r="H8" s="6">
         <v>0</v>
-      </c>
-      <c r="H8" s="6">
-        <v>1</v>
       </c>
       <c r="I8" s="6">
         <v>1</v>
@@ -2573,33 +1994,36 @@
       <c r="M8" s="6">
         <v>1</v>
       </c>
-      <c r="N8" s="6" t="str">
+      <c r="N8" s="6">
+        <v>1</v>
+      </c>
+      <c r="O8" s="6" t="str">
         <f t="shared" si="0"/>
         <v>1,1,1,1</v>
       </c>
-      <c r="O8" s="6">
+      <c r="P8" s="6">
         <v>2</v>
       </c>
-      <c r="P8" s="6">
+      <c r="Q8" s="6">
         <v>80</v>
       </c>
-      <c r="Q8" s="6">
+      <c r="R8" s="6">
         <v>50</v>
       </c>
-      <c r="R8" s="1">
+      <c r="S8" s="1">
         <v>102001</v>
       </c>
-      <c r="S8" s="1">
+      <c r="T8" s="1">
         <v>102002</v>
       </c>
-      <c r="T8" s="1">
+      <c r="U8" s="1">
         <v>102003</v>
       </c>
-      <c r="U8" s="1">
+      <c r="V8" s="1">
         <v>102004</v>
       </c>
     </row>
-    <row r="9" ht="16.15" customHeight="1" spans="1:21">
+    <row r="9" spans="1:22" ht="16.149999999999999" customHeight="1">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="6">
@@ -2609,16 +2033,16 @@
         <v>63</v>
       </c>
       <c r="E9" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>0</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>3</v>
-      </c>
-      <c r="H9" s="3">
-        <v>2</v>
       </c>
       <c r="I9" s="3">
         <v>2</v>
@@ -2635,33 +2059,36 @@
       <c r="M9" s="3">
         <v>2</v>
       </c>
-      <c r="N9" s="6" t="str">
+      <c r="N9" s="3">
+        <v>2</v>
+      </c>
+      <c r="O9" s="6" t="str">
         <f t="shared" si="0"/>
         <v>2,2,2,2</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3</v>
       </c>
-      <c r="P9" s="6">
+      <c r="Q9" s="6">
         <v>50</v>
       </c>
-      <c r="Q9" s="6">
+      <c r="R9" s="6">
         <v>30</v>
       </c>
-      <c r="R9" s="1">
+      <c r="S9" s="1">
         <v>103001</v>
       </c>
-      <c r="S9" s="1">
+      <c r="T9" s="1">
         <v>103002</v>
       </c>
-      <c r="T9" s="1">
+      <c r="U9" s="1">
         <v>103003</v>
       </c>
-      <c r="U9" s="1">
+      <c r="V9" s="1">
         <v>103004</v>
       </c>
     </row>
-    <row r="10" ht="14.1" customHeight="1" spans="1:21">
+    <row r="10" spans="1:22" ht="14.1" customHeight="1">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="6">
@@ -2671,16 +2098,16 @@
         <v>64</v>
       </c>
       <c r="E10" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>4</v>
-      </c>
-      <c r="H10" s="3">
-        <v>3</v>
       </c>
       <c r="I10" s="3">
         <v>3</v>
@@ -2697,33 +2124,36 @@
       <c r="M10" s="3">
         <v>3</v>
       </c>
-      <c r="N10" s="6" t="str">
+      <c r="N10" s="3">
+        <v>3</v>
+      </c>
+      <c r="O10" s="6" t="str">
         <f t="shared" si="0"/>
         <v>3,3,3,3</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>4</v>
       </c>
-      <c r="P10" s="6">
+      <c r="Q10" s="6">
         <v>80</v>
       </c>
-      <c r="Q10" s="6">
+      <c r="R10" s="6">
         <v>50</v>
       </c>
-      <c r="R10" s="1">
+      <c r="S10" s="1">
         <v>104001</v>
       </c>
-      <c r="S10" s="1">
+      <c r="T10" s="1">
         <v>104002</v>
       </c>
-      <c r="T10" s="1">
+      <c r="U10" s="1">
         <v>104003</v>
       </c>
-      <c r="U10" s="1">
+      <c r="V10" s="1">
         <v>104004</v>
       </c>
     </row>
-    <row r="11" ht="24.95" customHeight="1" spans="1:21">
+    <row r="11" spans="1:22" ht="24.95" customHeight="1">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="6">
@@ -2733,19 +2163,19 @@
         <v>66</v>
       </c>
       <c r="E11" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F11" s="6">
+      <c r="G11" s="6">
         <v>1</v>
       </c>
-      <c r="G11" s="6">
+      <c r="H11" s="6">
         <v>0</v>
       </c>
-      <c r="H11" s="6">
+      <c r="I11" s="6">
         <v>1</v>
-      </c>
-      <c r="I11" s="6">
-        <v>-1</v>
       </c>
       <c r="J11" s="6">
         <v>-1</v>
@@ -2759,33 +2189,36 @@
       <c r="M11" s="6">
         <v>-1</v>
       </c>
-      <c r="N11" s="6" t="str">
+      <c r="N11" s="6">
+        <v>-1</v>
+      </c>
+      <c r="O11" s="6" t="str">
         <f t="shared" si="0"/>
         <v>-1,-1,-1,-1</v>
       </c>
-      <c r="O11" s="6">
+      <c r="P11" s="6">
         <v>5</v>
-      </c>
-      <c r="P11" s="6">
-        <v>-1</v>
       </c>
       <c r="Q11" s="6">
         <v>-1</v>
       </c>
-      <c r="R11" s="1">
+      <c r="R11" s="6">
+        <v>-1</v>
+      </c>
+      <c r="S11" s="1">
         <v>105001</v>
       </c>
-      <c r="S11" s="1">
+      <c r="T11" s="1">
         <v>105002</v>
       </c>
-      <c r="T11" s="1">
+      <c r="U11" s="1">
         <v>105003</v>
       </c>
-      <c r="U11" s="1">
+      <c r="V11" s="1">
         <v>105004</v>
       </c>
     </row>
-    <row r="12" ht="16.15" customHeight="1" spans="1:21">
+    <row r="12" spans="1:22" ht="16.149999999999999" customHeight="1">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="6">
@@ -2795,19 +2228,19 @@
         <v>67</v>
       </c>
       <c r="E12" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>0</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>3</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>2</v>
-      </c>
-      <c r="I12" s="6">
-        <v>-1</v>
       </c>
       <c r="J12" s="6">
         <v>-1</v>
@@ -2821,33 +2254,36 @@
       <c r="M12" s="6">
         <v>-1</v>
       </c>
-      <c r="N12" s="6" t="str">
+      <c r="N12" s="6">
+        <v>-1</v>
+      </c>
+      <c r="O12" s="6" t="str">
         <f t="shared" si="0"/>
         <v>-1,-1,-1,-1</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>6</v>
-      </c>
-      <c r="P12" s="6">
-        <v>-1</v>
       </c>
       <c r="Q12" s="6">
         <v>-1</v>
       </c>
-      <c r="R12" s="1">
+      <c r="R12" s="6">
+        <v>-1</v>
+      </c>
+      <c r="S12" s="1">
         <v>106001</v>
       </c>
-      <c r="S12" s="1">
+      <c r="T12" s="1">
         <v>106002</v>
       </c>
-      <c r="T12" s="1">
+      <c r="U12" s="1">
         <v>106003</v>
       </c>
-      <c r="U12" s="1">
+      <c r="V12" s="1">
         <v>106004</v>
       </c>
     </row>
-    <row r="13" ht="14.1" customHeight="1" spans="1:21">
+    <row r="13" spans="1:22" ht="14.1" customHeight="1">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="6">
@@ -2857,19 +2293,19 @@
         <v>68</v>
       </c>
       <c r="E13" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F13" s="3">
+      <c r="G13" s="3">
         <v>1</v>
       </c>
-      <c r="G13" s="3">
+      <c r="H13" s="3">
         <v>4</v>
       </c>
-      <c r="H13" s="3">
+      <c r="I13" s="3">
         <v>3</v>
-      </c>
-      <c r="I13" s="6">
-        <v>-1</v>
       </c>
       <c r="J13" s="6">
         <v>-1</v>
@@ -2883,35 +2319,39 @@
       <c r="M13" s="6">
         <v>-1</v>
       </c>
-      <c r="N13" s="6" t="str">
+      <c r="N13" s="6">
+        <v>-1</v>
+      </c>
+      <c r="O13" s="6" t="str">
         <f t="shared" si="0"/>
         <v>-1,-1,-1,-1</v>
       </c>
-      <c r="O13" s="3">
+      <c r="P13" s="3">
         <v>7</v>
-      </c>
-      <c r="P13" s="6">
-        <v>-1</v>
       </c>
       <c r="Q13" s="6">
         <v>-1</v>
       </c>
-      <c r="R13" s="1">
+      <c r="R13" s="6">
+        <v>-1</v>
+      </c>
+      <c r="S13" s="1">
         <v>107001</v>
       </c>
-      <c r="S13" s="1">
+      <c r="T13" s="1">
         <v>107002</v>
       </c>
-      <c r="T13" s="1">
+      <c r="U13" s="1">
         <v>107003</v>
       </c>
-      <c r="U13" s="1">
+      <c r="V13" s="1">
         <v>107004</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/config/excel/Hero.xlsx
+++ b/config/excel/Hero.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\global\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66056CD1-3C46-4564-9E69-03DD71CB403E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Hero" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="69">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -79,11 +73,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="SimSun"/>
-        <charset val="134"/>
-      </rPr>
       <t xml:space="preserve">对应att表
 卡牌1级的属性固定值。
 </t>
@@ -95,7 +84,7 @@
         <rFont val="SimSun"/>
         <charset val="134"/>
       </rPr>
-      <t>目前先用于demo版本，之后再改回正常值。目前正常值应该填21</t>
+      <t>demo版本目前临时填，正式后需要改成21</t>
     </r>
   </si>
   <si>
@@ -273,33 +262,19 @@
   </si>
   <si>
     <t>怪物3</t>
-  </si>
-  <si>
-    <t>模型资源</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>modelresource</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>模型资源文件名称</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>puluomixiusi</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -311,13 +286,11 @@
       <sz val="9"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -334,17 +307,163 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="SimSun"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="SimSun"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -375,8 +494,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -399,9 +704,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -424,10 +971,57 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
@@ -500,9 +1094,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1573,16 +2164,16 @@
       </a:style>
     </a:txDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:U13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1"/>
@@ -1590,20 +2181,20 @@
     <col min="1" max="1" width="14.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="13.25" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.375" style="1" customWidth="1"/>
-    <col min="4" max="6" width="17.375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="27.625" style="1" customWidth="1"/>
-    <col min="9" max="10" width="16.25" style="1" customWidth="1"/>
-    <col min="11" max="14" width="9.375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="16.125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="16.75" style="1" customWidth="1"/>
-    <col min="17" max="17" width="18.5" style="1" customWidth="1"/>
-    <col min="18" max="18" width="20.125" style="1" customWidth="1"/>
-    <col min="19" max="22" width="9.25" style="1" customWidth="1"/>
-    <col min="23" max="16384" width="6" style="1"/>
+    <col min="4" max="5" width="17.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="27.625" style="1" customWidth="1"/>
+    <col min="8" max="9" width="16.25" style="1" customWidth="1"/>
+    <col min="10" max="13" width="9.375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="16.125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="16.75" style="1" customWidth="1"/>
+    <col min="16" max="16" width="18.5" style="1" customWidth="1"/>
+    <col min="17" max="17" width="20.125" style="1" customWidth="1"/>
+    <col min="18" max="21" width="9.25" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="6" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="14.1" customHeight="1">
+    <row r="1" ht="14.1" customHeight="1" spans="1:17">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1623,67 +2214,63 @@
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
     </row>
-    <row r="2" spans="1:22" ht="120.95" customHeight="1">
+    <row r="2" ht="120.95" customHeight="1" spans="1:21">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="2"/>
-      <c r="E2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="G2" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="H2" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="N2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="N2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="O2" s="8" t="s">
         <v>12</v>
       </c>
+      <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
+      <c r="R2" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="S2" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="T2" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="U2" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="V2" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="16.149999999999999" customHeight="1">
+    <row r="3" ht="16.15" customHeight="1" spans="1:21">
       <c r="A3" s="3"/>
       <c r="B3" s="2" t="s">
         <v>17</v>
@@ -1695,53 +2282,50 @@
         <v>19</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="5" t="s">
         <v>24</v>
       </c>
+      <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
+      <c r="N3" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="O3" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="R3" s="5" t="s">
         <v>28</v>
       </c>
+      <c r="R3" s="10" t="s">
+        <v>29</v>
+      </c>
       <c r="S3" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="T3" s="10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="U3" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="V3" s="10" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="16.149999999999999" customHeight="1">
+    <row r="4" ht="16.15" customHeight="1" spans="1:21">
       <c r="A4" s="3"/>
       <c r="B4" s="2" t="s">
         <v>33</v>
@@ -1753,61 +2337,58 @@
         <v>34</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="R4" s="5" t="s">
         <v>47</v>
       </c>
+      <c r="R4" s="10" t="s">
+        <v>48</v>
+      </c>
       <c r="S4" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T4" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U4" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="V4" s="10" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="16.149999999999999" customHeight="1">
+    <row r="5" ht="16.15" customHeight="1" spans="1:21">
       <c r="A5" s="3"/>
       <c r="B5" s="2" t="s">
         <v>52</v>
@@ -1829,13 +2410,12 @@
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
+      <c r="R5" s="10"/>
       <c r="S5" s="10"/>
       <c r="T5" s="10"/>
       <c r="U5" s="10"/>
-      <c r="V5" s="10"/>
     </row>
-    <row r="6" spans="1:22" ht="16.149999999999999" customHeight="1">
+    <row r="6" ht="16.15" customHeight="1" spans="1:21">
       <c r="A6" s="3"/>
       <c r="B6" s="2" t="s">
         <v>54</v>
@@ -1847,10 +2427,10 @@
         <v>56</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>55</v>
@@ -1861,15 +2441,15 @@
       <c r="I6" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="J6" s="5" t="s">
-        <v>55</v>
-      </c>
+      <c r="J6" s="5"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
+      <c r="N6" s="5" t="s">
+        <v>58</v>
+      </c>
       <c r="O6" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="P6" s="5" t="s">
         <v>55</v>
@@ -1877,7 +2457,7 @@
       <c r="Q6" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="R6" s="5" t="s">
+      <c r="R6" s="10" t="s">
         <v>55</v>
       </c>
       <c r="S6" s="10" t="s">
@@ -1889,11 +2469,8 @@
       <c r="U6" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="V6" s="10" t="s">
-        <v>55</v>
-      </c>
     </row>
-    <row r="7" spans="1:22" ht="24.95" customHeight="1">
+    <row r="7" ht="24.95" customHeight="1" spans="1:21">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="6">
@@ -1903,16 +2480,16 @@
         <v>59</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F7" s="2" t="s">
         <v>60</v>
       </c>
+      <c r="F7" s="6">
+        <v>0</v>
+      </c>
       <c r="G7" s="6">
+        <v>1</v>
+      </c>
+      <c r="H7" s="6">
         <v>0</v>
-      </c>
-      <c r="H7" s="6">
-        <v>1</v>
       </c>
       <c r="I7" s="6">
         <v>0</v>
@@ -1929,36 +2506,33 @@
       <c r="M7" s="6">
         <v>0</v>
       </c>
-      <c r="N7" s="6">
-        <v>0</v>
-      </c>
-      <c r="O7" s="6" t="str">
-        <f t="shared" ref="O7:O13" si="0">K7&amp;","&amp;L7&amp;","&amp;M7&amp;","&amp;N7</f>
+      <c r="N7" s="6" t="str">
+        <f t="shared" ref="N7:N13" si="0">J7&amp;","&amp;K7&amp;","&amp;L7&amp;","&amp;M7</f>
         <v>0,0,0,0</v>
       </c>
+      <c r="O7" s="6">
+        <v>1</v>
+      </c>
       <c r="P7" s="6">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="Q7" s="6">
-        <v>50</v>
-      </c>
-      <c r="R7" s="6">
         <v>30</v>
       </c>
+      <c r="R7" s="1">
+        <v>101001</v>
+      </c>
       <c r="S7" s="1">
-        <v>101001</v>
+        <v>101002</v>
       </c>
       <c r="T7" s="1">
-        <v>101002</v>
+        <v>101003</v>
       </c>
       <c r="U7" s="1">
-        <v>101003</v>
-      </c>
-      <c r="V7" s="1">
         <v>101004</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="24.95" customHeight="1">
+    <row r="8" ht="24.95" customHeight="1" spans="1:21">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="6">
@@ -1968,16 +2542,16 @@
         <v>61</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F8" s="2" t="s">
         <v>62</v>
       </c>
+      <c r="F8" s="6">
+        <v>1</v>
+      </c>
       <c r="G8" s="6">
+        <v>0</v>
+      </c>
+      <c r="H8" s="6">
         <v>1</v>
-      </c>
-      <c r="H8" s="6">
-        <v>0</v>
       </c>
       <c r="I8" s="6">
         <v>1</v>
@@ -1994,36 +2568,33 @@
       <c r="M8" s="6">
         <v>1</v>
       </c>
-      <c r="N8" s="6">
-        <v>1</v>
-      </c>
-      <c r="O8" s="6" t="str">
+      <c r="N8" s="6" t="str">
         <f t="shared" si="0"/>
         <v>1,1,1,1</v>
       </c>
+      <c r="O8" s="6">
+        <v>2</v>
+      </c>
       <c r="P8" s="6">
-        <v>2</v>
+        <v>80</v>
       </c>
       <c r="Q8" s="6">
-        <v>80</v>
-      </c>
-      <c r="R8" s="6">
         <v>50</v>
       </c>
+      <c r="R8" s="1">
+        <v>102001</v>
+      </c>
       <c r="S8" s="1">
-        <v>102001</v>
+        <v>102002</v>
       </c>
       <c r="T8" s="1">
-        <v>102002</v>
+        <v>102003</v>
       </c>
       <c r="U8" s="1">
-        <v>102003</v>
-      </c>
-      <c r="V8" s="1">
         <v>102004</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="16.149999999999999" customHeight="1">
+    <row r="9" ht="16.15" customHeight="1" spans="1:21">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="6">
@@ -2033,16 +2604,16 @@
         <v>63</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F9" s="2" t="s">
         <v>62</v>
       </c>
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
       <c r="G9" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H9" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I9" s="3">
         <v>2</v>
@@ -2059,36 +2630,33 @@
       <c r="M9" s="3">
         <v>2</v>
       </c>
-      <c r="N9" s="3">
-        <v>2</v>
-      </c>
-      <c r="O9" s="6" t="str">
+      <c r="N9" s="6" t="str">
         <f t="shared" si="0"/>
         <v>2,2,2,2</v>
       </c>
-      <c r="P9" s="3">
+      <c r="O9" s="3">
         <v>3</v>
       </c>
+      <c r="P9" s="6">
+        <v>50</v>
+      </c>
       <c r="Q9" s="6">
-        <v>50</v>
-      </c>
-      <c r="R9" s="6">
         <v>30</v>
       </c>
+      <c r="R9" s="1">
+        <v>103001</v>
+      </c>
       <c r="S9" s="1">
-        <v>103001</v>
+        <v>103002</v>
       </c>
       <c r="T9" s="1">
-        <v>103002</v>
+        <v>103003</v>
       </c>
       <c r="U9" s="1">
-        <v>103003</v>
-      </c>
-      <c r="V9" s="1">
         <v>103004</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="14.1" customHeight="1">
+    <row r="10" ht="14.1" customHeight="1" spans="1:21">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="6">
@@ -2098,16 +2666,16 @@
         <v>64</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F10" s="2" t="s">
         <v>65</v>
       </c>
+      <c r="F10" s="3">
+        <v>1</v>
+      </c>
       <c r="G10" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H10" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I10" s="3">
         <v>3</v>
@@ -2124,36 +2692,33 @@
       <c r="M10" s="3">
         <v>3</v>
       </c>
-      <c r="N10" s="3">
-        <v>3</v>
-      </c>
-      <c r="O10" s="6" t="str">
+      <c r="N10" s="6" t="str">
         <f t="shared" si="0"/>
         <v>3,3,3,3</v>
       </c>
-      <c r="P10" s="3">
+      <c r="O10" s="3">
         <v>4</v>
       </c>
+      <c r="P10" s="6">
+        <v>80</v>
+      </c>
       <c r="Q10" s="6">
-        <v>80</v>
-      </c>
-      <c r="R10" s="6">
         <v>50</v>
       </c>
+      <c r="R10" s="1">
+        <v>104001</v>
+      </c>
       <c r="S10" s="1">
-        <v>104001</v>
+        <v>104002</v>
       </c>
       <c r="T10" s="1">
-        <v>104002</v>
+        <v>104003</v>
       </c>
       <c r="U10" s="1">
-        <v>104003</v>
-      </c>
-      <c r="V10" s="1">
         <v>104004</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="24.95" customHeight="1">
+    <row r="11" ht="24.95" customHeight="1" spans="1:21">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="6">
@@ -2163,19 +2728,19 @@
         <v>66</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F11" s="2" t="s">
         <v>62</v>
       </c>
+      <c r="F11" s="6">
+        <v>1</v>
+      </c>
       <c r="G11" s="6">
+        <v>0</v>
+      </c>
+      <c r="H11" s="6">
         <v>1</v>
       </c>
-      <c r="H11" s="6">
-        <v>0</v>
-      </c>
       <c r="I11" s="6">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="J11" s="6">
         <v>-1</v>
@@ -2189,36 +2754,33 @@
       <c r="M11" s="6">
         <v>-1</v>
       </c>
-      <c r="N11" s="6">
-        <v>-1</v>
-      </c>
-      <c r="O11" s="6" t="str">
+      <c r="N11" s="6" t="str">
         <f t="shared" si="0"/>
         <v>-1,-1,-1,-1</v>
       </c>
+      <c r="O11" s="6">
+        <v>5</v>
+      </c>
       <c r="P11" s="6">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Q11" s="6">
         <v>-1</v>
       </c>
-      <c r="R11" s="6">
-        <v>-1</v>
+      <c r="R11" s="1">
+        <v>105001</v>
       </c>
       <c r="S11" s="1">
-        <v>105001</v>
+        <v>105002</v>
       </c>
       <c r="T11" s="1">
-        <v>105002</v>
+        <v>105003</v>
       </c>
       <c r="U11" s="1">
-        <v>105003</v>
-      </c>
-      <c r="V11" s="1">
         <v>105004</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="16.149999999999999" customHeight="1">
+    <row r="12" ht="16.15" customHeight="1" spans="1:21">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="6">
@@ -2228,19 +2790,19 @@
         <v>67</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F12" s="2" t="s">
         <v>62</v>
       </c>
+      <c r="F12" s="3">
+        <v>0</v>
+      </c>
       <c r="G12" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H12" s="3">
-        <v>3</v>
-      </c>
-      <c r="I12" s="3">
         <v>2</v>
+      </c>
+      <c r="I12" s="6">
+        <v>-1</v>
       </c>
       <c r="J12" s="6">
         <v>-1</v>
@@ -2254,36 +2816,33 @@
       <c r="M12" s="6">
         <v>-1</v>
       </c>
-      <c r="N12" s="6">
-        <v>-1</v>
-      </c>
-      <c r="O12" s="6" t="str">
+      <c r="N12" s="6" t="str">
         <f t="shared" si="0"/>
         <v>-1,-1,-1,-1</v>
       </c>
-      <c r="P12" s="3">
+      <c r="O12" s="3">
         <v>6</v>
+      </c>
+      <c r="P12" s="6">
+        <v>-1</v>
       </c>
       <c r="Q12" s="6">
         <v>-1</v>
       </c>
-      <c r="R12" s="6">
-        <v>-1</v>
+      <c r="R12" s="1">
+        <v>106001</v>
       </c>
       <c r="S12" s="1">
-        <v>106001</v>
+        <v>106002</v>
       </c>
       <c r="T12" s="1">
-        <v>106002</v>
+        <v>106003</v>
       </c>
       <c r="U12" s="1">
-        <v>106003</v>
-      </c>
-      <c r="V12" s="1">
         <v>106004</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="14.1" customHeight="1">
+    <row r="13" ht="14.1" customHeight="1" spans="1:21">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="6">
@@ -2293,19 +2852,19 @@
         <v>68</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F13" s="2" t="s">
         <v>60</v>
       </c>
+      <c r="F13" s="3">
+        <v>1</v>
+      </c>
       <c r="G13" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H13" s="3">
-        <v>4</v>
-      </c>
-      <c r="I13" s="3">
         <v>3</v>
+      </c>
+      <c r="I13" s="6">
+        <v>-1</v>
       </c>
       <c r="J13" s="6">
         <v>-1</v>
@@ -2319,39 +2878,35 @@
       <c r="M13" s="6">
         <v>-1</v>
       </c>
-      <c r="N13" s="6">
-        <v>-1</v>
-      </c>
-      <c r="O13" s="6" t="str">
+      <c r="N13" s="6" t="str">
         <f t="shared" si="0"/>
         <v>-1,-1,-1,-1</v>
       </c>
-      <c r="P13" s="3">
+      <c r="O13" s="3">
         <v>7</v>
+      </c>
+      <c r="P13" s="6">
+        <v>-1</v>
       </c>
       <c r="Q13" s="6">
         <v>-1</v>
       </c>
-      <c r="R13" s="6">
-        <v>-1</v>
+      <c r="R13" s="1">
+        <v>107001</v>
       </c>
       <c r="S13" s="1">
-        <v>107001</v>
+        <v>107002</v>
       </c>
       <c r="T13" s="1">
-        <v>107002</v>
+        <v>107003</v>
       </c>
       <c r="U13" s="1">
-        <v>107003</v>
-      </c>
-      <c r="V13" s="1">
         <v>107004</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/config/excel/Hero.xlsx
+++ b/config/excel/Hero.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\global\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5380CE1-BEB8-4EF1-93A0-85CFB8FC3E1C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hero" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="73">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -123,9 +129,6 @@
     <t>quality</t>
   </si>
   <si>
-    <t>Profession</t>
-  </si>
-  <si>
     <t>race</t>
   </si>
   <si>
@@ -262,19 +265,33 @@
   </si>
   <si>
     <t>怪物3</t>
+  </si>
+  <si>
+    <t>profession</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>modelResource</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>模型资源</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>puluomixiusi</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="26">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -286,11 +303,13 @@
       <sz val="9"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -307,163 +326,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="SimSun"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="SimSun"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -494,194 +367,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -704,251 +391,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -971,57 +416,10 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
@@ -1094,6 +492,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2164,16 +1565,16 @@
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:U13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:V13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1"/>
@@ -2181,20 +1582,20 @@
     <col min="1" max="1" width="14.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="13.25" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.375" style="1" customWidth="1"/>
-    <col min="4" max="5" width="17.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="27.625" style="1" customWidth="1"/>
-    <col min="8" max="9" width="16.25" style="1" customWidth="1"/>
-    <col min="10" max="13" width="9.375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="16.125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="16.75" style="1" customWidth="1"/>
-    <col min="16" max="16" width="18.5" style="1" customWidth="1"/>
-    <col min="17" max="17" width="20.125" style="1" customWidth="1"/>
-    <col min="18" max="21" width="9.25" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="6" style="1"/>
+    <col min="4" max="6" width="17.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="27.625" style="1" customWidth="1"/>
+    <col min="9" max="10" width="16.25" style="1" customWidth="1"/>
+    <col min="11" max="14" width="9.375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="16.125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="16.75" style="1" customWidth="1"/>
+    <col min="17" max="17" width="18.5" style="1" customWidth="1"/>
+    <col min="18" max="18" width="20.125" style="1" customWidth="1"/>
+    <col min="19" max="22" width="9.25" style="1" customWidth="1"/>
+    <col min="23" max="16384" width="6" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.1" customHeight="1" spans="1:17">
+    <row r="1" spans="1:22" ht="14.1" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2214,63 +1615,67 @@
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
     </row>
-    <row r="2" ht="120.95" customHeight="1" spans="1:21">
+    <row r="2" spans="1:22" ht="120.95" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="2"/>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="O2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="P2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
-      <c r="R2" s="9" t="s">
+      <c r="R2" s="2"/>
+      <c r="S2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="S2" s="9" t="s">
+      <c r="T2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="T2" s="9" t="s">
+      <c r="U2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="9" t="s">
+      <c r="V2" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" ht="16.15" customHeight="1" spans="1:21">
+    <row r="3" spans="1:22" ht="16.149999999999999" customHeight="1">
       <c r="A3" s="3"/>
       <c r="B3" s="2" t="s">
         <v>17</v>
@@ -2282,120 +1687,126 @@
         <v>19</v>
       </c>
       <c r="E3" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="H3" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="J3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
-      <c r="N3" s="5" t="s">
+      <c r="N3" s="5"/>
+      <c r="O3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="P3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="Q3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="P3" s="5" t="s">
+      <c r="R3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="Q3" s="5" t="s">
+      <c r="S3" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="R3" s="10" t="s">
+      <c r="T3" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="S3" s="10" t="s">
+      <c r="U3" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="T3" s="10" t="s">
+      <c r="V3" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="U3" s="10" t="s">
-        <v>32</v>
-      </c>
     </row>
-    <row r="4" ht="16.15" customHeight="1" spans="1:21">
+    <row r="4" spans="1:22" ht="16.149999999999999" customHeight="1">
       <c r="A4" s="3"/>
       <c r="B4" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="G4" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="H4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="I4" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="J4" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="K4" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="L4" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="M4" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="N4" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="M4" s="5" t="s">
+      <c r="O4" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="N4" s="5" t="s">
+      <c r="P4" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="O4" s="5" t="s">
+      <c r="Q4" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="P4" s="5" t="s">
+      <c r="R4" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="Q4" s="5" t="s">
+      <c r="S4" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="R4" s="10" t="s">
+      <c r="T4" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="S4" s="10" t="s">
+      <c r="U4" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="T4" s="10" t="s">
+      <c r="V4" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="U4" s="10" t="s">
-        <v>51</v>
-      </c>
     </row>
-    <row r="5" ht="16.15" customHeight="1" spans="1:21">
+    <row r="5" spans="1:22" ht="16.149999999999999" customHeight="1">
       <c r="A5" s="3"/>
       <c r="B5" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -2410,86 +1821,90 @@
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
-      <c r="R5" s="10"/>
+      <c r="R5" s="5"/>
       <c r="S5" s="10"/>
       <c r="T5" s="10"/>
       <c r="U5" s="10"/>
+      <c r="V5" s="10"/>
     </row>
-    <row r="6" ht="16.15" customHeight="1" spans="1:21">
+    <row r="6" spans="1:22" ht="16.149999999999999" customHeight="1">
       <c r="A6" s="3"/>
       <c r="B6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="D6" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="E6" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>55</v>
-      </c>
       <c r="G6" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="J6" s="5"/>
+        <v>54</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
-      <c r="N6" s="5" t="s">
-        <v>58</v>
-      </c>
+      <c r="N6" s="5"/>
       <c r="O6" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="R6" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
+      </c>
+      <c r="R6" s="5" t="s">
+        <v>54</v>
       </c>
       <c r="S6" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="T6" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U6" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
+      </c>
+      <c r="V6" s="10" t="s">
+        <v>54</v>
       </c>
     </row>
-    <row r="7" ht="24.95" customHeight="1" spans="1:21">
+    <row r="7" spans="1:22" ht="24.95" customHeight="1">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="6">
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F7" s="6">
+      <c r="G7" s="6">
         <v>0</v>
       </c>
-      <c r="G7" s="6">
+      <c r="H7" s="6">
         <v>1</v>
-      </c>
-      <c r="H7" s="6">
-        <v>0</v>
       </c>
       <c r="I7" s="6">
         <v>0</v>
@@ -2506,52 +1921,55 @@
       <c r="M7" s="6">
         <v>0</v>
       </c>
-      <c r="N7" s="6" t="str">
-        <f t="shared" ref="N7:N13" si="0">J7&amp;","&amp;K7&amp;","&amp;L7&amp;","&amp;M7</f>
+      <c r="N7" s="6">
+        <v>0</v>
+      </c>
+      <c r="O7" s="6" t="str">
+        <f t="shared" ref="O7:O13" si="0">K7&amp;","&amp;L7&amp;","&amp;M7&amp;","&amp;N7</f>
         <v>0,0,0,0</v>
       </c>
-      <c r="O7" s="6">
+      <c r="P7" s="6">
         <v>1</v>
       </c>
-      <c r="P7" s="6">
+      <c r="Q7" s="6">
         <v>50</v>
       </c>
-      <c r="Q7" s="6">
+      <c r="R7" s="6">
         <v>30</v>
       </c>
-      <c r="R7" s="1">
+      <c r="S7" s="1">
         <v>101001</v>
       </c>
-      <c r="S7" s="1">
+      <c r="T7" s="1">
         <v>101002</v>
       </c>
-      <c r="T7" s="1">
+      <c r="U7" s="1">
         <v>101003</v>
       </c>
-      <c r="U7" s="1">
+      <c r="V7" s="1">
         <v>101004</v>
       </c>
     </row>
-    <row r="8" ht="24.95" customHeight="1" spans="1:21">
+    <row r="8" spans="1:22" ht="24.95" customHeight="1">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="6">
         <v>2</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F8" s="6">
+      <c r="G8" s="6">
         <v>1</v>
       </c>
-      <c r="G8" s="6">
+      <c r="H8" s="6">
         <v>0</v>
-      </c>
-      <c r="H8" s="6">
-        <v>1</v>
       </c>
       <c r="I8" s="6">
         <v>1</v>
@@ -2568,52 +1986,55 @@
       <c r="M8" s="6">
         <v>1</v>
       </c>
-      <c r="N8" s="6" t="str">
+      <c r="N8" s="6">
+        <v>1</v>
+      </c>
+      <c r="O8" s="6" t="str">
         <f t="shared" si="0"/>
         <v>1,1,1,1</v>
       </c>
-      <c r="O8" s="6">
+      <c r="P8" s="6">
         <v>2</v>
       </c>
-      <c r="P8" s="6">
+      <c r="Q8" s="6">
         <v>80</v>
       </c>
-      <c r="Q8" s="6">
+      <c r="R8" s="6">
         <v>50</v>
       </c>
-      <c r="R8" s="1">
+      <c r="S8" s="1">
         <v>102001</v>
       </c>
-      <c r="S8" s="1">
+      <c r="T8" s="1">
         <v>102002</v>
       </c>
-      <c r="T8" s="1">
+      <c r="U8" s="1">
         <v>102003</v>
       </c>
-      <c r="U8" s="1">
+      <c r="V8" s="1">
         <v>102004</v>
       </c>
     </row>
-    <row r="9" ht="16.15" customHeight="1" spans="1:21">
+    <row r="9" spans="1:22" ht="16.149999999999999" customHeight="1">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="6">
         <v>3</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F9" s="3">
+        <v>72</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" s="3">
         <v>0</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>3</v>
-      </c>
-      <c r="H9" s="3">
-        <v>2</v>
       </c>
       <c r="I9" s="3">
         <v>2</v>
@@ -2630,52 +2051,55 @@
       <c r="M9" s="3">
         <v>2</v>
       </c>
-      <c r="N9" s="6" t="str">
+      <c r="N9" s="3">
+        <v>2</v>
+      </c>
+      <c r="O9" s="6" t="str">
         <f t="shared" si="0"/>
         <v>2,2,2,2</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3</v>
       </c>
-      <c r="P9" s="6">
+      <c r="Q9" s="6">
         <v>50</v>
       </c>
-      <c r="Q9" s="6">
+      <c r="R9" s="6">
         <v>30</v>
       </c>
-      <c r="R9" s="1">
+      <c r="S9" s="1">
         <v>103001</v>
       </c>
-      <c r="S9" s="1">
+      <c r="T9" s="1">
         <v>103002</v>
       </c>
-      <c r="T9" s="1">
+      <c r="U9" s="1">
         <v>103003</v>
       </c>
-      <c r="U9" s="1">
+      <c r="V9" s="1">
         <v>103004</v>
       </c>
     </row>
-    <row r="10" ht="14.1" customHeight="1" spans="1:21">
+    <row r="10" spans="1:22" ht="14.1" customHeight="1">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="6">
         <v>4</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>4</v>
-      </c>
-      <c r="H10" s="3">
-        <v>3</v>
       </c>
       <c r="I10" s="3">
         <v>3</v>
@@ -2692,55 +2116,58 @@
       <c r="M10" s="3">
         <v>3</v>
       </c>
-      <c r="N10" s="6" t="str">
+      <c r="N10" s="3">
+        <v>3</v>
+      </c>
+      <c r="O10" s="6" t="str">
         <f t="shared" si="0"/>
         <v>3,3,3,3</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>4</v>
       </c>
-      <c r="P10" s="6">
+      <c r="Q10" s="6">
         <v>80</v>
       </c>
-      <c r="Q10" s="6">
+      <c r="R10" s="6">
         <v>50</v>
       </c>
-      <c r="R10" s="1">
+      <c r="S10" s="1">
         <v>104001</v>
       </c>
-      <c r="S10" s="1">
+      <c r="T10" s="1">
         <v>104002</v>
       </c>
-      <c r="T10" s="1">
+      <c r="U10" s="1">
         <v>104003</v>
       </c>
-      <c r="U10" s="1">
+      <c r="V10" s="1">
         <v>104004</v>
       </c>
     </row>
-    <row r="11" ht="24.95" customHeight="1" spans="1:21">
+    <row r="11" spans="1:22" ht="24.95" customHeight="1">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="6">
         <v>5</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F11" s="6">
+        <v>72</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="6">
         <v>1</v>
       </c>
-      <c r="G11" s="6">
+      <c r="H11" s="6">
         <v>0</v>
       </c>
-      <c r="H11" s="6">
+      <c r="I11" s="6">
         <v>1</v>
-      </c>
-      <c r="I11" s="6">
-        <v>-1</v>
       </c>
       <c r="J11" s="6">
         <v>-1</v>
@@ -2754,55 +2181,58 @@
       <c r="M11" s="6">
         <v>-1</v>
       </c>
-      <c r="N11" s="6" t="str">
+      <c r="N11" s="6">
+        <v>-1</v>
+      </c>
+      <c r="O11" s="6" t="str">
         <f t="shared" si="0"/>
         <v>-1,-1,-1,-1</v>
       </c>
-      <c r="O11" s="6">
+      <c r="P11" s="6">
         <v>5</v>
-      </c>
-      <c r="P11" s="6">
-        <v>-1</v>
       </c>
       <c r="Q11" s="6">
         <v>-1</v>
       </c>
-      <c r="R11" s="1">
+      <c r="R11" s="6">
+        <v>-1</v>
+      </c>
+      <c r="S11" s="1">
         <v>105001</v>
       </c>
-      <c r="S11" s="1">
+      <c r="T11" s="1">
         <v>105002</v>
       </c>
-      <c r="T11" s="1">
+      <c r="U11" s="1">
         <v>105003</v>
       </c>
-      <c r="U11" s="1">
+      <c r="V11" s="1">
         <v>105004</v>
       </c>
     </row>
-    <row r="12" ht="16.15" customHeight="1" spans="1:21">
+    <row r="12" spans="1:22" ht="16.149999999999999" customHeight="1">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="6">
         <v>6</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F12" s="3">
+        <v>72</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" s="3">
         <v>0</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>3</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>2</v>
-      </c>
-      <c r="I12" s="6">
-        <v>-1</v>
       </c>
       <c r="J12" s="6">
         <v>-1</v>
@@ -2816,55 +2246,58 @@
       <c r="M12" s="6">
         <v>-1</v>
       </c>
-      <c r="N12" s="6" t="str">
+      <c r="N12" s="6">
+        <v>-1</v>
+      </c>
+      <c r="O12" s="6" t="str">
         <f t="shared" si="0"/>
         <v>-1,-1,-1,-1</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>6</v>
-      </c>
-      <c r="P12" s="6">
-        <v>-1</v>
       </c>
       <c r="Q12" s="6">
         <v>-1</v>
       </c>
-      <c r="R12" s="1">
+      <c r="R12" s="6">
+        <v>-1</v>
+      </c>
+      <c r="S12" s="1">
         <v>106001</v>
       </c>
-      <c r="S12" s="1">
+      <c r="T12" s="1">
         <v>106002</v>
       </c>
-      <c r="T12" s="1">
+      <c r="U12" s="1">
         <v>106003</v>
       </c>
-      <c r="U12" s="1">
+      <c r="V12" s="1">
         <v>106004</v>
       </c>
     </row>
-    <row r="13" ht="14.1" customHeight="1" spans="1:21">
+    <row r="13" spans="1:22" ht="14.1" customHeight="1">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="6">
         <v>7</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F13" s="3">
+        <v>72</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G13" s="3">
         <v>1</v>
       </c>
-      <c r="G13" s="3">
+      <c r="H13" s="3">
         <v>4</v>
       </c>
-      <c r="H13" s="3">
+      <c r="I13" s="3">
         <v>3</v>
-      </c>
-      <c r="I13" s="6">
-        <v>-1</v>
       </c>
       <c r="J13" s="6">
         <v>-1</v>
@@ -2878,35 +2311,39 @@
       <c r="M13" s="6">
         <v>-1</v>
       </c>
-      <c r="N13" s="6" t="str">
+      <c r="N13" s="6">
+        <v>-1</v>
+      </c>
+      <c r="O13" s="6" t="str">
         <f t="shared" si="0"/>
         <v>-1,-1,-1,-1</v>
       </c>
-      <c r="O13" s="3">
+      <c r="P13" s="3">
         <v>7</v>
-      </c>
-      <c r="P13" s="6">
-        <v>-1</v>
       </c>
       <c r="Q13" s="6">
         <v>-1</v>
       </c>
-      <c r="R13" s="1">
+      <c r="R13" s="6">
+        <v>-1</v>
+      </c>
+      <c r="S13" s="1">
         <v>107001</v>
       </c>
-      <c r="S13" s="1">
+      <c r="T13" s="1">
         <v>107002</v>
       </c>
-      <c r="T13" s="1">
+      <c r="U13" s="1">
         <v>107003</v>
       </c>
-      <c r="U13" s="1">
+      <c r="V13" s="1">
         <v>107004</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/config/excel/Hero.xlsx
+++ b/config/excel/Hero.xlsx
@@ -1,31 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\global\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5380CE1-BEB8-4EF1-93A0-85CFB8FC3E1C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="24225" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Hero" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="72">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
   <si>
     <t>英雄和怪物id</t>
+  </si>
+  <si>
+    <t>模型资源</t>
   </si>
   <si>
     <t>单位米</t>
@@ -78,20 +75,9 @@
     <t>此列由前4列自动生成，不用填写</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">对应att表
+    <t xml:space="preserve">对应att表
 卡牌1级的属性固定值。
 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="SimSun"/>
-        <charset val="134"/>
-      </rPr>
-      <t>demo版本目前临时填，正式后需要改成21</t>
-    </r>
   </si>
   <si>
     <t>Demo版本
@@ -123,12 +109,18 @@
     <t>name</t>
   </si>
   <si>
+    <t>modelResource</t>
+  </si>
+  <si>
     <t>modelscope</t>
   </si>
   <si>
     <t>quality</t>
   </si>
   <si>
+    <t>profession</t>
+  </si>
+  <si>
     <t>race</t>
   </si>
   <si>
@@ -240,6 +232,9 @@
     <t>demo版本防战</t>
   </si>
   <si>
+    <t>puluomixiusi</t>
+  </si>
+  <si>
     <t>1.5</t>
   </si>
   <si>
@@ -265,33 +260,19 @@
   </si>
   <si>
     <t>怪物3</t>
-  </si>
-  <si>
-    <t>profession</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>modelResource</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>模型资源</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>puluomixiusi</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -303,13 +284,11 @@
       <sz val="9"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -326,17 +305,157 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="SimSun"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="SimSun"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -367,8 +486,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -391,9 +696,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -416,10 +963,57 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
@@ -492,9 +1086,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1565,16 +2156,16 @@
       </a:style>
     </a:txDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:V13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1"/>
@@ -1595,7 +2186,7 @@
     <col min="23" max="16384" width="6" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="14.1" customHeight="1">
+    <row r="1" ht="14.1" customHeight="1" spans="1:18">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1617,7 +2208,7 @@
       <c r="Q1" s="3"/>
       <c r="R1" s="3"/>
     </row>
-    <row r="2" spans="1:22" ht="120.95" customHeight="1">
+    <row r="2" ht="120.95" customHeight="1" spans="1:22">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="2" t="s">
@@ -1625,188 +2216,188 @@
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
       <c r="S2" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="T2" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="U2" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="V2" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="16.149999999999999" customHeight="1">
+    <row r="3" ht="16.15" customHeight="1" spans="1:22">
       <c r="A3" s="3"/>
       <c r="B3" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="S3" s="10" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="T3" s="10" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="U3" s="10" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="V3" s="10" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="16.149999999999999" customHeight="1">
+    <row r="4" ht="16.15" customHeight="1" spans="1:22">
       <c r="A4" s="3"/>
       <c r="B4" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="R4" s="5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="S4" s="10" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="T4" s="10" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="U4" s="10" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="V4" s="10" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="16.149999999999999" customHeight="1">
+    <row r="5" ht="16.15" customHeight="1" spans="1:22">
       <c r="A5" s="3"/>
       <c r="B5" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -1827,78 +2418,78 @@
       <c r="U5" s="10"/>
       <c r="V5" s="10"/>
     </row>
-    <row r="6" spans="1:22" ht="16.149999999999999" customHeight="1">
+    <row r="6" ht="16.15" customHeight="1" spans="1:22">
       <c r="A6" s="3"/>
       <c r="B6" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="P6" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="P6" s="5" t="s">
-        <v>54</v>
-      </c>
       <c r="Q6" s="5" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="R6" s="5" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="S6" s="10" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="T6" s="10" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="U6" s="10" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="V6" s="10" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="24.95" customHeight="1">
+    <row r="7" ht="24.95" customHeight="1" spans="1:22">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="6">
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G7" s="6">
         <v>0</v>
@@ -1950,20 +2541,20 @@
         <v>101004</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="24.95" customHeight="1">
+    <row r="8" ht="24.95" customHeight="1" spans="1:22">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="6">
         <v>2</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G8" s="6">
         <v>1</v>
@@ -2015,20 +2606,20 @@
         <v>102004</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="16.149999999999999" customHeight="1">
+    <row r="9" ht="16.15" customHeight="1" spans="1:22">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="6">
         <v>3</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="F9" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G9" s="3">
         <v>0</v>
@@ -2080,20 +2671,20 @@
         <v>103004</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="14.1" customHeight="1">
+    <row r="10" ht="14.1" customHeight="1" spans="1:22">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="6">
         <v>4</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G10" s="3">
         <v>1</v>
@@ -2145,20 +2736,20 @@
         <v>104004</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="24.95" customHeight="1">
+    <row r="11" ht="24.95" customHeight="1" spans="1:22">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="6">
         <v>5</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="G11" s="6">
         <v>1</v>
@@ -2210,20 +2801,20 @@
         <v>105004</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="16.149999999999999" customHeight="1">
+    <row r="12" ht="16.15" customHeight="1" spans="1:22">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="6">
         <v>6</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G12" s="3">
         <v>0</v>
@@ -2275,20 +2866,20 @@
         <v>106004</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="14.1" customHeight="1">
+    <row r="13" ht="14.1" customHeight="1" spans="1:22">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="6">
         <v>7</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G13" s="3">
         <v>1</v>
@@ -2341,9 +2932,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/config/excel/Hero.xlsx
+++ b/config/excel/Hero.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\trunk\global\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AB3E14C-0692-4D8B-BF48-F6C7F599FCCB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hero" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="91">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -232,47 +238,112 @@
     <t>demo版本防战</t>
   </si>
   <si>
+    <t>demo版本法师</t>
+  </si>
+  <si>
+    <t>demo版本治疗</t>
+  </si>
+  <si>
+    <t>怪物1</t>
+  </si>
+  <si>
+    <t>怪物2</t>
+  </si>
+  <si>
+    <t>怪物3</t>
+  </si>
+  <si>
+    <t>meilin</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>waerjili</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>puluomixiusi</t>
-  </si>
-  <si>
-    <t>1.5</t>
-  </si>
-  <si>
-    <t>demo版本狂战</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>demo版本法师</t>
-  </si>
-  <si>
-    <t>demo版本治疗</t>
-  </si>
-  <si>
-    <t>0.7</t>
-  </si>
-  <si>
-    <t>怪物1</t>
-  </si>
-  <si>
-    <t>怪物2</t>
-  </si>
-  <si>
-    <t>怪物3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>demo版本战士</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>monster02a</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>monster12b</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>monster08b</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>big_icon</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>头像</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>半身像</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>yase</t>
+  </si>
+  <si>
+    <t>yase_01</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>puluomixiusi_01</t>
+  </si>
+  <si>
+    <t>puluomixiusi</t>
+  </si>
+  <si>
+    <t>meilin_01</t>
+  </si>
+  <si>
+    <t>meilin</t>
+  </si>
+  <si>
+    <t>dafuni_01</t>
+  </si>
+  <si>
+    <t>dafuni</t>
+  </si>
+  <si>
+    <t>monster12b</t>
+  </si>
+  <si>
+    <t>monster08a</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>0.5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -284,11 +355,13 @@
       <sz val="9"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -304,158 +377,12 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
+      <sz val="9"/>
+      <name val="SimSun"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -486,194 +413,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -696,251 +437,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -963,57 +462,10 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
@@ -1086,6 +538,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2156,16 +1611,16 @@
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:V13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:X13"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+      <selection activeCell="X11" sqref="X11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1"/>
@@ -2173,20 +1628,25 @@
     <col min="1" max="1" width="14.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="13.25" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.375" style="1" customWidth="1"/>
-    <col min="4" max="6" width="17.375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="27.625" style="1" customWidth="1"/>
-    <col min="9" max="10" width="16.25" style="1" customWidth="1"/>
-    <col min="11" max="14" width="9.375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="16.125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="16.75" style="1" customWidth="1"/>
-    <col min="17" max="17" width="18.5" style="1" customWidth="1"/>
-    <col min="18" max="18" width="20.125" style="1" customWidth="1"/>
-    <col min="19" max="22" width="9.25" style="1" customWidth="1"/>
-    <col min="23" max="16384" width="6" style="1"/>
+    <col min="4" max="4" width="13.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="9.375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="16.125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="16.75" style="1" customWidth="1"/>
+    <col min="19" max="19" width="18.5" style="1" customWidth="1"/>
+    <col min="20" max="20" width="20.125" style="1" customWidth="1"/>
+    <col min="21" max="24" width="9.25" style="1" customWidth="1"/>
+    <col min="25" max="16384" width="6" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.1" customHeight="1" spans="1:18">
+    <row r="1" spans="1:24" ht="14.1" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2207,8 +1667,10 @@
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
       <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
     </row>
-    <row r="2" ht="120.95" customHeight="1" spans="1:22">
+    <row r="2" spans="1:24" ht="120.95" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="2" t="s">
@@ -2218,55 +1680,57 @@
       <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="O2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="P2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="Q2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="R2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="9" t="s">
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="T2" s="9" t="s">
+      <c r="V2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="9" t="s">
+      <c r="W2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="V2" s="9" t="s">
+      <c r="X2" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" ht="16.15" customHeight="1" spans="1:22">
+    <row r="3" spans="1:24" ht="16.149999999999999" customHeight="1">
       <c r="A3" s="3"/>
       <c r="B3" s="2" t="s">
         <v>18</v>
@@ -2281,50 +1745,56 @@
         <v>21</v>
       </c>
       <c r="F3" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="I3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="J3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="K3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="L3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
-      <c r="O3" s="5" t="s">
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="P3" s="5" t="s">
+      <c r="R3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="Q3" s="5" t="s">
+      <c r="S3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="R3" s="5" t="s">
+      <c r="T3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="S3" s="10" t="s">
+      <c r="U3" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="T3" s="10" t="s">
+      <c r="V3" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="U3" s="10" t="s">
+      <c r="W3" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="V3" s="10" t="s">
+      <c r="X3" s="10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" ht="16.15" customHeight="1" spans="1:22">
+    <row r="4" spans="1:24" ht="16.149999999999999" customHeight="1">
       <c r="A4" s="3"/>
       <c r="B4" s="2" t="s">
         <v>35</v>
@@ -2339,58 +1809,64 @@
         <v>2</v>
       </c>
       <c r="F4" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="I4" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="J4" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="K4" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="L4" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="M4" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="N4" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="M4" s="5" t="s">
+      <c r="O4" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="N4" s="5" t="s">
+      <c r="P4" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="O4" s="5" t="s">
+      <c r="Q4" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="P4" s="5" t="s">
+      <c r="R4" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="Q4" s="5" t="s">
+      <c r="S4" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="R4" s="5" t="s">
+      <c r="T4" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="S4" s="10" t="s">
+      <c r="U4" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="T4" s="10" t="s">
+      <c r="V4" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="U4" s="10" t="s">
+      <c r="W4" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="V4" s="10" t="s">
+      <c r="X4" s="10" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="5" ht="16.15" customHeight="1" spans="1:22">
+    <row r="5" spans="1:24" ht="16.149999999999999" customHeight="1">
       <c r="A5" s="3"/>
       <c r="B5" s="2" t="s">
         <v>54</v>
@@ -2400,8 +1876,12 @@
         <v>55</v>
       </c>
       <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
+      <c r="F5" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>55</v>
+      </c>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
@@ -2413,12 +1893,14 @@
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
       <c r="R5" s="5"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
       <c r="U5" s="10"/>
       <c r="V5" s="10"/>
+      <c r="W5" s="10"/>
+      <c r="X5" s="10"/>
     </row>
-    <row r="6" ht="16.15" customHeight="1" spans="1:22">
+    <row r="6" spans="1:24" ht="16.149999999999999" customHeight="1">
       <c r="A6" s="3"/>
       <c r="B6" s="2" t="s">
         <v>56</v>
@@ -2430,16 +1912,16 @@
         <v>58</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="F6" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H6" s="5" t="s">
         <v>59</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>57</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>57</v>
@@ -2447,26 +1929,26 @@
       <c r="J6" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
+      <c r="K6" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>57</v>
+      </c>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
-      <c r="O6" s="5" t="s">
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="P6" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q6" s="5" t="s">
-        <v>57</v>
       </c>
       <c r="R6" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="S6" s="10" t="s">
+      <c r="S6" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="T6" s="10" t="s">
+      <c r="T6" s="5" t="s">
         <v>57</v>
       </c>
       <c r="U6" s="10" t="s">
@@ -2475,8 +1957,14 @@
       <c r="V6" s="10" t="s">
         <v>57</v>
       </c>
+      <c r="W6" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="X6" s="10" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="7" ht="24.95" customHeight="1" spans="1:22">
+    <row r="7" spans="1:24" ht="24.95" customHeight="1">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="6">
@@ -2486,22 +1974,22 @@
         <v>61</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G7" s="6">
-        <v>0</v>
-      </c>
-      <c r="H7" s="6">
-        <v>1</v>
+        <v>80</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="I7" s="6">
         <v>0</v>
       </c>
       <c r="J7" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" s="6">
         <v>0</v>
@@ -2515,58 +2003,64 @@
       <c r="N7" s="6">
         <v>0</v>
       </c>
-      <c r="O7" s="6" t="str">
-        <f t="shared" ref="O7:O13" si="0">K7&amp;","&amp;L7&amp;","&amp;M7&amp;","&amp;N7</f>
+      <c r="O7" s="6">
+        <v>0</v>
+      </c>
+      <c r="P7" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="6" t="str">
+        <f t="shared" ref="Q7:Q13" si="0">M7&amp;","&amp;N7&amp;","&amp;O7&amp;","&amp;P7</f>
         <v>0,0,0,0</v>
       </c>
-      <c r="P7" s="6">
+      <c r="R7" s="6">
         <v>1</v>
       </c>
-      <c r="Q7" s="6">
+      <c r="S7" s="6">
         <v>50</v>
       </c>
-      <c r="R7" s="6">
+      <c r="T7" s="6">
         <v>30</v>
       </c>
-      <c r="S7" s="1">
+      <c r="U7" s="1">
         <v>101001</v>
       </c>
-      <c r="T7" s="1">
+      <c r="V7" s="1">
         <v>101002</v>
       </c>
-      <c r="U7" s="1">
+      <c r="W7" s="1">
         <v>101003</v>
       </c>
-      <c r="V7" s="1">
+      <c r="X7" s="1">
         <v>101004</v>
       </c>
     </row>
-    <row r="8" ht="24.95" customHeight="1" spans="1:22">
+    <row r="8" spans="1:24" ht="24.95" customHeight="1">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="6">
         <v>2</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G8" s="6">
-        <v>1</v>
-      </c>
-      <c r="H8" s="6">
-        <v>0</v>
+        <v>81</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="I8" s="6">
         <v>1</v>
       </c>
       <c r="J8" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" s="6">
         <v>1</v>
@@ -2580,58 +2074,64 @@
       <c r="N8" s="6">
         <v>1</v>
       </c>
-      <c r="O8" s="6" t="str">
+      <c r="O8" s="6">
+        <v>1</v>
+      </c>
+      <c r="P8" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="6" t="str">
         <f t="shared" si="0"/>
         <v>1,1,1,1</v>
       </c>
-      <c r="P8" s="6">
+      <c r="R8" s="6">
         <v>2</v>
       </c>
-      <c r="Q8" s="6">
+      <c r="S8" s="6">
         <v>80</v>
       </c>
-      <c r="R8" s="6">
+      <c r="T8" s="6">
         <v>50</v>
       </c>
-      <c r="S8" s="1">
+      <c r="U8" s="1">
         <v>102001</v>
       </c>
-      <c r="T8" s="1">
+      <c r="V8" s="1">
         <v>102002</v>
       </c>
-      <c r="U8" s="1">
+      <c r="W8" s="1">
         <v>102003</v>
       </c>
-      <c r="V8" s="1">
+      <c r="X8" s="1">
         <v>102004</v>
       </c>
     </row>
-    <row r="9" ht="16.15" customHeight="1" spans="1:22">
+    <row r="9" spans="1:24" ht="16.149999999999999" customHeight="1">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="6">
         <v>3</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G9" s="3">
+        <v>83</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I9" s="3">
         <v>0</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>3</v>
-      </c>
-      <c r="I9" s="3">
-        <v>2</v>
-      </c>
-      <c r="J9" s="3">
-        <v>2</v>
       </c>
       <c r="K9" s="3">
         <v>2</v>
@@ -2645,58 +2145,64 @@
       <c r="N9" s="3">
         <v>2</v>
       </c>
-      <c r="O9" s="6" t="str">
+      <c r="O9" s="3">
+        <v>2</v>
+      </c>
+      <c r="P9" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q9" s="6" t="str">
         <f t="shared" si="0"/>
         <v>2,2,2,2</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>3</v>
       </c>
-      <c r="Q9" s="6">
+      <c r="S9" s="6">
         <v>50</v>
       </c>
-      <c r="R9" s="6">
+      <c r="T9" s="6">
         <v>30</v>
       </c>
-      <c r="S9" s="1">
+      <c r="U9" s="1">
         <v>103001</v>
       </c>
-      <c r="T9" s="1">
+      <c r="V9" s="1">
         <v>103002</v>
       </c>
-      <c r="U9" s="1">
+      <c r="W9" s="1">
         <v>103003</v>
       </c>
-      <c r="V9" s="1">
+      <c r="X9" s="1">
         <v>103004</v>
       </c>
     </row>
-    <row r="10" ht="14.1" customHeight="1" spans="1:22">
+    <row r="10" spans="1:24" ht="14.1" customHeight="1">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="6">
         <v>4</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G10" s="3">
+        <v>85</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I10" s="3">
         <v>1</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>4</v>
-      </c>
-      <c r="I10" s="3">
-        <v>3</v>
-      </c>
-      <c r="J10" s="3">
-        <v>3</v>
       </c>
       <c r="K10" s="3">
         <v>3</v>
@@ -2710,61 +2216,65 @@
       <c r="N10" s="3">
         <v>3</v>
       </c>
-      <c r="O10" s="6" t="str">
+      <c r="O10" s="3">
+        <v>3</v>
+      </c>
+      <c r="P10" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="6" t="str">
         <f t="shared" si="0"/>
         <v>3,3,3,3</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>4</v>
       </c>
-      <c r="Q10" s="6">
+      <c r="S10" s="6">
         <v>80</v>
       </c>
-      <c r="R10" s="6">
+      <c r="T10" s="6">
         <v>50</v>
       </c>
-      <c r="S10" s="1">
+      <c r="U10" s="1">
         <v>104001</v>
       </c>
-      <c r="T10" s="1">
+      <c r="V10" s="1">
         <v>104002</v>
       </c>
-      <c r="U10" s="1">
+      <c r="W10" s="1">
         <v>104003</v>
       </c>
-      <c r="V10" s="1">
+      <c r="X10" s="1">
         <v>104004</v>
       </c>
     </row>
-    <row r="11" ht="24.95" customHeight="1" spans="1:22">
+    <row r="11" spans="1:24" ht="24.95" customHeight="1">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="6">
         <v>5</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G11" s="6">
-        <v>1</v>
-      </c>
-      <c r="H11" s="6">
-        <v>0</v>
+        <v>72</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="I11" s="6">
         <v>1</v>
       </c>
       <c r="J11" s="6">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K11" s="6">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="L11" s="6">
         <v>-1</v>
@@ -2775,61 +2285,59 @@
       <c r="N11" s="6">
         <v>-1</v>
       </c>
-      <c r="O11" s="6" t="str">
+      <c r="O11" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P11" s="6">
+        <v>-1</v>
+      </c>
+      <c r="Q11" s="6" t="str">
         <f t="shared" si="0"/>
         <v>-1,-1,-1,-1</v>
       </c>
-      <c r="P11" s="6">
+      <c r="R11" s="6">
         <v>5</v>
       </c>
-      <c r="Q11" s="6">
+      <c r="S11" s="6">
         <v>-1</v>
       </c>
-      <c r="R11" s="6">
+      <c r="T11" s="6">
         <v>-1</v>
       </c>
-      <c r="S11" s="1">
+      <c r="U11" s="1">
         <v>105001</v>
       </c>
-      <c r="T11" s="1">
+      <c r="V11" s="1">
         <v>105002</v>
       </c>
-      <c r="U11" s="1">
-        <v>105003</v>
-      </c>
-      <c r="V11" s="1">
-        <v>105004</v>
-      </c>
     </row>
-    <row r="12" ht="16.15" customHeight="1" spans="1:22">
+    <row r="12" spans="1:24" ht="16.149999999999999" customHeight="1">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="6">
         <v>6</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G12" s="3">
+        <v>72</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I12" s="3">
         <v>0</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>3</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>2</v>
-      </c>
-      <c r="J12" s="6">
-        <v>-1</v>
-      </c>
-      <c r="K12" s="6">
-        <v>-1</v>
       </c>
       <c r="L12" s="6">
         <v>-1</v>
@@ -2840,61 +2348,59 @@
       <c r="N12" s="6">
         <v>-1</v>
       </c>
-      <c r="O12" s="6" t="str">
+      <c r="O12" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P12" s="6">
+        <v>-1</v>
+      </c>
+      <c r="Q12" s="6" t="str">
         <f t="shared" si="0"/>
         <v>-1,-1,-1,-1</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>6</v>
       </c>
-      <c r="Q12" s="6">
+      <c r="S12" s="6">
         <v>-1</v>
       </c>
-      <c r="R12" s="6">
+      <c r="T12" s="6">
         <v>-1</v>
       </c>
-      <c r="S12" s="1">
+      <c r="U12" s="1">
         <v>106001</v>
       </c>
-      <c r="T12" s="1">
+      <c r="V12" s="1">
         <v>106002</v>
       </c>
-      <c r="U12" s="1">
-        <v>106003</v>
-      </c>
-      <c r="V12" s="1">
-        <v>106004</v>
-      </c>
     </row>
-    <row r="13" ht="14.1" customHeight="1" spans="1:22">
+    <row r="13" spans="1:24" ht="14.1" customHeight="1">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="6">
         <v>7</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G13" s="3">
+        <v>73</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I13" s="3">
         <v>1</v>
       </c>
-      <c r="H13" s="3">
+      <c r="J13" s="3">
         <v>4</v>
       </c>
-      <c r="I13" s="3">
+      <c r="K13" s="3">
         <v>3</v>
-      </c>
-      <c r="J13" s="6">
-        <v>-1</v>
-      </c>
-      <c r="K13" s="6">
-        <v>-1</v>
       </c>
       <c r="L13" s="6">
         <v>-1</v>
@@ -2905,35 +2411,36 @@
       <c r="N13" s="6">
         <v>-1</v>
       </c>
-      <c r="O13" s="6" t="str">
+      <c r="O13" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P13" s="6">
+        <v>-1</v>
+      </c>
+      <c r="Q13" s="6" t="str">
         <f t="shared" si="0"/>
         <v>-1,-1,-1,-1</v>
       </c>
-      <c r="P13" s="3">
+      <c r="R13" s="3">
         <v>7</v>
       </c>
-      <c r="Q13" s="6">
+      <c r="S13" s="6">
         <v>-1</v>
       </c>
-      <c r="R13" s="6">
+      <c r="T13" s="6">
         <v>-1</v>
       </c>
-      <c r="S13" s="1">
+      <c r="U13" s="1">
         <v>107001</v>
       </c>
-      <c r="T13" s="1">
+      <c r="V13" s="1">
         <v>107002</v>
-      </c>
-      <c r="U13" s="1">
-        <v>107003</v>
-      </c>
-      <c r="V13" s="1">
-        <v>107004</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/config/excel/Hero.xlsx
+++ b/config/excel/Hero.xlsx
@@ -1,25 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\trunk\global\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AB3E14C-0692-4D8B-BF48-F6C7F599FCCB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hero" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="91">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
   <si>
-    <t>英雄id</t>
+    <t>英雄和怪物id</t>
+  </si>
+  <si>
+    <t>模型资源</t>
+  </si>
+  <si>
+    <t>单位米</t>
   </si>
   <si>
     <t>0:SR @@ -69,25 +81,29 @@
     <t>此列由前4列自动生成，不用填写</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="SimSun"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">对应att表
+    <t xml:space="preserve">对应att表
 卡牌1级的属性固定值。
 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="SimSun"/>
-        <charset val="134"/>
-      </rPr>
-      <t>目前先用于demo版本，之后再改回正常值。目前正常值应该填21</t>
-    </r>
+  </si>
+  <si>
+    <t>Demo版本
+技能1
+普攻攻击</t>
+  </si>
+  <si>
+    <t>Demo版本
+技能2
+战技技能</t>
+  </si>
+  <si>
+    <t>Demo版本
+技能3
+奥义技能</t>
+  </si>
+  <si>
+    <t>Demo版本
+技能4
+残响技能</t>
   </si>
   <si>
     <t>导出字段名</t>
@@ -99,10 +115,16 @@
     <t>name</t>
   </si>
   <si>
+    <t>modelResource</t>
+  </si>
+  <si>
+    <t>modelscope</t>
+  </si>
+  <si>
     <t>quality</t>
   </si>
   <si>
-    <t>Profession</t>
+    <t>profession</t>
   </si>
   <si>
     <t>race</t>
@@ -123,12 +145,27 @@
     <t>fragmentTransform</t>
   </si>
   <si>
+    <t>skill1</t>
+  </si>
+  <si>
+    <t>skill2</t>
+  </si>
+  <si>
+    <t>skill3</t>
+  </si>
+  <si>
+    <t>skill4</t>
+  </si>
+  <si>
     <t>导出字段描述</t>
   </si>
   <si>
     <t>英雄名字</t>
   </si>
   <si>
+    <t>模型范围</t>
+  </si>
+  <si>
     <t>品质</t>
   </si>
   <si>
@@ -165,6 +202,18 @@
     <t>重复获得卡牌转化碎片数</t>
   </si>
   <si>
+    <t>技能1</t>
+  </si>
+  <si>
+    <t>技能2</t>
+  </si>
+  <si>
+    <t>技能3</t>
+  </si>
+  <si>
+    <t>技能4</t>
+  </si>
+  <si>
     <t>字段控制</t>
   </si>
   <si>
@@ -180,32 +229,121 @@
     <t>string</t>
   </si>
   <si>
+    <t>number</t>
+  </si>
+  <si>
     <t>[]int32</t>
   </si>
   <si>
     <t>demo版本防战</t>
   </si>
   <si>
-    <t>demo版本狂战</t>
-  </si>
-  <si>
     <t>demo版本法师</t>
   </si>
   <si>
     <t>demo版本治疗</t>
+  </si>
+  <si>
+    <t>怪物1</t>
+  </si>
+  <si>
+    <t>怪物2</t>
+  </si>
+  <si>
+    <t>怪物3</t>
+  </si>
+  <si>
+    <t>meilin</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>waerjili</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>puluomixiusi</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>demo版本战士</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>monster02a</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>monster12b</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>monster08b</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>big_icon</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>头像</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>半身像</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>yase</t>
+  </si>
+  <si>
+    <t>yase_01</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>puluomixiusi_01</t>
+  </si>
+  <si>
+    <t>puluomixiusi</t>
+  </si>
+  <si>
+    <t>meilin_01</t>
+  </si>
+  <si>
+    <t>meilin</t>
+  </si>
+  <si>
+    <t>dafuni_01</t>
+  </si>
+  <si>
+    <t>dafuni</t>
+  </si>
+  <si>
+    <t>monster12b</t>
+  </si>
+  <si>
+    <t>monster08a</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>0.5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -217,11 +355,13 @@
       <sz val="9"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -230,164 +370,19 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <color indexed="8"/>
+      <name val="SimSun"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="9"/>
       <name val="SimSun"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -414,192 +409,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -622,253 +437,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -884,58 +457,15 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
@@ -1008,6 +538,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1239,7 +772,7 @@
           </a:outerShdw>
         </a:effectLst>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1529,7 +1062,7 @@
           </a:outerShdw>
         </a:effectLst>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1805,7 +1338,7 @@
           <a:miter lim="400000"/>
         </a:ln>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2078,36 +1611,42 @@
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:P10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:X13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7:N10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="X11" sqref="X11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.35" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.35" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.35" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="27.625" style="1" customWidth="1"/>
-    <col min="7" max="8" width="16.25" style="1" customWidth="1"/>
-    <col min="9" max="12" width="9.425" style="1" customWidth="1"/>
-    <col min="13" max="13" width="16.15" style="1" customWidth="1"/>
-    <col min="14" max="14" width="16.75" style="1" customWidth="1"/>
-    <col min="15" max="15" width="18.4583333333333" style="1" customWidth="1"/>
-    <col min="16" max="16" width="20.125" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="6" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="9.375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="16.125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="16.75" style="1" customWidth="1"/>
+    <col min="19" max="19" width="18.5" style="1" customWidth="1"/>
+    <col min="20" max="20" width="20.125" style="1" customWidth="1"/>
+    <col min="21" max="24" width="9.25" style="1" customWidth="1"/>
+    <col min="25" max="16384" width="6" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14" customHeight="1" spans="1:16">
+    <row r="1" spans="1:24" ht="14.1" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2126,8 +1665,12 @@
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
     </row>
-    <row r="2" ht="121" customHeight="1" spans="1:16">
+    <row r="2" spans="1:24" ht="120.95" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="2" t="s">
@@ -2137,136 +1680,208 @@
       <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="I2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="O2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="P2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
+      <c r="Q2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="R2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="V2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="W2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="X2" s="9" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="3" ht="16.15" customHeight="1" spans="1:16">
+    <row r="3" spans="1:24" ht="16.149999999999999" customHeight="1">
       <c r="A3" s="3"/>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="P3" s="5" t="s">
         <v>22</v>
       </c>
+      <c r="I3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="T3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="U3" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="V3" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="W3" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="X3" s="10" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="4" ht="16.15" customHeight="1" spans="1:16">
+    <row r="4" spans="1:24" ht="16.149999999999999" customHeight="1">
       <c r="A4" s="3"/>
       <c r="B4" s="2" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>36</v>
+        <v>45</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="T4" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="U4" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="V4" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="W4" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="X4" s="10" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="5" ht="16.15" customHeight="1" spans="1:16">
+    <row r="5" spans="1:24" ht="16.149999999999999" customHeight="1">
       <c r="A5" s="3"/>
       <c r="B5" s="2" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
+      <c r="F5" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>55</v>
+      </c>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
@@ -2276,73 +1891,105 @@
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="10"/>
+      <c r="W5" s="10"/>
+      <c r="X5" s="10"/>
     </row>
-    <row r="6" ht="16.15" customHeight="1" spans="1:16">
+    <row r="6" spans="1:24" ht="16.149999999999999" customHeight="1">
       <c r="A6" s="3"/>
       <c r="B6" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="N6" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="O6" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="P6" s="5" t="s">
-        <v>40</v>
+        <v>59</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="R6" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="S6" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="T6" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="U6" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="V6" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="W6" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="X6" s="10" t="s">
+        <v>57</v>
       </c>
     </row>
-    <row r="7" ht="25" customHeight="1" spans="1:16">
+    <row r="7" spans="1:24" ht="24.95" customHeight="1">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="6">
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" s="6">
-        <v>0</v>
-      </c>
-      <c r="F7" s="6">
-        <v>1</v>
-      </c>
-      <c r="G7" s="6">
-        <v>0</v>
-      </c>
-      <c r="H7" s="6">
-        <v>0</v>
+        <v>61</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="I7" s="6">
         <v>0</v>
       </c>
       <c r="J7" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" s="6">
         <v>0</v>
@@ -2350,46 +1997,70 @@
       <c r="L7" s="6">
         <v>0</v>
       </c>
-      <c r="M7" s="6" t="str">
-        <f>I7&amp;","&amp;J7&amp;","&amp;K7&amp;","&amp;L7</f>
+      <c r="M7" s="6">
+        <v>0</v>
+      </c>
+      <c r="N7" s="6">
+        <v>0</v>
+      </c>
+      <c r="O7" s="6">
+        <v>0</v>
+      </c>
+      <c r="P7" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="6" t="str">
+        <f t="shared" ref="Q7:Q13" si="0">M7&amp;","&amp;N7&amp;","&amp;O7&amp;","&amp;P7</f>
         <v>0,0,0,0</v>
       </c>
-      <c r="N7" s="6">
+      <c r="R7" s="6">
         <v>1</v>
       </c>
-      <c r="O7" s="6">
+      <c r="S7" s="6">
         <v>50</v>
       </c>
-      <c r="P7" s="6">
+      <c r="T7" s="6">
         <v>30</v>
       </c>
+      <c r="U7" s="1">
+        <v>101001</v>
+      </c>
+      <c r="V7" s="1">
+        <v>101002</v>
+      </c>
+      <c r="W7" s="1">
+        <v>101003</v>
+      </c>
+      <c r="X7" s="1">
+        <v>101004</v>
+      </c>
     </row>
-    <row r="8" ht="25" customHeight="1" spans="1:16">
+    <row r="8" spans="1:24" ht="24.95" customHeight="1">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="6">
         <v>2</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" s="6">
-        <v>1</v>
-      </c>
-      <c r="F8" s="6">
-        <v>0</v>
-      </c>
-      <c r="G8" s="6">
-        <v>1</v>
-      </c>
-      <c r="H8" s="6">
-        <v>1</v>
+        <v>70</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="I8" s="6">
         <v>1</v>
       </c>
       <c r="J8" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" s="6">
         <v>1</v>
@@ -2397,46 +2068,70 @@
       <c r="L8" s="6">
         <v>1</v>
       </c>
-      <c r="M8" s="6" t="str">
-        <f>I8&amp;","&amp;J8&amp;","&amp;K8&amp;","&amp;L8</f>
+      <c r="M8" s="6">
+        <v>1</v>
+      </c>
+      <c r="N8" s="6">
+        <v>1</v>
+      </c>
+      <c r="O8" s="6">
+        <v>1</v>
+      </c>
+      <c r="P8" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="6" t="str">
+        <f t="shared" si="0"/>
         <v>1,1,1,1</v>
       </c>
-      <c r="N8" s="6">
+      <c r="R8" s="6">
         <v>2</v>
       </c>
-      <c r="O8" s="6">
+      <c r="S8" s="6">
         <v>80</v>
       </c>
-      <c r="P8" s="6">
+      <c r="T8" s="6">
         <v>50</v>
       </c>
+      <c r="U8" s="1">
+        <v>102001</v>
+      </c>
+      <c r="V8" s="1">
+        <v>102002</v>
+      </c>
+      <c r="W8" s="1">
+        <v>102003</v>
+      </c>
+      <c r="X8" s="1">
+        <v>102004</v>
+      </c>
     </row>
-    <row r="9" ht="16.15" customHeight="1" spans="1:16">
+    <row r="9" spans="1:24" ht="16.149999999999999" customHeight="1">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="6">
         <v>3</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" s="3">
+        <v>62</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I9" s="3">
         <v>0</v>
       </c>
-      <c r="F9" s="3">
+      <c r="J9" s="3">
         <v>3</v>
-      </c>
-      <c r="G9" s="3">
-        <v>2</v>
-      </c>
-      <c r="H9" s="3">
-        <v>2</v>
-      </c>
-      <c r="I9" s="3">
-        <v>2</v>
-      </c>
-      <c r="J9" s="3">
-        <v>2</v>
       </c>
       <c r="K9" s="3">
         <v>2</v>
@@ -2444,46 +2139,70 @@
       <c r="L9" s="3">
         <v>2</v>
       </c>
-      <c r="M9" s="6" t="str">
-        <f>I9&amp;","&amp;J9&amp;","&amp;K9&amp;","&amp;L9</f>
+      <c r="M9" s="3">
+        <v>2</v>
+      </c>
+      <c r="N9" s="3">
+        <v>2</v>
+      </c>
+      <c r="O9" s="3">
+        <v>2</v>
+      </c>
+      <c r="P9" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q9" s="6" t="str">
+        <f t="shared" si="0"/>
         <v>2,2,2,2</v>
       </c>
-      <c r="N9" s="3">
+      <c r="R9" s="3">
         <v>3</v>
       </c>
-      <c r="O9" s="6">
+      <c r="S9" s="6">
         <v>50</v>
       </c>
-      <c r="P9" s="6">
+      <c r="T9" s="6">
         <v>30</v>
       </c>
+      <c r="U9" s="1">
+        <v>103001</v>
+      </c>
+      <c r="V9" s="1">
+        <v>103002</v>
+      </c>
+      <c r="W9" s="1">
+        <v>103003</v>
+      </c>
+      <c r="X9" s="1">
+        <v>103004</v>
+      </c>
     </row>
-    <row r="10" ht="14" customHeight="1" spans="1:16">
+    <row r="10" spans="1:24" ht="14.1" customHeight="1">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="6">
         <v>4</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="3">
+        <v>63</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I10" s="3">
         <v>1</v>
       </c>
-      <c r="F10" s="3">
+      <c r="J10" s="3">
         <v>4</v>
-      </c>
-      <c r="G10" s="3">
-        <v>3</v>
-      </c>
-      <c r="H10" s="3">
-        <v>3</v>
-      </c>
-      <c r="I10" s="3">
-        <v>3</v>
-      </c>
-      <c r="J10" s="3">
-        <v>3</v>
       </c>
       <c r="K10" s="3">
         <v>3</v>
@@ -2491,23 +2210,237 @@
       <c r="L10" s="3">
         <v>3</v>
       </c>
-      <c r="M10" s="6" t="str">
-        <f>I10&amp;","&amp;J10&amp;","&amp;K10&amp;","&amp;L10</f>
+      <c r="M10" s="3">
+        <v>3</v>
+      </c>
+      <c r="N10" s="3">
+        <v>3</v>
+      </c>
+      <c r="O10" s="3">
+        <v>3</v>
+      </c>
+      <c r="P10" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="6" t="str">
+        <f t="shared" si="0"/>
         <v>3,3,3,3</v>
       </c>
-      <c r="N10" s="3">
+      <c r="R10" s="3">
         <v>4</v>
       </c>
-      <c r="O10" s="6">
+      <c r="S10" s="6">
         <v>80</v>
       </c>
-      <c r="P10" s="6">
+      <c r="T10" s="6">
         <v>50</v>
+      </c>
+      <c r="U10" s="1">
+        <v>104001</v>
+      </c>
+      <c r="V10" s="1">
+        <v>104002</v>
+      </c>
+      <c r="W10" s="1">
+        <v>104003</v>
+      </c>
+      <c r="X10" s="1">
+        <v>104004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" ht="24.95" customHeight="1">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="6">
+        <v>5</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I11" s="6">
+        <v>1</v>
+      </c>
+      <c r="J11" s="6">
+        <v>0</v>
+      </c>
+      <c r="K11" s="6">
+        <v>1</v>
+      </c>
+      <c r="L11" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M11" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N11" s="6">
+        <v>-1</v>
+      </c>
+      <c r="O11" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P11" s="6">
+        <v>-1</v>
+      </c>
+      <c r="Q11" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>-1,-1,-1,-1</v>
+      </c>
+      <c r="R11" s="6">
+        <v>5</v>
+      </c>
+      <c r="S11" s="6">
+        <v>-1</v>
+      </c>
+      <c r="T11" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U11" s="1">
+        <v>105001</v>
+      </c>
+      <c r="V11" s="1">
+        <v>105002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" ht="16.149999999999999" customHeight="1">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="6">
+        <v>6</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3">
+        <v>3</v>
+      </c>
+      <c r="K12" s="3">
+        <v>2</v>
+      </c>
+      <c r="L12" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M12" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N12" s="6">
+        <v>-1</v>
+      </c>
+      <c r="O12" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P12" s="6">
+        <v>-1</v>
+      </c>
+      <c r="Q12" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>-1,-1,-1,-1</v>
+      </c>
+      <c r="R12" s="3">
+        <v>6</v>
+      </c>
+      <c r="S12" s="6">
+        <v>-1</v>
+      </c>
+      <c r="T12" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U12" s="1">
+        <v>106001</v>
+      </c>
+      <c r="V12" s="1">
+        <v>106002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" ht="14.1" customHeight="1">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="6">
+        <v>7</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I13" s="3">
+        <v>1</v>
+      </c>
+      <c r="J13" s="3">
+        <v>4</v>
+      </c>
+      <c r="K13" s="3">
+        <v>3</v>
+      </c>
+      <c r="L13" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M13" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N13" s="6">
+        <v>-1</v>
+      </c>
+      <c r="O13" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P13" s="6">
+        <v>-1</v>
+      </c>
+      <c r="Q13" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>-1,-1,-1,-1</v>
+      </c>
+      <c r="R13" s="3">
+        <v>7</v>
+      </c>
+      <c r="S13" s="6">
+        <v>-1</v>
+      </c>
+      <c r="T13" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U13" s="1">
+        <v>107001</v>
+      </c>
+      <c r="V13" s="1">
+        <v>107002</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/config/excel/Hero.xlsx
+++ b/config/excel/Hero.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\trunk\global\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AB3E14C-0692-4D8B-BF48-F6C7F599FCCB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B622F02D-B79A-4FB7-851A-9610A82DBF2A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="95">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -336,6 +336,22 @@
   </si>
   <si>
     <t>0.5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>demo版本洛基</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>luoji</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>luoji</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>luoji_01</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1617,10 +1633,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X13"/>
+  <dimension ref="A1:X14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="X11" sqref="X11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="W11" sqref="W11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1"/>
@@ -2437,6 +2453,75 @@
         <v>107002</v>
       </c>
     </row>
+    <row r="14" spans="1:24" ht="13.35" customHeight="1">
+      <c r="C14" s="1">
+        <v>8</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I14" s="1">
+        <v>1</v>
+      </c>
+      <c r="J14" s="1">
+        <v>4</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0</v>
+      </c>
+      <c r="L14" s="1">
+        <v>5</v>
+      </c>
+      <c r="M14" s="1">
+        <v>3</v>
+      </c>
+      <c r="N14" s="1">
+        <v>3</v>
+      </c>
+      <c r="O14" s="1">
+        <v>3</v>
+      </c>
+      <c r="P14" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q14" s="6" t="str">
+        <f t="shared" ref="Q14" si="1">M14&amp;","&amp;N14&amp;","&amp;O14&amp;","&amp;P14</f>
+        <v>3,3,3,3</v>
+      </c>
+      <c r="R14" s="3">
+        <v>4</v>
+      </c>
+      <c r="S14" s="6">
+        <v>80</v>
+      </c>
+      <c r="T14" s="6">
+        <v>50</v>
+      </c>
+      <c r="U14" s="1">
+        <v>108001</v>
+      </c>
+      <c r="V14" s="1">
+        <v>108002</v>
+      </c>
+      <c r="W14" s="1">
+        <v>108003</v>
+      </c>
+      <c r="X14" s="1">
+        <v>108004</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config/excel/Hero.xlsx
+++ b/config/excel/Hero.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\trunk\global\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B622F02D-B79A-4FB7-851A-9610A82DBF2A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Hero" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="89">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -34,8 +28,28 @@
     <t>单位米</t>
   </si>
   <si>
-    <t>0:SR -1:SSR</t>
+    <r>
+      <t>2:SR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t> +</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3:SSR</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">0:先锋
@@ -118,6 +132,12 @@
     <t>modelResource</t>
   </si>
   <si>
+    <t>big_icon</t>
+  </si>
+  <si>
+    <t>icon</t>
+  </si>
+  <si>
     <t>modelscope</t>
   </si>
   <si>
@@ -163,6 +183,12 @@
     <t>英雄名字</t>
   </si>
   <si>
+    <t>半身像</t>
+  </si>
+  <si>
+    <t>头像</t>
+  </si>
+  <si>
     <t>模型范围</t>
   </si>
   <si>
@@ -238,128 +264,86 @@
     <t>demo版本防战</t>
   </si>
   <si>
+    <t>waerjili</t>
+  </si>
+  <si>
+    <t>yase_01</t>
+  </si>
+  <si>
+    <t>yase</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>demo版本战士</t>
+  </si>
+  <si>
+    <t>puluomixiusi</t>
+  </si>
+  <si>
+    <t>puluomixiusi_01</t>
+  </si>
+  <si>
     <t>demo版本法师</t>
   </si>
   <si>
+    <t>meilin</t>
+  </si>
+  <si>
+    <t>meilin_01</t>
+  </si>
+  <si>
     <t>demo版本治疗</t>
   </si>
   <si>
+    <t>monster02a</t>
+  </si>
+  <si>
+    <t>dafuni_01</t>
+  </si>
+  <si>
+    <t>dafuni</t>
+  </si>
+  <si>
     <t>怪物1</t>
   </si>
   <si>
+    <t>monster12b</t>
+  </si>
+  <si>
     <t>怪物2</t>
   </si>
   <si>
     <t>怪物3</t>
   </si>
   <si>
-    <t>meilin</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>waerjili</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>puluomixiusi</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>demo版本战士</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>monster02a</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>monster12b</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>monster08b</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>icon</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>big_icon</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>头像</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>半身像</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>yase</t>
-  </si>
-  <si>
-    <t>yase_01</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>puluomixiusi_01</t>
-  </si>
-  <si>
-    <t>puluomixiusi</t>
-  </si>
-  <si>
-    <t>meilin_01</t>
-  </si>
-  <si>
-    <t>meilin</t>
-  </si>
-  <si>
-    <t>dafuni_01</t>
-  </si>
-  <si>
-    <t>dafuni</t>
-  </si>
-  <si>
-    <t>monster12b</t>
   </si>
   <si>
     <t>monster08a</t>
   </si>
   <si>
-    <t>0.5</t>
-  </si>
-  <si>
-    <t>0.5</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>demo版本洛基</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>luoji</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>luoji</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>luoji_01</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -371,13 +355,17 @@
       <sz val="9"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="SimSun"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -393,12 +381,164 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="SimSun"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -429,8 +569,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -453,11 +779,253 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -467,21 +1035,69 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
@@ -554,9 +1170,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1627,32 +2240,31 @@
       </a:style>
     </a:txDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:X14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="W11" sqref="W11"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="14.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="13.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.875" style="1" customWidth="1"/>
     <col min="6" max="6" width="17" style="1" customWidth="1"/>
     <col min="7" max="7" width="13.875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="8.25" style="1" customWidth="1"/>
+    <col min="12" max="12" width="11.375" style="1" customWidth="1"/>
     <col min="13" max="16" width="9.375" style="1" customWidth="1"/>
     <col min="17" max="17" width="16.125" style="1" customWidth="1"/>
     <col min="18" max="18" width="16.75" style="1" customWidth="1"/>
@@ -1662,7 +2274,7 @@
     <col min="25" max="16384" width="6" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="14.1" customHeight="1">
+    <row r="1" ht="14.1" customHeight="1" spans="1:20">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1686,7 +2298,7 @@
       <c r="S1" s="3"/>
       <c r="T1" s="3"/>
     </row>
-    <row r="2" spans="1:24" ht="120.95" customHeight="1">
+    <row r="2" ht="120.95" customHeight="1" spans="1:24">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="2" t="s">
@@ -1701,7 +2313,7 @@
       <c r="H2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="7" t="s">
         <v>4</v>
       </c>
       <c r="J2" s="4" t="s">
@@ -1725,28 +2337,28 @@
       <c r="P2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="Q2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="R2" s="8" t="s">
+      <c r="R2" s="9" t="s">
         <v>13</v>
       </c>
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
-      <c r="U2" s="9" t="s">
+      <c r="U2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="V2" s="9" t="s">
+      <c r="V2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="W2" s="9" t="s">
+      <c r="W2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="X2" s="9" t="s">
+      <c r="X2" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="16.149999999999999" customHeight="1">
+    <row r="3" ht="16.15" customHeight="1" spans="1:24">
       <c r="A3" s="3"/>
       <c r="B3" s="2" t="s">
         <v>18</v>
@@ -1761,142 +2373,142 @@
         <v>21</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>75</v>
+        <v>22</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>74</v>
+        <v>23</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
       <c r="Q3" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="U3" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="V3" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="W3" s="10" t="s">
+      <c r="U3" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="X3" s="10" t="s">
+      <c r="V3" s="11" t="s">
         <v>34</v>
       </c>
+      <c r="W3" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="X3" s="11" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="4" spans="1:24" ht="16.149999999999999" customHeight="1">
+    <row r="4" ht="16.15" customHeight="1" spans="1:24">
       <c r="A4" s="3"/>
       <c r="B4" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>2</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="R4" s="5" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="S4" s="5" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="T4" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="U4" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="V4" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="W4" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="X4" s="10" t="s">
         <v>53</v>
       </c>
+      <c r="U4" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="V4" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="W4" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="X4" s="11" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="5" spans="1:24" ht="16.149999999999999" customHeight="1">
+    <row r="5" ht="16.15" customHeight="1" spans="1:24">
       <c r="A5" s="3"/>
       <c r="B5" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
@@ -1911,98 +2523,98 @@
       <c r="R5" s="5"/>
       <c r="S5" s="5"/>
       <c r="T5" s="5"/>
-      <c r="U5" s="10"/>
-      <c r="V5" s="10"/>
-      <c r="W5" s="10"/>
-      <c r="X5" s="10"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="11"/>
+      <c r="W5" s="11"/>
+      <c r="X5" s="11"/>
     </row>
-    <row r="6" spans="1:24" ht="16.149999999999999" customHeight="1">
+    <row r="6" ht="16.15" customHeight="1" spans="1:24">
       <c r="A6" s="3"/>
       <c r="B6" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
       <c r="Q6" s="5" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="R6" s="5" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="S6" s="5" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="T6" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="U6" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="V6" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="W6" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="X6" s="10" t="s">
-        <v>57</v>
+        <v>61</v>
+      </c>
+      <c r="U6" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="V6" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="W6" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="X6" s="11" t="s">
+        <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="24.95" customHeight="1">
+    <row r="7" ht="24.95" customHeight="1" spans="1:24">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="6">
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="H7" s="2" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="I7" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J7" s="6">
         <v>1</v>
@@ -2051,7 +2663,7 @@
         <v>101004</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="24.95" customHeight="1">
+    <row r="8" ht="24.95" customHeight="1" spans="1:24">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="6">
@@ -2061,19 +2673,19 @@
         <v>70</v>
       </c>
       <c r="E8" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="I8" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J8" s="6">
         <v>0</v>
@@ -2122,29 +2734,29 @@
         <v>102004</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="16.149999999999999" customHeight="1">
+    <row r="9" ht="16.15" customHeight="1" spans="1:24">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="6">
         <v>3</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="I9" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J9" s="3">
         <v>3</v>
@@ -2193,29 +2805,29 @@
         <v>103004</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="14.1" customHeight="1">
+    <row r="10" ht="14.1" customHeight="1" spans="1:24">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="6">
         <v>4</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="I10" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J10" s="3">
         <v>4</v>
@@ -2264,27 +2876,27 @@
         <v>104004</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="24.95" customHeight="1">
+    <row r="11" ht="24.95" customHeight="1" spans="1:22">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="6">
         <v>5</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="I11" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J11" s="6">
         <v>0</v>
@@ -2327,27 +2939,27 @@
         <v>105002</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="16.149999999999999" customHeight="1">
+    <row r="12" ht="16.15" customHeight="1" spans="1:22">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="6">
         <v>6</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="I12" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J12" s="3">
         <v>3</v>
@@ -2390,27 +3002,27 @@
         <v>106002</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="14.1" customHeight="1">
+    <row r="13" ht="14.1" customHeight="1" spans="1:22">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="6">
         <v>7</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="I13" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J13" s="3">
         <v>4</v>
@@ -2453,27 +3065,27 @@
         <v>107002</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="13.35" customHeight="1">
+    <row r="14" customHeight="1" spans="3:24">
       <c r="C14" s="1">
         <v>8</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="H14" s="1">
         <v>0.5</v>
       </c>
       <c r="I14" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J14" s="1">
         <v>4</v>
@@ -2523,9 +3135,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/config/excel/Hero.xlsx
+++ b/config/excel/Hero.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23901"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\trunk\global\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01EEADB9-CFC9-443A-973B-0E3B14DF524C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hero" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -36,7 +42,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>  </t>
@@ -64,14 +70,6 @@
 </t>
   </si>
   <si>
-    <t>0:自然
-1:艺术 -
-2:文明 -
-3:破灭</t>
-  </si>
-  <si>
     <t>0: 单手剑
 1: 双手剑
 2: 长柄
@@ -332,18 +330,19 @@
   <si>
     <t>luoji_01</t>
   </si>
+  <si>
+    <t>0:韵律
+1:自然
+2:文明
+3:破灭</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="27">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -355,6 +354,7 @@
       <sz val="9"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -366,6 +366,7 @@
     <font>
       <sz val="11"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -382,163 +383,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
+      <sz val="9"/>
+      <name val="SimSun"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -569,194 +424,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -779,251 +448,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1047,57 +474,10 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
@@ -1170,6 +550,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2240,15 +1623,15 @@
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
@@ -2274,7 +1657,7 @@
     <col min="25" max="16384" width="6" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.1" customHeight="1" spans="1:20">
+    <row r="1" spans="1:24" ht="14.1" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2298,7 +1681,7 @@
       <c r="S1" s="3"/>
       <c r="T1" s="3"/>
     </row>
-    <row r="2" ht="120.95" customHeight="1" spans="1:24">
+    <row r="2" spans="1:24" ht="120.95" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="2" t="s">
@@ -2320,195 +1703,195 @@
         <v>5</v>
       </c>
       <c r="K2" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="L2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="O2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="P2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="Q2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="R2" s="9" t="s">
         <v>12</v>
-      </c>
-      <c r="R2" s="9" t="s">
-        <v>13</v>
       </c>
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
       <c r="U2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="V2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="V2" s="10" t="s">
+      <c r="W2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="W2" s="10" t="s">
+      <c r="X2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="X2" s="10" t="s">
-        <v>17</v>
-      </c>
     </row>
-    <row r="3" ht="16.15" customHeight="1" spans="1:24">
+    <row r="3" spans="1:24" ht="16.149999999999999" customHeight="1">
       <c r="A3" s="3"/>
       <c r="B3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="I3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="J3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="K3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="L3" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>28</v>
       </c>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
       <c r="Q3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="R3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="R3" s="5" t="s">
+      <c r="S3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="S3" s="5" t="s">
+      <c r="T3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="T3" s="5" t="s">
+      <c r="U3" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="U3" s="11" t="s">
+      <c r="V3" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="V3" s="11" t="s">
+      <c r="W3" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="W3" s="11" t="s">
+      <c r="X3" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="X3" s="11" t="s">
-        <v>36</v>
-      </c>
     </row>
-    <row r="4" ht="16.15" customHeight="1" spans="1:24">
+    <row r="4" spans="1:24" ht="16.149999999999999" customHeight="1">
       <c r="A4" s="3"/>
       <c r="B4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>37</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>38</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>2</v>
       </c>
       <c r="F4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="H4" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="I4" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="J4" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="K4" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="L4" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="M4" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="M4" s="5" t="s">
+      <c r="N4" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="N4" s="5" t="s">
+      <c r="O4" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="O4" s="5" t="s">
+      <c r="P4" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="P4" s="5" t="s">
+      <c r="Q4" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="Q4" s="5" t="s">
+      <c r="R4" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="R4" s="5" t="s">
+      <c r="S4" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="S4" s="5" t="s">
+      <c r="T4" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="T4" s="5" t="s">
+      <c r="U4" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="U4" s="11" t="s">
+      <c r="V4" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="V4" s="11" t="s">
+      <c r="W4" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="W4" s="11" t="s">
+      <c r="X4" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="X4" s="11" t="s">
-        <v>57</v>
-      </c>
     </row>
-    <row r="5" ht="16.15" customHeight="1" spans="1:24">
+    <row r="5" spans="1:24" ht="16.149999999999999" customHeight="1">
       <c r="A5" s="3"/>
       <c r="B5" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
@@ -2528,90 +1911,90 @@
       <c r="W5" s="11"/>
       <c r="X5" s="11"/>
     </row>
-    <row r="6" ht="16.15" customHeight="1" spans="1:24">
+    <row r="6" spans="1:24" ht="16.149999999999999" customHeight="1">
       <c r="A6" s="3"/>
       <c r="B6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="D6" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="E6" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H6" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>63</v>
-      </c>
       <c r="I6" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
       <c r="Q6" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="R6" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S6" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T6" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U6" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V6" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W6" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="X6" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
-    <row r="7" ht="24.95" customHeight="1" spans="1:24">
+    <row r="7" spans="1:24" ht="24.95" customHeight="1">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="6">
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="I7" s="6">
         <v>2</v>
@@ -2620,10 +2003,10 @@
         <v>1</v>
       </c>
       <c r="K7" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L7" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7" s="6">
         <v>0</v>
@@ -2663,26 +2046,26 @@
         <v>101004</v>
       </c>
     </row>
-    <row r="8" ht="24.95" customHeight="1" spans="1:24">
+    <row r="8" spans="1:24" ht="24.95" customHeight="1">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="6">
         <v>2</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="G8" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I8" s="6">
         <v>3</v>
@@ -2691,10 +2074,10 @@
         <v>0</v>
       </c>
       <c r="K8" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8" s="6">
         <v>1</v>
@@ -2734,26 +2117,26 @@
         <v>102004</v>
       </c>
     </row>
-    <row r="9" ht="16.15" customHeight="1" spans="1:24">
+    <row r="9" spans="1:24" ht="16.149999999999999" customHeight="1">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="6">
         <v>3</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="G9" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I9" s="3">
         <v>2</v>
@@ -2762,10 +2145,10 @@
         <v>3</v>
       </c>
       <c r="K9" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M9" s="3">
         <v>2</v>
@@ -2805,26 +2188,26 @@
         <v>103004</v>
       </c>
     </row>
-    <row r="10" ht="14.1" customHeight="1" spans="1:24">
+    <row r="10" spans="1:24" ht="14.1" customHeight="1">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="6">
         <v>4</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="H10" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I10" s="3">
         <v>3</v>
@@ -2833,10 +2216,10 @@
         <v>4</v>
       </c>
       <c r="K10" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M10" s="3">
         <v>3</v>
@@ -2876,24 +2259,24 @@
         <v>104004</v>
       </c>
     </row>
-    <row r="11" ht="24.95" customHeight="1" spans="1:22">
+    <row r="11" spans="1:24" ht="24.95" customHeight="1">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="6">
         <v>5</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>81</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I11" s="6">
         <v>3</v>
@@ -2939,24 +2322,24 @@
         <v>105002</v>
       </c>
     </row>
-    <row r="12" ht="16.15" customHeight="1" spans="1:22">
+    <row r="12" spans="1:24" ht="16.149999999999999" customHeight="1">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="6">
         <v>6</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I12" s="3">
         <v>2</v>
@@ -2965,7 +2348,7 @@
         <v>3</v>
       </c>
       <c r="K12" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L12" s="6">
         <v>-1</v>
@@ -3002,24 +2385,24 @@
         <v>106002</v>
       </c>
     </row>
-    <row r="13" ht="14.1" customHeight="1" spans="1:22">
+    <row r="13" spans="1:24" ht="14.1" customHeight="1">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="6">
         <v>7</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I13" s="3">
         <v>3</v>
@@ -3065,21 +2448,21 @@
         <v>107002</v>
       </c>
     </row>
-    <row r="14" customHeight="1" spans="3:24">
+    <row r="14" spans="1:24" ht="13.35" customHeight="1">
       <c r="C14" s="1">
         <v>8</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="G14" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H14" s="1">
         <v>0.5</v>
@@ -3091,7 +2474,7 @@
         <v>4</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L14" s="1">
         <v>5</v>
@@ -3135,8 +2518,9 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/config/excel/Hero.xlsx
+++ b/config/excel/Hero.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\trunk\global\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01EEADB9-CFC9-443A-973B-0E3B14DF524C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A61D544-8C92-4235-A145-012F02931352}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="94">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -32,30 +32,6 @@
   </si>
   <si>
     <t>单位米</t>
-  </si>
-  <si>
-    <r>
-      <t>2:SR</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t> -</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="SimSun"/>
-        <charset val="134"/>
-      </rPr>
-      <t>3:SSR</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">0:先锋
@@ -335,14 +311,39 @@
 1:自然
 2:文明
 3:破灭</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>史莱姆国王</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>小史莱姆</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss02_b</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss02_s</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>shilaimuguowang</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2:SR
+3:SSR</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -355,12 +356,6 @@
       <color indexed="8"/>
       <name val="微软雅黑"/>
       <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="SimSun"/>
       <charset val="134"/>
     </font>
     <font>
@@ -380,12 +375,6 @@
       <color indexed="8"/>
       <name val="SimSun"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
     <font>
       <sz val="9"/>
@@ -452,7 +441,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -461,18 +450,34 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1629,10 +1634,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X14"/>
+  <dimension ref="A1:X16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1"/>
@@ -1696,202 +1701,202 @@
       <c r="H2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="L2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="L2" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="O2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="P2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="Q2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="R2" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="R2" s="9" t="s">
-        <v>12</v>
       </c>
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
-      <c r="U2" s="10" t="s">
+      <c r="U2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="V2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="V2" s="10" t="s">
+      <c r="W2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="W2" s="10" t="s">
+      <c r="X2" s="8" t="s">
         <v>15</v>
-      </c>
-      <c r="X2" s="10" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:24" ht="16.149999999999999" customHeight="1">
       <c r="A3" s="3"/>
       <c r="B3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="I3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="J3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="K3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="L3" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>27</v>
       </c>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
       <c r="Q3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="R3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="R3" s="5" t="s">
+      <c r="S3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="S3" s="5" t="s">
+      <c r="T3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="T3" s="5" t="s">
+      <c r="U3" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="U3" s="11" t="s">
+      <c r="V3" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="V3" s="11" t="s">
+      <c r="W3" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="W3" s="11" t="s">
+      <c r="X3" s="9" t="s">
         <v>34</v>
-      </c>
-      <c r="X3" s="11" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:24" ht="16.149999999999999" customHeight="1">
       <c r="A4" s="3"/>
       <c r="B4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>36</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>37</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>2</v>
       </c>
       <c r="F4" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="H4" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="I4" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="J4" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="K4" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="L4" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="M4" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="M4" s="5" t="s">
+      <c r="N4" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="N4" s="5" t="s">
+      <c r="O4" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="O4" s="5" t="s">
+      <c r="P4" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="P4" s="5" t="s">
+      <c r="Q4" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="Q4" s="5" t="s">
+      <c r="R4" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="R4" s="5" t="s">
+      <c r="S4" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="S4" s="5" t="s">
+      <c r="T4" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="T4" s="5" t="s">
+      <c r="U4" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="U4" s="11" t="s">
+      <c r="V4" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="V4" s="11" t="s">
+      <c r="W4" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="W4" s="11" t="s">
+      <c r="X4" s="9" t="s">
         <v>55</v>
-      </c>
-      <c r="X4" s="11" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="16.149999999999999" customHeight="1">
       <c r="A5" s="3"/>
       <c r="B5" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
@@ -1906,619 +1911,745 @@
       <c r="R5" s="5"/>
       <c r="S5" s="5"/>
       <c r="T5" s="5"/>
-      <c r="U5" s="11"/>
-      <c r="V5" s="11"/>
-      <c r="W5" s="11"/>
-      <c r="X5" s="11"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="9"/>
     </row>
     <row r="6" spans="1:24" ht="16.149999999999999" customHeight="1">
       <c r="A6" s="3"/>
       <c r="B6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="D6" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="E6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H6" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>62</v>
-      </c>
       <c r="I6" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
       <c r="Q6" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R6" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="S6" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="T6" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="U6" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="V6" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="W6" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="X6" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" s="15" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="13">
+        <v>1</v>
+      </c>
+      <c r="D7" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="R6" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="S6" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="T6" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="U6" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="V6" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="W6" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="X6" s="11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" ht="24.95" customHeight="1">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="6">
+      <c r="E7" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="I7" s="13">
+        <v>2</v>
+      </c>
+      <c r="J7" s="13">
         <v>1</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="I7" s="6">
-        <v>2</v>
-      </c>
-      <c r="J7" s="6">
+      <c r="K7" s="13">
+        <v>3</v>
+      </c>
+      <c r="L7" s="13">
         <v>1</v>
       </c>
-      <c r="K7" s="6">
-        <v>3</v>
-      </c>
-      <c r="L7" s="6">
-        <v>1</v>
-      </c>
-      <c r="M7" s="6">
+      <c r="M7" s="13">
         <v>0</v>
       </c>
-      <c r="N7" s="6">
+      <c r="N7" s="13">
         <v>0</v>
       </c>
-      <c r="O7" s="6">
+      <c r="O7" s="13">
         <v>0</v>
       </c>
-      <c r="P7" s="6">
+      <c r="P7" s="13">
         <v>0</v>
       </c>
-      <c r="Q7" s="6" t="str">
+      <c r="Q7" s="13" t="str">
         <f t="shared" ref="Q7:Q13" si="0">M7&amp;","&amp;N7&amp;","&amp;O7&amp;","&amp;P7</f>
         <v>0,0,0,0</v>
       </c>
-      <c r="R7" s="6">
+      <c r="R7" s="13">
         <v>1</v>
       </c>
-      <c r="S7" s="6">
+      <c r="S7" s="13">
         <v>50</v>
       </c>
-      <c r="T7" s="6">
+      <c r="T7" s="13">
         <v>30</v>
       </c>
-      <c r="U7" s="1">
+      <c r="U7" s="15">
         <v>101001</v>
       </c>
-      <c r="V7" s="1">
+      <c r="V7" s="15">
         <v>101002</v>
       </c>
-      <c r="W7" s="1">
+      <c r="W7" s="15">
         <v>101003</v>
       </c>
-      <c r="X7" s="1">
+      <c r="X7" s="15">
         <v>101004</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="24.95" customHeight="1">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="6">
+    <row r="8" spans="1:24" s="15" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="13">
         <v>2</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="I8" s="6">
-        <v>3</v>
-      </c>
-      <c r="J8" s="6">
+      <c r="G8" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="I8" s="13">
+        <v>3</v>
+      </c>
+      <c r="J8" s="13">
         <v>0</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K8" s="13">
         <v>0</v>
       </c>
-      <c r="L8" s="6">
+      <c r="L8" s="13">
         <v>0</v>
       </c>
-      <c r="M8" s="6">
+      <c r="M8" s="13">
         <v>1</v>
       </c>
-      <c r="N8" s="6">
+      <c r="N8" s="13">
         <v>1</v>
       </c>
-      <c r="O8" s="6">
+      <c r="O8" s="13">
         <v>1</v>
       </c>
-      <c r="P8" s="6">
+      <c r="P8" s="13">
         <v>1</v>
       </c>
-      <c r="Q8" s="6" t="str">
+      <c r="Q8" s="13" t="str">
         <f t="shared" si="0"/>
         <v>1,1,1,1</v>
       </c>
-      <c r="R8" s="6">
+      <c r="R8" s="13">
         <v>2</v>
       </c>
-      <c r="S8" s="6">
+      <c r="S8" s="13">
         <v>80</v>
       </c>
-      <c r="T8" s="6">
+      <c r="T8" s="13">
         <v>50</v>
       </c>
-      <c r="U8" s="1">
+      <c r="U8" s="15">
         <v>102001</v>
       </c>
-      <c r="V8" s="1">
+      <c r="V8" s="15">
         <v>102002</v>
       </c>
-      <c r="W8" s="1">
+      <c r="W8" s="15">
         <v>102003</v>
       </c>
-      <c r="X8" s="1">
+      <c r="X8" s="15">
         <v>102004</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="16.149999999999999" customHeight="1">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="6">
-        <v>3</v>
-      </c>
-      <c r="D9" s="2" t="s">
+    <row r="9" spans="1:24" s="15" customFormat="1" ht="16.149999999999999" customHeight="1">
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="13">
+        <v>3</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="F9" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="I9" s="3">
+      <c r="G9" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="I9" s="12">
         <v>2</v>
       </c>
-      <c r="J9" s="3">
-        <v>3</v>
-      </c>
-      <c r="K9" s="3">
-        <v>3</v>
-      </c>
-      <c r="L9" s="3">
+      <c r="J9" s="12">
+        <v>3</v>
+      </c>
+      <c r="K9" s="12">
+        <v>3</v>
+      </c>
+      <c r="L9" s="12">
         <v>4</v>
       </c>
-      <c r="M9" s="3">
+      <c r="M9" s="12">
         <v>2</v>
       </c>
-      <c r="N9" s="3">
+      <c r="N9" s="12">
         <v>2</v>
       </c>
-      <c r="O9" s="3">
+      <c r="O9" s="12">
         <v>2</v>
       </c>
-      <c r="P9" s="3">
+      <c r="P9" s="12">
         <v>2</v>
       </c>
-      <c r="Q9" s="6" t="str">
+      <c r="Q9" s="13" t="str">
         <f t="shared" si="0"/>
         <v>2,2,2,2</v>
       </c>
-      <c r="R9" s="3">
-        <v>3</v>
-      </c>
-      <c r="S9" s="6">
+      <c r="R9" s="12">
+        <v>3</v>
+      </c>
+      <c r="S9" s="13">
         <v>50</v>
       </c>
-      <c r="T9" s="6">
+      <c r="T9" s="13">
         <v>30</v>
       </c>
-      <c r="U9" s="1">
+      <c r="U9" s="15">
         <v>103001</v>
       </c>
-      <c r="V9" s="1">
+      <c r="V9" s="15">
         <v>103002</v>
       </c>
-      <c r="W9" s="1">
+      <c r="W9" s="15">
         <v>103003</v>
       </c>
-      <c r="X9" s="1">
+      <c r="X9" s="15">
         <v>103004</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="14.1" customHeight="1">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="6">
+    <row r="10" spans="1:24" s="15" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="13">
         <v>4</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="E10" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="G10" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="I10" s="3">
-        <v>3</v>
-      </c>
-      <c r="J10" s="3">
+      <c r="H10" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="I10" s="12">
+        <v>3</v>
+      </c>
+      <c r="J10" s="12">
         <v>4</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="12">
         <v>2</v>
       </c>
-      <c r="L10" s="3">
+      <c r="L10" s="12">
         <v>5</v>
       </c>
-      <c r="M10" s="3">
-        <v>3</v>
-      </c>
-      <c r="N10" s="3">
-        <v>3</v>
-      </c>
-      <c r="O10" s="3">
-        <v>3</v>
-      </c>
-      <c r="P10" s="3">
-        <v>3</v>
-      </c>
-      <c r="Q10" s="6" t="str">
+      <c r="M10" s="12">
+        <v>3</v>
+      </c>
+      <c r="N10" s="12">
+        <v>3</v>
+      </c>
+      <c r="O10" s="12">
+        <v>3</v>
+      </c>
+      <c r="P10" s="12">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="13" t="str">
         <f t="shared" si="0"/>
         <v>3,3,3,3</v>
       </c>
-      <c r="R10" s="3">
+      <c r="R10" s="12">
         <v>4</v>
       </c>
-      <c r="S10" s="6">
+      <c r="S10" s="13">
         <v>80</v>
       </c>
-      <c r="T10" s="6">
+      <c r="T10" s="13">
         <v>50</v>
       </c>
-      <c r="U10" s="1">
+      <c r="U10" s="15">
         <v>104001</v>
       </c>
-      <c r="V10" s="1">
+      <c r="V10" s="15">
         <v>104002</v>
       </c>
-      <c r="W10" s="1">
+      <c r="W10" s="15">
         <v>104003</v>
       </c>
-      <c r="X10" s="1">
+      <c r="X10" s="15">
         <v>104004</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="24.95" customHeight="1">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="6">
+    <row r="11" spans="1:24" s="15" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="13">
         <v>5</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="E11" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="I11" s="6">
-        <v>3</v>
-      </c>
-      <c r="J11" s="6">
+      <c r="F11" s="14"/>
+      <c r="G11" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="I11" s="13">
+        <v>3</v>
+      </c>
+      <c r="J11" s="13">
         <v>0</v>
       </c>
-      <c r="K11" s="6">
+      <c r="K11" s="13">
         <v>1</v>
       </c>
-      <c r="L11" s="6">
+      <c r="L11" s="13">
         <v>-1</v>
       </c>
-      <c r="M11" s="6">
+      <c r="M11" s="13">
         <v>-1</v>
       </c>
-      <c r="N11" s="6">
+      <c r="N11" s="13">
         <v>-1</v>
       </c>
-      <c r="O11" s="6">
+      <c r="O11" s="13">
         <v>-1</v>
       </c>
-      <c r="P11" s="6">
+      <c r="P11" s="13">
         <v>-1</v>
       </c>
-      <c r="Q11" s="6" t="str">
+      <c r="Q11" s="13" t="str">
         <f t="shared" si="0"/>
         <v>-1,-1,-1,-1</v>
       </c>
-      <c r="R11" s="6">
+      <c r="R11" s="13">
         <v>5</v>
       </c>
-      <c r="S11" s="6">
+      <c r="S11" s="13">
         <v>-1</v>
       </c>
-      <c r="T11" s="6">
+      <c r="T11" s="13">
         <v>-1</v>
       </c>
-      <c r="U11" s="1">
+      <c r="U11" s="15">
         <v>105001</v>
       </c>
-      <c r="V11" s="1">
+      <c r="V11" s="15">
         <v>105002</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="16.149999999999999" customHeight="1">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="6">
+    <row r="12" spans="1:24" s="15" customFormat="1" ht="16.149999999999999" customHeight="1">
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="13">
         <v>6</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E12" s="2" t="s">
+      <c r="D12" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="I12" s="3">
+      <c r="E12" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="I12" s="12">
         <v>2</v>
       </c>
-      <c r="J12" s="3">
-        <v>3</v>
-      </c>
-      <c r="K12" s="3">
+      <c r="J12" s="12">
+        <v>3</v>
+      </c>
+      <c r="K12" s="12">
         <v>1</v>
       </c>
-      <c r="L12" s="6">
+      <c r="L12" s="13">
         <v>-1</v>
       </c>
-      <c r="M12" s="6">
+      <c r="M12" s="13">
         <v>-1</v>
       </c>
-      <c r="N12" s="6">
+      <c r="N12" s="13">
         <v>-1</v>
       </c>
-      <c r="O12" s="6">
+      <c r="O12" s="13">
         <v>-1</v>
       </c>
-      <c r="P12" s="6">
+      <c r="P12" s="13">
         <v>-1</v>
       </c>
-      <c r="Q12" s="6" t="str">
+      <c r="Q12" s="13" t="str">
         <f t="shared" si="0"/>
         <v>-1,-1,-1,-1</v>
       </c>
-      <c r="R12" s="3">
+      <c r="R12" s="12">
         <v>6</v>
       </c>
-      <c r="S12" s="6">
+      <c r="S12" s="13">
         <v>-1</v>
       </c>
-      <c r="T12" s="6">
+      <c r="T12" s="13">
         <v>-1</v>
       </c>
-      <c r="U12" s="1">
+      <c r="U12" s="15">
         <v>106001</v>
       </c>
-      <c r="V12" s="1">
+      <c r="V12" s="15">
         <v>106002</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="14.1" customHeight="1">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="6">
+    <row r="13" spans="1:24" s="15" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="13">
         <v>7</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="E13" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="F13" s="14"/>
+      <c r="G13" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="I13" s="3">
-        <v>3</v>
-      </c>
-      <c r="J13" s="3">
+      <c r="H13" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="I13" s="12">
+        <v>3</v>
+      </c>
+      <c r="J13" s="12">
         <v>4</v>
       </c>
-      <c r="K13" s="3">
-        <v>3</v>
-      </c>
-      <c r="L13" s="6">
+      <c r="K13" s="12">
+        <v>3</v>
+      </c>
+      <c r="L13" s="13">
         <v>-1</v>
       </c>
-      <c r="M13" s="6">
+      <c r="M13" s="13">
         <v>-1</v>
       </c>
-      <c r="N13" s="6">
+      <c r="N13" s="13">
         <v>-1</v>
       </c>
-      <c r="O13" s="6">
+      <c r="O13" s="13">
         <v>-1</v>
       </c>
-      <c r="P13" s="6">
+      <c r="P13" s="13">
         <v>-1</v>
       </c>
-      <c r="Q13" s="6" t="str">
+      <c r="Q13" s="13" t="str">
         <f t="shared" si="0"/>
         <v>-1,-1,-1,-1</v>
       </c>
-      <c r="R13" s="3">
+      <c r="R13" s="12">
         <v>7</v>
       </c>
-      <c r="S13" s="6">
+      <c r="S13" s="13">
         <v>-1</v>
       </c>
-      <c r="T13" s="6">
+      <c r="T13" s="13">
         <v>-1</v>
       </c>
-      <c r="U13" s="1">
+      <c r="U13" s="15">
         <v>107001</v>
       </c>
-      <c r="V13" s="1">
+      <c r="V13" s="15">
         <v>107002</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="13.35" customHeight="1">
-      <c r="C14" s="1">
+    <row r="14" spans="1:24" s="15" customFormat="1" ht="13.35" customHeight="1">
+      <c r="C14" s="15">
         <v>8</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="E14" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="F14" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="H14" s="1">
+      <c r="G14" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="H14" s="11">
         <v>0.5</v>
       </c>
-      <c r="I14" s="1">
-        <v>3</v>
-      </c>
-      <c r="J14" s="1">
+      <c r="I14" s="15">
+        <v>3</v>
+      </c>
+      <c r="J14" s="15">
         <v>4</v>
       </c>
-      <c r="K14" s="1">
+      <c r="K14" s="15">
         <v>2</v>
       </c>
-      <c r="L14" s="1">
+      <c r="L14" s="15">
         <v>5</v>
       </c>
-      <c r="M14" s="1">
-        <v>3</v>
-      </c>
-      <c r="N14" s="1">
-        <v>3</v>
-      </c>
-      <c r="O14" s="1">
-        <v>3</v>
-      </c>
-      <c r="P14" s="1">
-        <v>3</v>
-      </c>
-      <c r="Q14" s="6" t="str">
+      <c r="M14" s="15">
+        <v>3</v>
+      </c>
+      <c r="N14" s="15">
+        <v>3</v>
+      </c>
+      <c r="O14" s="15">
+        <v>3</v>
+      </c>
+      <c r="P14" s="15">
+        <v>3</v>
+      </c>
+      <c r="Q14" s="13" t="str">
         <f t="shared" ref="Q14" si="1">M14&amp;","&amp;N14&amp;","&amp;O14&amp;","&amp;P14</f>
         <v>3,3,3,3</v>
       </c>
-      <c r="R14" s="3">
+      <c r="R14" s="12">
         <v>4</v>
       </c>
-      <c r="S14" s="6">
+      <c r="S14" s="13">
         <v>80</v>
       </c>
-      <c r="T14" s="6">
+      <c r="T14" s="13">
         <v>50</v>
       </c>
-      <c r="U14" s="1">
+      <c r="U14" s="15">
         <v>108001</v>
       </c>
-      <c r="V14" s="1">
+      <c r="V14" s="15">
         <v>108002</v>
       </c>
-      <c r="W14" s="1">
+      <c r="W14" s="15">
         <v>108003</v>
       </c>
-      <c r="X14" s="1">
+      <c r="X14" s="15">
         <v>108004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" s="15" customFormat="1" ht="13.35" customHeight="1">
+      <c r="C15" s="15">
+        <v>9</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="H15" s="11">
+        <v>1</v>
+      </c>
+      <c r="I15" s="15">
+        <v>3</v>
+      </c>
+      <c r="J15" s="15">
+        <v>8</v>
+      </c>
+      <c r="K15" s="15">
+        <v>1</v>
+      </c>
+      <c r="L15" s="15">
+        <v>4</v>
+      </c>
+      <c r="M15" s="15">
+        <v>3</v>
+      </c>
+      <c r="N15" s="15">
+        <v>3</v>
+      </c>
+      <c r="O15" s="15">
+        <v>3</v>
+      </c>
+      <c r="P15" s="15">
+        <v>3</v>
+      </c>
+      <c r="Q15" s="13" t="str">
+        <f t="shared" ref="Q15:Q16" si="2">M15&amp;","&amp;N15&amp;","&amp;O15&amp;","&amp;P15</f>
+        <v>3,3,3,3</v>
+      </c>
+      <c r="R15" s="12">
+        <v>4</v>
+      </c>
+      <c r="S15" s="13">
+        <v>80</v>
+      </c>
+      <c r="T15" s="13">
+        <v>50</v>
+      </c>
+      <c r="U15" s="15">
+        <v>109001</v>
+      </c>
+      <c r="V15" s="15">
+        <v>109002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" s="15" customFormat="1" ht="13.35" customHeight="1">
+      <c r="C16" s="15">
+        <v>10</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="H16" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="I16" s="15">
+        <v>3</v>
+      </c>
+      <c r="J16" s="15">
+        <v>8</v>
+      </c>
+      <c r="K16" s="15">
+        <v>1</v>
+      </c>
+      <c r="L16" s="15">
+        <v>4</v>
+      </c>
+      <c r="M16" s="15">
+        <v>3</v>
+      </c>
+      <c r="N16" s="15">
+        <v>3</v>
+      </c>
+      <c r="O16" s="15">
+        <v>3</v>
+      </c>
+      <c r="P16" s="15">
+        <v>3</v>
+      </c>
+      <c r="Q16" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>3,3,3,3</v>
+      </c>
+      <c r="R16" s="12">
+        <v>4</v>
+      </c>
+      <c r="S16" s="13">
+        <v>80</v>
+      </c>
+      <c r="T16" s="13">
+        <v>50</v>
+      </c>
+      <c r="U16" s="15">
+        <v>109001</v>
+      </c>
+      <c r="V16" s="15">
+        <v>109002</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>

--- a/config/excel/Hero.xlsx
+++ b/config/excel/Hero.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\trunk\global\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A61D544-8C92-4235-A145-012F02931352}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59117DAA-30FE-41CA-89A6-B7AE2000ACB9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -307,35 +307,36 @@
     <t>luoji_01</t>
   </si>
   <si>
-    <t>0:韵律
+    <t>史莱姆国王</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>小史莱姆</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss02_b</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss02_s</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>shilaimuguowang</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2:SR
+3:SSR</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:无种族
 1:自然
 2:文明
-3:破灭</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>史莱姆国王</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>小史莱姆</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>boss02_b</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>boss02_s</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>shilaimuguowang</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2:SR
-3:SSR</t>
+3:破灭
+4:韵律</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1636,8 +1637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1"/>
@@ -1656,8 +1657,8 @@
     <col min="13" max="16" width="9.375" style="1" customWidth="1"/>
     <col min="17" max="17" width="16.125" style="1" customWidth="1"/>
     <col min="18" max="18" width="16.75" style="1" customWidth="1"/>
-    <col min="19" max="19" width="18.5" style="1" customWidth="1"/>
-    <col min="20" max="20" width="20.125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="16.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.875" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="24" width="9.25" style="1" customWidth="1"/>
     <col min="25" max="16384" width="6" style="1"/>
   </cols>
@@ -1702,13 +1703,13 @@
         <v>3</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>4</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>5</v>
@@ -2079,7 +2080,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L8" s="13">
         <v>0</v>
@@ -2221,7 +2222,7 @@
         <v>4</v>
       </c>
       <c r="K10" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10" s="12">
         <v>5</v>
@@ -2527,16 +2528,16 @@
         <v>9</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H15" s="11">
         <v>1</v>
@@ -2548,7 +2549,7 @@
         <v>8</v>
       </c>
       <c r="K15" s="15">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L15" s="15">
         <v>4</v>
@@ -2590,16 +2591,16 @@
         <v>10</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E16" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="F16" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="F16" s="15" t="s">
-        <v>92</v>
-      </c>
       <c r="G16" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H16" s="11">
         <v>0.5</v>
@@ -2611,7 +2612,7 @@
         <v>8</v>
       </c>
       <c r="K16" s="15">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L16" s="15">
         <v>4</v>
@@ -2651,7 +2652,7 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/config/excel/Hero.xlsx
+++ b/config/excel/Hero.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\trunk\global\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\excel\trunk\global\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59117DAA-30FE-41CA-89A6-B7AE2000ACB9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56FF51E1-CFEE-4786-85E3-168178B0052B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hero" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="98">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -333,10 +333,26 @@
   </si>
   <si>
     <t>0:无种族
-1:自然
-2:文明
-3:破灭
-4:韵律</t>
+1:自然（绿）
+2:文明（蓝）
+3:破灭（红）
+4:韵律（黄）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-2（红狼）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-1（红狼）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-1（蓝狼）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-2（红扫把）</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1635,16 +1651,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X16"/>
+  <dimension ref="A1:X21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="14.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.25" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="13.375" style="1" customWidth="1"/>
     <col min="5" max="5" width="13.875" style="1" customWidth="1"/>
     <col min="6" max="6" width="17" style="1" customWidth="1"/>
@@ -1652,7 +1668,7 @@
     <col min="8" max="8" width="10.875" style="1" customWidth="1"/>
     <col min="9" max="9" width="11.625" style="1" customWidth="1"/>
     <col min="10" max="10" width="9.625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="8.25" style="1" customWidth="1"/>
+    <col min="11" max="11" width="14.125" style="1" customWidth="1"/>
     <col min="12" max="12" width="11.375" style="1" customWidth="1"/>
     <col min="13" max="16" width="9.375" style="1" customWidth="1"/>
     <col min="17" max="17" width="16.125" style="1" customWidth="1"/>
@@ -2291,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="K11" s="13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11" s="13">
         <v>-1</v>
@@ -2567,7 +2583,7 @@
         <v>3</v>
       </c>
       <c r="Q15" s="13" t="str">
-        <f t="shared" ref="Q15:Q16" si="2">M15&amp;","&amp;N15&amp;","&amp;O15&amp;","&amp;P15</f>
+        <f t="shared" ref="Q15:Q21" si="2">M15&amp;","&amp;N15&amp;","&amp;O15&amp;","&amp;P15</f>
         <v>3,3,3,3</v>
       </c>
       <c r="R15" s="12">
@@ -2647,6 +2663,342 @@
       </c>
       <c r="V16" s="15">
         <v>109002</v>
+      </c>
+    </row>
+    <row r="17" spans="2:24" ht="13.35" customHeight="1">
+      <c r="B17" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1010101</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="I17" s="13">
+        <v>3</v>
+      </c>
+      <c r="J17" s="13">
+        <v>0</v>
+      </c>
+      <c r="K17" s="13">
+        <v>3</v>
+      </c>
+      <c r="L17" s="13">
+        <v>-1</v>
+      </c>
+      <c r="M17" s="13">
+        <v>-1</v>
+      </c>
+      <c r="N17" s="13">
+        <v>-1</v>
+      </c>
+      <c r="O17" s="13">
+        <v>-1</v>
+      </c>
+      <c r="P17" s="13">
+        <v>-1</v>
+      </c>
+      <c r="Q17" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>-1,-1,-1,-1</v>
+      </c>
+      <c r="R17" s="1">
+        <v>1010101</v>
+      </c>
+      <c r="S17" s="13">
+        <v>-1</v>
+      </c>
+      <c r="T17" s="13">
+        <v>-1</v>
+      </c>
+      <c r="U17" s="15">
+        <v>105001</v>
+      </c>
+      <c r="V17" s="15">
+        <v>105002</v>
+      </c>
+      <c r="W17" s="15"/>
+      <c r="X17" s="15"/>
+    </row>
+    <row r="18" spans="2:24" ht="13.35" customHeight="1">
+      <c r="B18" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1010102</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="I18" s="12">
+        <v>2</v>
+      </c>
+      <c r="J18" s="12">
+        <v>3</v>
+      </c>
+      <c r="K18" s="12">
+        <v>2</v>
+      </c>
+      <c r="L18" s="13">
+        <v>-1</v>
+      </c>
+      <c r="M18" s="13">
+        <v>-1</v>
+      </c>
+      <c r="N18" s="13">
+        <v>-1</v>
+      </c>
+      <c r="O18" s="13">
+        <v>-1</v>
+      </c>
+      <c r="P18" s="13">
+        <v>-1</v>
+      </c>
+      <c r="Q18" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>-1,-1,-1,-1</v>
+      </c>
+      <c r="R18" s="1">
+        <v>1010102</v>
+      </c>
+      <c r="S18" s="13">
+        <v>-1</v>
+      </c>
+      <c r="T18" s="13">
+        <v>-1</v>
+      </c>
+      <c r="U18" s="15">
+        <v>106001</v>
+      </c>
+      <c r="V18" s="15">
+        <v>106002</v>
+      </c>
+      <c r="W18" s="15"/>
+      <c r="X18" s="15"/>
+    </row>
+    <row r="19" spans="2:24" ht="13.35" customHeight="1">
+      <c r="B19" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C19" s="13">
+        <v>1010201</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="I19" s="13">
+        <v>3</v>
+      </c>
+      <c r="J19" s="13">
+        <v>0</v>
+      </c>
+      <c r="K19" s="13">
+        <v>3</v>
+      </c>
+      <c r="L19" s="13">
+        <v>-1</v>
+      </c>
+      <c r="M19" s="13">
+        <v>-1</v>
+      </c>
+      <c r="N19" s="13">
+        <v>-1</v>
+      </c>
+      <c r="O19" s="13">
+        <v>-1</v>
+      </c>
+      <c r="P19" s="13">
+        <v>-1</v>
+      </c>
+      <c r="Q19" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>-1,-1,-1,-1</v>
+      </c>
+      <c r="R19" s="13">
+        <v>1010201</v>
+      </c>
+      <c r="S19" s="13">
+        <v>-1</v>
+      </c>
+      <c r="T19" s="13">
+        <v>-1</v>
+      </c>
+      <c r="U19" s="15">
+        <v>105001</v>
+      </c>
+      <c r="V19" s="15">
+        <v>105002</v>
+      </c>
+      <c r="W19" s="15"/>
+      <c r="X19" s="15"/>
+    </row>
+    <row r="20" spans="2:24" ht="13.35" customHeight="1">
+      <c r="B20" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" s="13">
+        <v>1010202</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="I20" s="13">
+        <v>3</v>
+      </c>
+      <c r="J20" s="13">
+        <v>0</v>
+      </c>
+      <c r="K20" s="13">
+        <v>3</v>
+      </c>
+      <c r="L20" s="13">
+        <v>-1</v>
+      </c>
+      <c r="M20" s="13">
+        <v>-1</v>
+      </c>
+      <c r="N20" s="13">
+        <v>-1</v>
+      </c>
+      <c r="O20" s="13">
+        <v>-1</v>
+      </c>
+      <c r="P20" s="13">
+        <v>-1</v>
+      </c>
+      <c r="Q20" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>-1,-1,-1,-1</v>
+      </c>
+      <c r="R20" s="13">
+        <v>1010202</v>
+      </c>
+      <c r="S20" s="13">
+        <v>-1</v>
+      </c>
+      <c r="T20" s="13">
+        <v>-1</v>
+      </c>
+      <c r="U20" s="15">
+        <v>105001</v>
+      </c>
+      <c r="V20" s="15">
+        <v>105002</v>
+      </c>
+      <c r="W20" s="15"/>
+      <c r="X20" s="15"/>
+    </row>
+    <row r="21" spans="2:24" ht="13.35" customHeight="1">
+      <c r="B21" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C21" s="13">
+        <v>1010203</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="I21" s="12">
+        <v>2</v>
+      </c>
+      <c r="J21" s="12">
+        <v>4</v>
+      </c>
+      <c r="K21" s="12">
+        <v>3</v>
+      </c>
+      <c r="L21" s="13">
+        <v>-1</v>
+      </c>
+      <c r="M21" s="13">
+        <v>-1</v>
+      </c>
+      <c r="N21" s="13">
+        <v>-1</v>
+      </c>
+      <c r="O21" s="13">
+        <v>-1</v>
+      </c>
+      <c r="P21" s="13">
+        <v>-1</v>
+      </c>
+      <c r="Q21" s="13" t="str">
+        <f t="shared" ref="Q21" si="3">M21&amp;","&amp;N21&amp;","&amp;O21&amp;","&amp;P21</f>
+        <v>-1,-1,-1,-1</v>
+      </c>
+      <c r="R21" s="12">
+        <v>1010203</v>
+      </c>
+      <c r="S21" s="13">
+        <v>-1</v>
+      </c>
+      <c r="T21" s="13">
+        <v>-1</v>
+      </c>
+      <c r="U21" s="15">
+        <v>104001</v>
+      </c>
+      <c r="V21" s="15">
+        <v>104002</v>
+      </c>
+      <c r="W21" s="15">
+        <v>104003</v>
+      </c>
+      <c r="X21" s="15">
+        <v>104004</v>
       </c>
     </row>
   </sheetData>

--- a/config/excel/Hero.xlsx
+++ b/config/excel/Hero.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\excel\trunk\global\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56FF51E1-CFEE-4786-85E3-168178B0052B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C90CFEE-3E2C-460F-84DF-4EE1F5CDFA1F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="99">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -353,6 +353,10 @@
   </si>
   <si>
     <t>1-2（红扫把）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-1高速度男主</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1651,10 +1655,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X21"/>
+  <dimension ref="A1:X22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1"/>
@@ -2665,22 +2669,24 @@
         <v>109002</v>
       </c>
     </row>
-    <row r="17" spans="2:24" ht="13.35" customHeight="1">
-      <c r="B17" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C17" s="1">
-        <v>1010101</v>
+    <row r="17" spans="2:24" s="15" customFormat="1" ht="13.35" customHeight="1">
+      <c r="B17" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17" s="13">
+        <v>100</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="F17" s="14"/>
+        <v>69</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>70</v>
+      </c>
       <c r="G17" s="14" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="H17" s="10" t="s">
         <v>67</v>
@@ -2692,54 +2698,58 @@
         <v>0</v>
       </c>
       <c r="K17" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L17" s="13">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M17" s="13">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N17" s="13">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O17" s="13">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="P17" s="13">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q17" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>-1,-1,-1,-1</v>
-      </c>
-      <c r="R17" s="1">
-        <v>1010101</v>
+        <v>1,1,1,1</v>
+      </c>
+      <c r="R17" s="13">
+        <v>100</v>
       </c>
       <c r="S17" s="13">
-        <v>-1</v>
+        <v>80</v>
       </c>
       <c r="T17" s="13">
-        <v>-1</v>
+        <v>50</v>
       </c>
       <c r="U17" s="15">
-        <v>105001</v>
+        <v>102001</v>
       </c>
       <c r="V17" s="15">
-        <v>105002</v>
-      </c>
-      <c r="W17" s="15"/>
-      <c r="X17" s="15"/>
+        <v>102002</v>
+      </c>
+      <c r="W17" s="15">
+        <v>102003</v>
+      </c>
+      <c r="X17" s="15">
+        <v>102004</v>
+      </c>
     </row>
     <row r="18" spans="2:24" ht="13.35" customHeight="1">
       <c r="B18" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C18" s="1">
-        <v>1010102</v>
+        <v>1010101</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E18" s="14" t="s">
         <v>79</v>
@@ -2751,14 +2761,14 @@
       <c r="H18" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="I18" s="12">
-        <v>2</v>
-      </c>
-      <c r="J18" s="12">
-        <v>3</v>
-      </c>
-      <c r="K18" s="12">
-        <v>2</v>
+      <c r="I18" s="13">
+        <v>3</v>
+      </c>
+      <c r="J18" s="13">
+        <v>0</v>
+      </c>
+      <c r="K18" s="13">
+        <v>3</v>
       </c>
       <c r="L18" s="13">
         <v>-1</v>
@@ -2780,7 +2790,7 @@
         <v>-1,-1,-1,-1</v>
       </c>
       <c r="R18" s="1">
-        <v>1010102</v>
+        <v>1010101</v>
       </c>
       <c r="S18" s="13">
         <v>-1</v>
@@ -2789,23 +2799,23 @@
         <v>-1</v>
       </c>
       <c r="U18" s="15">
-        <v>106001</v>
+        <v>105001</v>
       </c>
       <c r="V18" s="15">
-        <v>106002</v>
+        <v>105002</v>
       </c>
       <c r="W18" s="15"/>
       <c r="X18" s="15"/>
     </row>
     <row r="19" spans="2:24" ht="13.35" customHeight="1">
       <c r="B19" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C19" s="13">
-        <v>1010201</v>
+        <v>96</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1010102</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E19" s="14" t="s">
         <v>79</v>
@@ -2817,14 +2827,14 @@
       <c r="H19" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="I19" s="13">
-        <v>3</v>
-      </c>
-      <c r="J19" s="13">
-        <v>0</v>
-      </c>
-      <c r="K19" s="13">
-        <v>3</v>
+      <c r="I19" s="12">
+        <v>2</v>
+      </c>
+      <c r="J19" s="12">
+        <v>3</v>
+      </c>
+      <c r="K19" s="12">
+        <v>2</v>
       </c>
       <c r="L19" s="13">
         <v>-1</v>
@@ -2845,8 +2855,8 @@
         <f t="shared" si="2"/>
         <v>-1,-1,-1,-1</v>
       </c>
-      <c r="R19" s="13">
-        <v>1010201</v>
+      <c r="R19" s="1">
+        <v>1010102</v>
       </c>
       <c r="S19" s="13">
         <v>-1</v>
@@ -2855,10 +2865,10 @@
         <v>-1</v>
       </c>
       <c r="U19" s="15">
-        <v>105001</v>
+        <v>106001</v>
       </c>
       <c r="V19" s="15">
-        <v>105002</v>
+        <v>106002</v>
       </c>
       <c r="W19" s="15"/>
       <c r="X19" s="15"/>
@@ -2868,7 +2878,7 @@
         <v>94</v>
       </c>
       <c r="C20" s="13">
-        <v>1010202</v>
+        <v>1010201</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>78</v>
@@ -2912,7 +2922,7 @@
         <v>-1,-1,-1,-1</v>
       </c>
       <c r="R20" s="13">
-        <v>1010202</v>
+        <v>1010201</v>
       </c>
       <c r="S20" s="13">
         <v>-1</v>
@@ -2931,73 +2941,139 @@
     </row>
     <row r="21" spans="2:24" ht="13.35" customHeight="1">
       <c r="B21" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C21" s="13">
-        <v>1010203</v>
+        <v>1010202</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="F21" s="14" t="s">
-        <v>76</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="F21" s="14"/>
       <c r="G21" s="14" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H21" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="I21" s="12">
+      <c r="I21" s="13">
+        <v>3</v>
+      </c>
+      <c r="J21" s="13">
+        <v>0</v>
+      </c>
+      <c r="K21" s="13">
+        <v>3</v>
+      </c>
+      <c r="L21" s="13">
+        <v>-1</v>
+      </c>
+      <c r="M21" s="13">
+        <v>-1</v>
+      </c>
+      <c r="N21" s="13">
+        <v>-1</v>
+      </c>
+      <c r="O21" s="13">
+        <v>-1</v>
+      </c>
+      <c r="P21" s="13">
+        <v>-1</v>
+      </c>
+      <c r="Q21" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>-1,-1,-1,-1</v>
+      </c>
+      <c r="R21" s="13">
+        <v>1010202</v>
+      </c>
+      <c r="S21" s="13">
+        <v>-1</v>
+      </c>
+      <c r="T21" s="13">
+        <v>-1</v>
+      </c>
+      <c r="U21" s="15">
+        <v>105001</v>
+      </c>
+      <c r="V21" s="15">
+        <v>105002</v>
+      </c>
+      <c r="W21" s="15"/>
+      <c r="X21" s="15"/>
+    </row>
+    <row r="22" spans="2:24" ht="13.35" customHeight="1">
+      <c r="B22" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C22" s="13">
+        <v>1010203</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="I22" s="12">
         <v>2</v>
       </c>
-      <c r="J21" s="12">
+      <c r="J22" s="12">
         <v>4</v>
       </c>
-      <c r="K21" s="12">
-        <v>3</v>
-      </c>
-      <c r="L21" s="13">
-        <v>-1</v>
-      </c>
-      <c r="M21" s="13">
-        <v>-1</v>
-      </c>
-      <c r="N21" s="13">
-        <v>-1</v>
-      </c>
-      <c r="O21" s="13">
-        <v>-1</v>
-      </c>
-      <c r="P21" s="13">
-        <v>-1</v>
-      </c>
-      <c r="Q21" s="13" t="str">
-        <f t="shared" ref="Q21" si="3">M21&amp;","&amp;N21&amp;","&amp;O21&amp;","&amp;P21</f>
+      <c r="K22" s="12">
+        <v>3</v>
+      </c>
+      <c r="L22" s="13">
+        <v>-1</v>
+      </c>
+      <c r="M22" s="13">
+        <v>-1</v>
+      </c>
+      <c r="N22" s="13">
+        <v>-1</v>
+      </c>
+      <c r="O22" s="13">
+        <v>-1</v>
+      </c>
+      <c r="P22" s="13">
+        <v>-1</v>
+      </c>
+      <c r="Q22" s="13" t="str">
+        <f t="shared" ref="Q22" si="3">M22&amp;","&amp;N22&amp;","&amp;O22&amp;","&amp;P22</f>
         <v>-1,-1,-1,-1</v>
       </c>
-      <c r="R21" s="12">
+      <c r="R22" s="12">
         <v>1010203</v>
       </c>
-      <c r="S21" s="13">
-        <v>-1</v>
-      </c>
-      <c r="T21" s="13">
-        <v>-1</v>
-      </c>
-      <c r="U21" s="15">
+      <c r="S22" s="13">
+        <v>-1</v>
+      </c>
+      <c r="T22" s="13">
+        <v>-1</v>
+      </c>
+      <c r="U22" s="15">
         <v>104001</v>
       </c>
-      <c r="V21" s="15">
+      <c r="V22" s="15">
         <v>104002</v>
       </c>
-      <c r="W21" s="15">
+      <c r="W22" s="15">
         <v>104003</v>
       </c>
-      <c r="X21" s="15">
+      <c r="X22" s="15">
         <v>104004</v>
       </c>
     </row>

--- a/config/excel/Hero.xlsx
+++ b/config/excel/Hero.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\excel\trunk\global\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\trunk\global\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C90CFEE-3E2C-460F-84DF-4EE1F5CDFA1F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10F4376E-6D2C-4C01-9ECD-E2019FA82F19}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hero" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="126">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -79,21 +79,6 @@
 普攻攻击</t>
   </si>
   <si>
-    <t>Demo版本
-技能2
-战技技能</t>
-  </si>
-  <si>
-    <t>Demo版本
-技能3
-奥义技能</t>
-  </si>
-  <si>
-    <t>Demo版本
-技能4
-残响技能</t>
-  </si>
-  <si>
     <t>导出字段名</t>
   </si>
   <si>
@@ -103,9 +88,6 @@
     <t>name</t>
   </si>
   <si>
-    <t>modelResource</t>
-  </si>
-  <si>
     <t>big_icon</t>
   </si>
   <si>
@@ -145,12 +127,6 @@
     <t>skill2</t>
   </si>
   <si>
-    <t>skill3</t>
-  </si>
-  <si>
-    <t>skill4</t>
-  </si>
-  <si>
     <t>导出字段描述</t>
   </si>
   <si>
@@ -208,9 +184,6 @@
     <t>技能2</t>
   </si>
   <si>
-    <t>技能3</t>
-  </si>
-  <si>
     <t>技能4</t>
   </si>
   <si>
@@ -235,9 +208,6 @@
     <t>[]int32</t>
   </si>
   <si>
-    <t>demo版本防战</t>
-  </si>
-  <si>
     <t>waerjili</t>
   </si>
   <si>
@@ -247,9 +217,6 @@
     <t>yase</t>
   </si>
   <si>
-    <t>0.5</t>
-  </si>
-  <si>
     <t>demo版本战士</t>
   </si>
   <si>
@@ -259,9 +226,6 @@
     <t>puluomixiusi_01</t>
   </si>
   <si>
-    <t>demo版本法师</t>
-  </si>
-  <si>
     <t>meilin</t>
   </si>
   <si>
@@ -280,25 +244,13 @@
     <t>dafuni</t>
   </si>
   <si>
-    <t>怪物1</t>
-  </si>
-  <si>
     <t>monster12b</t>
   </si>
   <si>
-    <t>怪物2</t>
-  </si>
-  <si>
-    <t>怪物3</t>
-  </si>
-  <si>
     <t>monster08b</t>
   </si>
   <si>
     <t>monster08a</t>
-  </si>
-  <si>
-    <t>demo版本洛基</t>
   </si>
   <si>
     <t>luoji</t>
@@ -357,6 +309,179 @@
   </si>
   <si>
     <t>1-1高速度男主</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓦尔基里</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>普罗米修斯</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅林</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>洛基</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>狼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>蝙蝠</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-3（红狼）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-2（红蝙蝠）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>达芙妮</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Demo版本
+技能4
+奥义技能</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动技能</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]int32</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill4</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.8</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill6</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>主动技能</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Demo版本
+技能2
+战技1技能</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Demo版本
+技能3
+战技2技能</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>101002</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>仅Demo
+怪物
+主动技能</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>仅Demo
+怪物
+被动技能</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>shilaimuguowang</t>
+  </si>
+  <si>
+    <t>立绘</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI_Cha_Ban01</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI_Cha_Ban02</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI_Cha_Ban04</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI_Cha_Ban03</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>modelResource</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>portraitResource</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>109002,109003</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-5(红狼)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-5(蓝扫把)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-5(红蝙蝠)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-5(绿狼)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>狼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>蝙蝠</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>达芙妮</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -435,7 +560,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -458,11 +583,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -477,10 +615,6 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -498,6 +632,23 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1655,10 +1806,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X22"/>
+  <dimension ref="A1:AA33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <pane xSplit="5" ySplit="6" topLeftCell="F7" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1"/>
@@ -1666,24 +1820,27 @@
     <col min="1" max="1" width="14.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="17.25" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="13.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="14.125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="11.375" style="1" customWidth="1"/>
-    <col min="13" max="16" width="9.375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="16.125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="16.75" style="1" customWidth="1"/>
-    <col min="19" max="19" width="16.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="24" width="9.25" style="1" customWidth="1"/>
-    <col min="25" max="16384" width="6" style="1"/>
+    <col min="5" max="6" width="13.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9.625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="11.375" style="1" customWidth="1"/>
+    <col min="14" max="17" width="9.375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="16.125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="16.75" style="1" customWidth="1"/>
+    <col min="20" max="20" width="16.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.25" style="1" customWidth="1"/>
+    <col min="23" max="24" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="9.25" style="1" customWidth="1"/>
+    <col min="27" max="27" width="9.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="6" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="14.1" customHeight="1">
+    <row r="1" spans="1:27" ht="14.1" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1706,8 +1863,9 @@
       <c r="R1" s="3"/>
       <c r="S1" s="3"/>
       <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
     </row>
-    <row r="2" spans="1:24" ht="120.95" customHeight="1">
+    <row r="2" spans="1:27" ht="120.95" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="2" t="s">
@@ -1719,207 +1877,234 @@
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
-      <c r="H2" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="H2" s="2"/>
       <c r="I2" s="4" t="s">
-        <v>92</v>
+        <v>3</v>
       </c>
       <c r="J2" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="4" t="s">
-        <v>93</v>
-      </c>
       <c r="L2" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="O2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="P2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="Q2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="R2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="7" t="s">
+      <c r="S2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="2"/>
       <c r="T2" s="2"/>
-      <c r="U2" s="8" t="s">
+      <c r="U2" s="2"/>
+      <c r="V2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="V2" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="W2" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="X2" s="8" t="s">
-        <v>15</v>
+      <c r="W2" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="X2" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y2" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z2" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA2" s="18" t="s">
+        <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="16.149999999999999" customHeight="1">
+    <row r="3" spans="1:27" ht="16.149999999999999" customHeight="1">
       <c r="A3" s="3"/>
       <c r="B3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="I3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="J3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="K3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="L3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="M3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="M3" s="5"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
-      <c r="Q3" s="5" t="s">
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="T3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="U3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="V3" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="R3" s="5" t="s">
+      <c r="W3" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="S3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="T3" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="U3" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="V3" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="W3" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="X3" s="9" t="s">
-        <v>34</v>
+      <c r="X3" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y3" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z3" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA3" s="19" t="s">
+        <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="16.149999999999999" customHeight="1">
+    <row r="4" spans="1:27" ht="16.149999999999999" customHeight="1">
       <c r="A4" s="3"/>
       <c r="B4" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>2</v>
       </c>
       <c r="F4" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="M4" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="N4" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="O4" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="P4" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="Q4" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="R4" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="S4" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="M4" s="5" t="s">
+      <c r="T4" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="N4" s="5" t="s">
+      <c r="U4" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="O4" s="5" t="s">
+      <c r="V4" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="P4" s="5" t="s">
+      <c r="W4" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="Q4" s="5" t="s">
+      <c r="X4" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y4" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="R4" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="S4" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="T4" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="U4" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="V4" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="W4" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="X4" s="9" t="s">
-        <v>55</v>
+      <c r="Z4" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA4" s="19" t="s">
+        <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="16.149999999999999" customHeight="1">
+    <row r="5" spans="1:27" ht="16.149999999999999" customHeight="1">
       <c r="A5" s="3"/>
       <c r="B5" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="H5" s="5"/>
+        <v>50</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>50</v>
+      </c>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
@@ -1932,1150 +2117,1911 @@
       <c r="R5" s="5"/>
       <c r="S5" s="5"/>
       <c r="T5" s="5"/>
-      <c r="U5" s="9"/>
-      <c r="V5" s="9"/>
-      <c r="W5" s="9"/>
-      <c r="X5" s="9"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="19"/>
+      <c r="W5" s="19"/>
+      <c r="X5" s="19"/>
+      <c r="Y5" s="19"/>
+      <c r="Z5" s="19"/>
+      <c r="AA5" s="19"/>
     </row>
-    <row r="6" spans="1:24" ht="16.149999999999999" customHeight="1">
+    <row r="6" spans="1:27" ht="16.149999999999999" customHeight="1">
       <c r="A6" s="3"/>
       <c r="B6" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="M6" s="5"/>
+        <v>52</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>52</v>
+      </c>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
-      <c r="Q6" s="5" t="s">
-        <v>62</v>
-      </c>
+      <c r="Q6" s="5"/>
       <c r="R6" s="5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="S6" s="5" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="T6" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="U6" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="V6" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="W6" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="X6" s="9" t="s">
-        <v>59</v>
+        <v>52</v>
+      </c>
+      <c r="U6" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="V6" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="W6" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="X6" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y6" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z6" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA6" s="19" t="s">
+        <v>97</v>
       </c>
     </row>
-    <row r="7" spans="1:24" s="15" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="13">
+    <row r="7" spans="1:27" s="13" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="11">
         <v>1</v>
       </c>
-      <c r="D7" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="I7" s="13">
+      <c r="D7" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="J7" s="11">
         <v>2</v>
       </c>
-      <c r="J7" s="13">
+      <c r="K7" s="11">
         <v>1</v>
       </c>
-      <c r="K7" s="13">
-        <v>3</v>
-      </c>
-      <c r="L7" s="13">
+      <c r="L7" s="11">
+        <v>3</v>
+      </c>
+      <c r="M7" s="11">
         <v>1</v>
       </c>
-      <c r="M7" s="13">
+      <c r="N7" s="11">
         <v>0</v>
       </c>
-      <c r="N7" s="13">
+      <c r="O7" s="11">
         <v>0</v>
       </c>
-      <c r="O7" s="13">
+      <c r="P7" s="11">
         <v>0</v>
       </c>
-      <c r="P7" s="13">
+      <c r="Q7" s="11">
         <v>0</v>
       </c>
-      <c r="Q7" s="13" t="str">
-        <f t="shared" ref="Q7:Q13" si="0">M7&amp;","&amp;N7&amp;","&amp;O7&amp;","&amp;P7</f>
+      <c r="R7" s="11" t="str">
+        <f t="shared" ref="R7:R13" si="0">N7&amp;","&amp;O7&amp;","&amp;P7&amp;","&amp;Q7</f>
         <v>0,0,0,0</v>
       </c>
-      <c r="R7" s="13">
+      <c r="S7" s="11">
         <v>1</v>
       </c>
-      <c r="S7" s="13">
+      <c r="T7" s="11">
         <v>50</v>
       </c>
-      <c r="T7" s="13">
+      <c r="U7" s="11">
         <v>30</v>
       </c>
-      <c r="U7" s="15">
+      <c r="V7" s="9">
         <v>101001</v>
       </c>
-      <c r="V7" s="15">
-        <v>101002</v>
-      </c>
-      <c r="W7" s="15">
+      <c r="W7" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="X7" s="17">
         <v>101003</v>
       </c>
-      <c r="X7" s="15">
+      <c r="Y7" s="9">
         <v>101004</v>
       </c>
+      <c r="Z7" s="9"/>
+      <c r="AA7" s="9"/>
     </row>
-    <row r="8" spans="1:24" s="15" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="13">
+    <row r="8" spans="1:27" s="13" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="11">
         <v>2</v>
       </c>
-      <c r="D8" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="I8" s="13">
-        <v>3</v>
-      </c>
-      <c r="J8" s="13">
+      <c r="D8" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="J8" s="11">
+        <v>3</v>
+      </c>
+      <c r="K8" s="11">
         <v>0</v>
       </c>
-      <c r="K8" s="13">
+      <c r="L8" s="11">
         <v>2</v>
       </c>
-      <c r="L8" s="13">
+      <c r="M8" s="11">
         <v>0</v>
       </c>
-      <c r="M8" s="13">
+      <c r="N8" s="11">
         <v>1</v>
       </c>
-      <c r="N8" s="13">
+      <c r="O8" s="11">
         <v>1</v>
       </c>
-      <c r="O8" s="13">
+      <c r="P8" s="11">
         <v>1</v>
       </c>
-      <c r="P8" s="13">
+      <c r="Q8" s="11">
         <v>1</v>
       </c>
-      <c r="Q8" s="13" t="str">
+      <c r="R8" s="11" t="str">
         <f t="shared" si="0"/>
         <v>1,1,1,1</v>
       </c>
-      <c r="R8" s="13">
+      <c r="S8" s="11">
         <v>2</v>
       </c>
-      <c r="S8" s="13">
+      <c r="T8" s="11">
         <v>80</v>
       </c>
-      <c r="T8" s="13">
+      <c r="U8" s="11">
         <v>50</v>
       </c>
-      <c r="U8" s="15">
+      <c r="V8" s="9">
         <v>102001</v>
       </c>
-      <c r="V8" s="15">
+      <c r="W8" s="17">
         <v>102002</v>
       </c>
-      <c r="W8" s="15">
+      <c r="X8" s="17">
         <v>102003</v>
       </c>
-      <c r="X8" s="15">
+      <c r="Y8" s="9">
         <v>102004</v>
       </c>
+      <c r="Z8" s="9"/>
+      <c r="AA8" s="9"/>
     </row>
-    <row r="9" spans="1:24" s="15" customFormat="1" ht="16.149999999999999" customHeight="1">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="13">
-        <v>3</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="I9" s="12">
+    <row r="9" spans="1:27" s="13" customFormat="1" ht="16.149999999999999" customHeight="1">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="11">
+        <v>3</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="J9" s="10">
         <v>2</v>
       </c>
-      <c r="J9" s="12">
-        <v>3</v>
-      </c>
-      <c r="K9" s="12">
-        <v>3</v>
-      </c>
-      <c r="L9" s="12">
+      <c r="K9" s="10">
+        <v>3</v>
+      </c>
+      <c r="L9" s="10">
+        <v>3</v>
+      </c>
+      <c r="M9" s="10">
         <v>4</v>
       </c>
-      <c r="M9" s="12">
+      <c r="N9" s="10">
         <v>2</v>
       </c>
-      <c r="N9" s="12">
+      <c r="O9" s="10">
         <v>2</v>
       </c>
-      <c r="O9" s="12">
+      <c r="P9" s="10">
         <v>2</v>
       </c>
-      <c r="P9" s="12">
+      <c r="Q9" s="10">
         <v>2</v>
       </c>
-      <c r="Q9" s="13" t="str">
+      <c r="R9" s="11" t="str">
         <f t="shared" si="0"/>
         <v>2,2,2,2</v>
       </c>
-      <c r="R9" s="12">
-        <v>3</v>
-      </c>
-      <c r="S9" s="13">
+      <c r="S9" s="10">
+        <v>3</v>
+      </c>
+      <c r="T9" s="11">
         <v>50</v>
       </c>
-      <c r="T9" s="13">
+      <c r="U9" s="11">
         <v>30</v>
       </c>
-      <c r="U9" s="15">
+      <c r="V9" s="9">
         <v>103001</v>
       </c>
-      <c r="V9" s="15">
+      <c r="W9" s="17">
         <v>103002</v>
       </c>
-      <c r="W9" s="15">
+      <c r="X9" s="17">
         <v>103003</v>
       </c>
-      <c r="X9" s="15">
+      <c r="Y9" s="9">
         <v>103004</v>
       </c>
+      <c r="Z9" s="9"/>
+      <c r="AA9" s="9"/>
     </row>
-    <row r="10" spans="1:24" s="15" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="13">
+    <row r="10" spans="1:27" s="13" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="11">
         <v>4</v>
       </c>
-      <c r="D10" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="H10" s="10" t="s">
+      <c r="D10" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="H10" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="I10" s="12">
-        <v>3</v>
-      </c>
-      <c r="J10" s="12">
+      <c r="I10" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="J10" s="10">
+        <v>3</v>
+      </c>
+      <c r="K10" s="10">
         <v>4</v>
       </c>
-      <c r="K10" s="12">
+      <c r="L10" s="10">
         <v>1</v>
       </c>
-      <c r="L10" s="12">
+      <c r="M10" s="10">
         <v>5</v>
       </c>
-      <c r="M10" s="12">
-        <v>3</v>
-      </c>
-      <c r="N10" s="12">
-        <v>3</v>
-      </c>
-      <c r="O10" s="12">
-        <v>3</v>
-      </c>
-      <c r="P10" s="12">
-        <v>3</v>
-      </c>
-      <c r="Q10" s="13" t="str">
+      <c r="N10" s="10">
+        <v>3</v>
+      </c>
+      <c r="O10" s="10">
+        <v>3</v>
+      </c>
+      <c r="P10" s="10">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="10">
+        <v>3</v>
+      </c>
+      <c r="R10" s="11" t="str">
         <f t="shared" si="0"/>
         <v>3,3,3,3</v>
       </c>
-      <c r="R10" s="12">
+      <c r="S10" s="10">
         <v>4</v>
       </c>
-      <c r="S10" s="13">
+      <c r="T10" s="11">
         <v>80</v>
       </c>
-      <c r="T10" s="13">
+      <c r="U10" s="11">
         <v>50</v>
       </c>
-      <c r="U10" s="15">
+      <c r="V10" s="9">
         <v>104001</v>
       </c>
-      <c r="V10" s="15">
+      <c r="W10" s="17">
         <v>104002</v>
       </c>
-      <c r="W10" s="15">
+      <c r="X10" s="17">
         <v>104003</v>
       </c>
-      <c r="X10" s="15">
+      <c r="Y10" s="9">
         <v>104004</v>
       </c>
+      <c r="Z10" s="9"/>
+      <c r="AA10" s="9"/>
     </row>
-    <row r="11" spans="1:24" s="15" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="13">
+    <row r="11" spans="1:27" s="13" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="11">
         <v>5</v>
       </c>
-      <c r="D11" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="I11" s="13">
-        <v>3</v>
-      </c>
-      <c r="J11" s="13">
+      <c r="D11" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="J11" s="11">
+        <v>3</v>
+      </c>
+      <c r="K11" s="11">
         <v>0</v>
       </c>
-      <c r="K11" s="13">
-        <v>3</v>
-      </c>
-      <c r="L11" s="13">
-        <v>-1</v>
-      </c>
-      <c r="M11" s="13">
-        <v>-1</v>
-      </c>
-      <c r="N11" s="13">
-        <v>-1</v>
-      </c>
-      <c r="O11" s="13">
-        <v>-1</v>
-      </c>
-      <c r="P11" s="13">
-        <v>-1</v>
-      </c>
-      <c r="Q11" s="13" t="str">
+      <c r="L11" s="11">
+        <v>3</v>
+      </c>
+      <c r="M11" s="11">
+        <v>-1</v>
+      </c>
+      <c r="N11" s="11">
+        <v>-1</v>
+      </c>
+      <c r="O11" s="11">
+        <v>-1</v>
+      </c>
+      <c r="P11" s="11">
+        <v>-1</v>
+      </c>
+      <c r="Q11" s="11">
+        <v>-1</v>
+      </c>
+      <c r="R11" s="11" t="str">
         <f t="shared" si="0"/>
         <v>-1,-1,-1,-1</v>
       </c>
-      <c r="R11" s="13">
+      <c r="S11" s="11">
         <v>5</v>
       </c>
-      <c r="S11" s="13">
-        <v>-1</v>
-      </c>
-      <c r="T11" s="13">
-        <v>-1</v>
-      </c>
-      <c r="U11" s="15">
+      <c r="T11" s="11">
+        <v>-1</v>
+      </c>
+      <c r="U11" s="11">
+        <v>-1</v>
+      </c>
+      <c r="V11" s="9">
         <v>105001</v>
       </c>
-      <c r="V11" s="15">
-        <v>105002</v>
-      </c>
+      <c r="W11" s="9"/>
+      <c r="X11" s="9"/>
+      <c r="Y11" s="9"/>
+      <c r="Z11" s="9"/>
+      <c r="AA11" s="9"/>
     </row>
-    <row r="12" spans="1:24" s="15" customFormat="1" ht="16.149999999999999" customHeight="1">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="13">
+    <row r="12" spans="1:27" s="13" customFormat="1" ht="16.149999999999999" customHeight="1">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="11">
         <v>6</v>
       </c>
-      <c r="D12" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="I12" s="12">
+      <c r="D12" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="J12" s="10">
         <v>2</v>
       </c>
-      <c r="J12" s="12">
-        <v>3</v>
-      </c>
-      <c r="K12" s="12">
+      <c r="K12" s="10">
+        <v>3</v>
+      </c>
+      <c r="L12" s="10">
         <v>1</v>
       </c>
-      <c r="L12" s="13">
-        <v>-1</v>
-      </c>
-      <c r="M12" s="13">
-        <v>-1</v>
-      </c>
-      <c r="N12" s="13">
-        <v>-1</v>
-      </c>
-      <c r="O12" s="13">
-        <v>-1</v>
-      </c>
-      <c r="P12" s="13">
-        <v>-1</v>
-      </c>
-      <c r="Q12" s="13" t="str">
+      <c r="M12" s="11">
+        <v>-1</v>
+      </c>
+      <c r="N12" s="11">
+        <v>-1</v>
+      </c>
+      <c r="O12" s="11">
+        <v>-1</v>
+      </c>
+      <c r="P12" s="11">
+        <v>-1</v>
+      </c>
+      <c r="Q12" s="11">
+        <v>-1</v>
+      </c>
+      <c r="R12" s="11" t="str">
         <f t="shared" si="0"/>
         <v>-1,-1,-1,-1</v>
       </c>
-      <c r="R12" s="12">
+      <c r="S12" s="10">
         <v>6</v>
       </c>
-      <c r="S12" s="13">
-        <v>-1</v>
-      </c>
-      <c r="T12" s="13">
-        <v>-1</v>
-      </c>
-      <c r="U12" s="15">
+      <c r="T12" s="11">
+        <v>-1</v>
+      </c>
+      <c r="U12" s="11">
+        <v>-1</v>
+      </c>
+      <c r="V12" s="9">
         <v>106001</v>
       </c>
-      <c r="V12" s="15">
-        <v>106002</v>
-      </c>
+      <c r="W12" s="9"/>
+      <c r="X12" s="9"/>
+      <c r="Y12" s="9"/>
+      <c r="Z12" s="9"/>
+      <c r="AA12" s="9"/>
     </row>
-    <row r="13" spans="1:24" s="15" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="13">
+    <row r="13" spans="1:27" s="13" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="11">
         <v>7</v>
       </c>
-      <c r="D13" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="I13" s="12">
-        <v>3</v>
-      </c>
-      <c r="J13" s="12">
+      <c r="D13" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="J13" s="10">
+        <v>3</v>
+      </c>
+      <c r="K13" s="10">
         <v>4</v>
       </c>
-      <c r="K13" s="12">
-        <v>3</v>
-      </c>
-      <c r="L13" s="13">
-        <v>-1</v>
-      </c>
-      <c r="M13" s="13">
-        <v>-1</v>
-      </c>
-      <c r="N13" s="13">
-        <v>-1</v>
-      </c>
-      <c r="O13" s="13">
-        <v>-1</v>
-      </c>
-      <c r="P13" s="13">
-        <v>-1</v>
-      </c>
-      <c r="Q13" s="13" t="str">
+      <c r="L13" s="10">
+        <v>3</v>
+      </c>
+      <c r="M13" s="11">
+        <v>-1</v>
+      </c>
+      <c r="N13" s="11">
+        <v>-1</v>
+      </c>
+      <c r="O13" s="11">
+        <v>-1</v>
+      </c>
+      <c r="P13" s="11">
+        <v>-1</v>
+      </c>
+      <c r="Q13" s="11">
+        <v>-1</v>
+      </c>
+      <c r="R13" s="11" t="str">
         <f t="shared" si="0"/>
         <v>-1,-1,-1,-1</v>
       </c>
-      <c r="R13" s="12">
+      <c r="S13" s="10">
         <v>7</v>
       </c>
-      <c r="S13" s="13">
-        <v>-1</v>
-      </c>
-      <c r="T13" s="13">
-        <v>-1</v>
-      </c>
-      <c r="U13" s="15">
+      <c r="T13" s="11">
+        <v>-1</v>
+      </c>
+      <c r="U13" s="11">
+        <v>-1</v>
+      </c>
+      <c r="V13" s="9">
         <v>107001</v>
       </c>
-      <c r="V13" s="15">
-        <v>107002</v>
-      </c>
+      <c r="W13" s="9"/>
+      <c r="X13" s="9"/>
+      <c r="Y13" s="9"/>
+      <c r="Z13" s="9"/>
+      <c r="AA13" s="9"/>
     </row>
-    <row r="14" spans="1:24" s="15" customFormat="1" ht="13.35" customHeight="1">
-      <c r="C14" s="15">
+    <row r="14" spans="1:27" s="13" customFormat="1" ht="13.35" customHeight="1">
+      <c r="C14" s="13">
         <v>8</v>
       </c>
-      <c r="D14" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="G14" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="H14" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="I14" s="15">
-        <v>3</v>
-      </c>
-      <c r="J14" s="15">
+      <c r="D14" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="J14" s="13">
+        <v>3</v>
+      </c>
+      <c r="K14" s="13">
         <v>4</v>
       </c>
-      <c r="K14" s="15">
+      <c r="L14" s="13">
         <v>2</v>
       </c>
-      <c r="L14" s="15">
+      <c r="M14" s="13">
         <v>5</v>
       </c>
-      <c r="M14" s="15">
-        <v>3</v>
-      </c>
-      <c r="N14" s="15">
-        <v>3</v>
-      </c>
-      <c r="O14" s="15">
-        <v>3</v>
-      </c>
-      <c r="P14" s="15">
-        <v>3</v>
-      </c>
-      <c r="Q14" s="13" t="str">
-        <f t="shared" ref="Q14" si="1">M14&amp;","&amp;N14&amp;","&amp;O14&amp;","&amp;P14</f>
+      <c r="N14" s="13">
+        <v>3</v>
+      </c>
+      <c r="O14" s="13">
+        <v>3</v>
+      </c>
+      <c r="P14" s="13">
+        <v>3</v>
+      </c>
+      <c r="Q14" s="13">
+        <v>3</v>
+      </c>
+      <c r="R14" s="11" t="str">
+        <f t="shared" ref="R14" si="1">N14&amp;","&amp;O14&amp;","&amp;P14&amp;","&amp;Q14</f>
         <v>3,3,3,3</v>
       </c>
-      <c r="R14" s="12">
+      <c r="S14" s="10">
         <v>4</v>
       </c>
-      <c r="S14" s="13">
+      <c r="T14" s="11">
         <v>80</v>
       </c>
-      <c r="T14" s="13">
+      <c r="U14" s="11">
         <v>50</v>
       </c>
-      <c r="U14" s="15">
+      <c r="V14" s="9">
         <v>108001</v>
       </c>
-      <c r="V14" s="15">
+      <c r="W14" s="17">
         <v>108002</v>
       </c>
-      <c r="W14" s="15">
+      <c r="X14" s="17">
         <v>108003</v>
       </c>
-      <c r="X14" s="15">
+      <c r="Y14" s="9">
         <v>108004</v>
       </c>
+      <c r="Z14" s="9"/>
+      <c r="AA14" s="9"/>
     </row>
-    <row r="15" spans="1:24" s="15" customFormat="1" ht="13.35" customHeight="1">
-      <c r="C15" s="15">
+    <row r="15" spans="1:27" s="13" customFormat="1" ht="13.35" customHeight="1">
+      <c r="C15" s="13">
         <v>9</v>
       </c>
-      <c r="D15" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="G15" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="H15" s="11">
-        <v>1</v>
-      </c>
-      <c r="I15" s="15">
-        <v>3</v>
-      </c>
-      <c r="J15" s="15">
+      <c r="D15" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="I15" s="9">
+        <v>1.25</v>
+      </c>
+      <c r="J15" s="13">
+        <v>3</v>
+      </c>
+      <c r="K15" s="13">
         <v>8</v>
       </c>
-      <c r="K15" s="15">
+      <c r="L15" s="13">
         <v>4</v>
       </c>
-      <c r="L15" s="15">
+      <c r="M15" s="13">
         <v>4</v>
       </c>
-      <c r="M15" s="15">
-        <v>3</v>
-      </c>
-      <c r="N15" s="15">
-        <v>3</v>
-      </c>
-      <c r="O15" s="15">
-        <v>3</v>
-      </c>
-      <c r="P15" s="15">
-        <v>3</v>
-      </c>
-      <c r="Q15" s="13" t="str">
-        <f t="shared" ref="Q15:Q21" si="2">M15&amp;","&amp;N15&amp;","&amp;O15&amp;","&amp;P15</f>
+      <c r="N15" s="13">
+        <v>3</v>
+      </c>
+      <c r="O15" s="13">
+        <v>3</v>
+      </c>
+      <c r="P15" s="13">
+        <v>3</v>
+      </c>
+      <c r="Q15" s="13">
+        <v>3</v>
+      </c>
+      <c r="R15" s="11" t="str">
+        <f t="shared" ref="R15:R21" si="2">N15&amp;","&amp;O15&amp;","&amp;P15&amp;","&amp;Q15</f>
         <v>3,3,3,3</v>
       </c>
-      <c r="R15" s="12">
+      <c r="S15" s="10">
+        <v>9</v>
+      </c>
+      <c r="T15" s="11">
+        <v>80</v>
+      </c>
+      <c r="U15" s="11">
+        <v>50</v>
+      </c>
+      <c r="V15" s="9">
+        <v>109001</v>
+      </c>
+      <c r="W15" s="9"/>
+      <c r="X15" s="9"/>
+      <c r="Y15" s="9"/>
+      <c r="Z15" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA15" s="9"/>
+    </row>
+    <row r="16" spans="1:27" s="13" customFormat="1" ht="13.35" customHeight="1">
+      <c r="C16" s="13">
+        <v>10</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="I16" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="J16" s="13">
+        <v>3</v>
+      </c>
+      <c r="K16" s="13">
+        <v>8</v>
+      </c>
+      <c r="L16" s="13">
         <v>4</v>
       </c>
-      <c r="S15" s="13">
-        <v>80</v>
-      </c>
-      <c r="T15" s="13">
-        <v>50</v>
-      </c>
-      <c r="U15" s="15">
-        <v>109001</v>
-      </c>
-      <c r="V15" s="15">
-        <v>109002</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" s="15" customFormat="1" ht="13.35" customHeight="1">
-      <c r="C16" s="15">
-        <v>10</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="G16" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="H16" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="I16" s="15">
-        <v>3</v>
-      </c>
-      <c r="J16" s="15">
-        <v>8</v>
-      </c>
-      <c r="K16" s="15">
+      <c r="M16" s="13">
         <v>4</v>
       </c>
-      <c r="L16" s="15">
-        <v>4</v>
-      </c>
-      <c r="M16" s="15">
-        <v>3</v>
-      </c>
-      <c r="N16" s="15">
-        <v>3</v>
-      </c>
-      <c r="O16" s="15">
-        <v>3</v>
-      </c>
-      <c r="P16" s="15">
-        <v>3</v>
-      </c>
-      <c r="Q16" s="13" t="str">
+      <c r="N16" s="13">
+        <v>3</v>
+      </c>
+      <c r="O16" s="13">
+        <v>3</v>
+      </c>
+      <c r="P16" s="13">
+        <v>3</v>
+      </c>
+      <c r="Q16" s="13">
+        <v>3</v>
+      </c>
+      <c r="R16" s="11" t="str">
         <f t="shared" si="2"/>
         <v>3,3,3,3</v>
       </c>
-      <c r="R16" s="12">
-        <v>4</v>
-      </c>
-      <c r="S16" s="13">
+      <c r="S16" s="10">
+        <v>10</v>
+      </c>
+      <c r="T16" s="11">
         <v>80</v>
       </c>
-      <c r="T16" s="13">
+      <c r="U16" s="11">
         <v>50</v>
       </c>
-      <c r="U16" s="15">
+      <c r="V16" s="9">
         <v>109001</v>
       </c>
-      <c r="V16" s="15">
-        <v>109002</v>
-      </c>
+      <c r="W16" s="9"/>
+      <c r="X16" s="9"/>
+      <c r="Y16" s="9"/>
+      <c r="Z16" s="9"/>
+      <c r="AA16" s="9"/>
     </row>
-    <row r="17" spans="2:24" s="15" customFormat="1" ht="13.35" customHeight="1">
-      <c r="B17" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="C17" s="13">
+    <row r="17" spans="2:27" s="13" customFormat="1" ht="13.35" customHeight="1">
+      <c r="B17" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" s="11">
         <v>100</v>
       </c>
-      <c r="D17" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="G17" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="H17" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="I17" s="13">
-        <v>3</v>
-      </c>
-      <c r="J17" s="13">
+      <c r="D17" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="I17" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="J17" s="11">
+        <v>3</v>
+      </c>
+      <c r="K17" s="11">
         <v>0</v>
       </c>
-      <c r="K17" s="13">
+      <c r="L17" s="11">
         <v>2</v>
       </c>
-      <c r="L17" s="13">
+      <c r="M17" s="11">
         <v>0</v>
       </c>
-      <c r="M17" s="13">
+      <c r="N17" s="11">
         <v>1</v>
       </c>
-      <c r="N17" s="13">
+      <c r="O17" s="11">
         <v>1</v>
       </c>
-      <c r="O17" s="13">
+      <c r="P17" s="11">
         <v>1</v>
       </c>
-      <c r="P17" s="13">
+      <c r="Q17" s="11">
         <v>1</v>
       </c>
-      <c r="Q17" s="13" t="str">
+      <c r="R17" s="11" t="str">
         <f t="shared" si="2"/>
         <v>1,1,1,1</v>
       </c>
-      <c r="R17" s="13">
+      <c r="S17" s="11">
         <v>100</v>
       </c>
-      <c r="S17" s="13">
+      <c r="T17" s="11">
         <v>80</v>
       </c>
-      <c r="T17" s="13">
+      <c r="U17" s="11">
         <v>50</v>
       </c>
-      <c r="U17" s="15">
+      <c r="V17" s="9">
         <v>102001</v>
       </c>
-      <c r="V17" s="15">
+      <c r="W17" s="17">
         <v>102002</v>
       </c>
-      <c r="W17" s="15">
+      <c r="X17" s="17">
         <v>102003</v>
       </c>
-      <c r="X17" s="15">
+      <c r="Y17" s="9">
         <v>102004</v>
       </c>
+      <c r="Z17" s="9"/>
+      <c r="AA17" s="9"/>
     </row>
-    <row r="18" spans="2:24" ht="13.35" customHeight="1">
+    <row r="18" spans="2:27" ht="13.35" customHeight="1">
       <c r="B18" s="1" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="C18" s="1">
         <v>1010101</v>
       </c>
-      <c r="D18" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="H18" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="I18" s="13">
-        <v>3</v>
-      </c>
-      <c r="J18" s="13">
+      <c r="D18" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="I18" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="J18" s="11">
+        <v>3</v>
+      </c>
+      <c r="K18" s="11">
         <v>0</v>
       </c>
-      <c r="K18" s="13">
-        <v>3</v>
-      </c>
-      <c r="L18" s="13">
-        <v>-1</v>
-      </c>
-      <c r="M18" s="13">
-        <v>-1</v>
-      </c>
-      <c r="N18" s="13">
-        <v>-1</v>
-      </c>
-      <c r="O18" s="13">
-        <v>-1</v>
-      </c>
-      <c r="P18" s="13">
-        <v>-1</v>
-      </c>
-      <c r="Q18" s="13" t="str">
+      <c r="L18" s="11">
+        <v>3</v>
+      </c>
+      <c r="M18" s="11">
+        <v>-1</v>
+      </c>
+      <c r="N18" s="11">
+        <v>-1</v>
+      </c>
+      <c r="O18" s="11">
+        <v>-1</v>
+      </c>
+      <c r="P18" s="11">
+        <v>-1</v>
+      </c>
+      <c r="Q18" s="11">
+        <v>-1</v>
+      </c>
+      <c r="R18" s="11" t="str">
         <f t="shared" si="2"/>
         <v>-1,-1,-1,-1</v>
       </c>
-      <c r="R18" s="1">
+      <c r="S18" s="1">
         <v>1010101</v>
       </c>
-      <c r="S18" s="13">
-        <v>-1</v>
-      </c>
-      <c r="T18" s="13">
-        <v>-1</v>
-      </c>
-      <c r="U18" s="15">
+      <c r="T18" s="11">
+        <v>-1</v>
+      </c>
+      <c r="U18" s="11">
+        <v>-1</v>
+      </c>
+      <c r="V18" s="9">
         <v>105001</v>
       </c>
-      <c r="V18" s="15">
-        <v>105002</v>
-      </c>
-      <c r="W18" s="15"/>
-      <c r="X18" s="15"/>
+      <c r="W18" s="9"/>
+      <c r="X18" s="9"/>
+      <c r="Y18" s="9"/>
+      <c r="Z18" s="9"/>
+      <c r="AA18" s="9"/>
     </row>
-    <row r="19" spans="2:24" ht="13.35" customHeight="1">
+    <row r="19" spans="2:27" ht="13.35" customHeight="1">
       <c r="B19" s="1" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="C19" s="1">
         <v>1010102</v>
       </c>
-      <c r="D19" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="H19" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="I19" s="12">
+      <c r="D19" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="I19" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="J19" s="10">
         <v>2</v>
       </c>
-      <c r="J19" s="12">
-        <v>3</v>
-      </c>
-      <c r="K19" s="12">
+      <c r="K19" s="10">
+        <v>3</v>
+      </c>
+      <c r="L19" s="10">
         <v>2</v>
       </c>
-      <c r="L19" s="13">
-        <v>-1</v>
-      </c>
-      <c r="M19" s="13">
-        <v>-1</v>
-      </c>
-      <c r="N19" s="13">
-        <v>-1</v>
-      </c>
-      <c r="O19" s="13">
-        <v>-1</v>
-      </c>
-      <c r="P19" s="13">
-        <v>-1</v>
-      </c>
-      <c r="Q19" s="13" t="str">
+      <c r="M19" s="11">
+        <v>-1</v>
+      </c>
+      <c r="N19" s="11">
+        <v>-1</v>
+      </c>
+      <c r="O19" s="11">
+        <v>-1</v>
+      </c>
+      <c r="P19" s="11">
+        <v>-1</v>
+      </c>
+      <c r="Q19" s="11">
+        <v>-1</v>
+      </c>
+      <c r="R19" s="11" t="str">
         <f t="shared" si="2"/>
         <v>-1,-1,-1,-1</v>
       </c>
-      <c r="R19" s="1">
+      <c r="S19" s="1">
         <v>1010102</v>
       </c>
-      <c r="S19" s="13">
-        <v>-1</v>
-      </c>
-      <c r="T19" s="13">
-        <v>-1</v>
-      </c>
-      <c r="U19" s="15">
+      <c r="T19" s="11">
+        <v>-1</v>
+      </c>
+      <c r="U19" s="11">
+        <v>-1</v>
+      </c>
+      <c r="V19" s="9">
         <v>106001</v>
       </c>
-      <c r="V19" s="15">
-        <v>106002</v>
-      </c>
-      <c r="W19" s="15"/>
-      <c r="X19" s="15"/>
+      <c r="W19" s="9"/>
+      <c r="X19" s="9"/>
+      <c r="Y19" s="9"/>
+      <c r="Z19" s="9"/>
+      <c r="AA19" s="9"/>
     </row>
-    <row r="20" spans="2:24" ht="13.35" customHeight="1">
+    <row r="20" spans="2:27" ht="13.35" customHeight="1">
       <c r="B20" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C20" s="13">
+        <v>80</v>
+      </c>
+      <c r="C20" s="11">
         <v>1010201</v>
       </c>
-      <c r="D20" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="E20" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="H20" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="I20" s="13">
-        <v>3</v>
-      </c>
-      <c r="J20" s="13">
+      <c r="D20" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="I20" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="J20" s="11">
+        <v>3</v>
+      </c>
+      <c r="K20" s="11">
         <v>0</v>
       </c>
-      <c r="K20" s="13">
-        <v>3</v>
-      </c>
-      <c r="L20" s="13">
-        <v>-1</v>
-      </c>
-      <c r="M20" s="13">
-        <v>-1</v>
-      </c>
-      <c r="N20" s="13">
-        <v>-1</v>
-      </c>
-      <c r="O20" s="13">
-        <v>-1</v>
-      </c>
-      <c r="P20" s="13">
-        <v>-1</v>
-      </c>
-      <c r="Q20" s="13" t="str">
+      <c r="L20" s="11">
+        <v>3</v>
+      </c>
+      <c r="M20" s="11">
+        <v>-1</v>
+      </c>
+      <c r="N20" s="11">
+        <v>-1</v>
+      </c>
+      <c r="O20" s="11">
+        <v>-1</v>
+      </c>
+      <c r="P20" s="11">
+        <v>-1</v>
+      </c>
+      <c r="Q20" s="11">
+        <v>-1</v>
+      </c>
+      <c r="R20" s="11" t="str">
         <f t="shared" si="2"/>
         <v>-1,-1,-1,-1</v>
       </c>
-      <c r="R20" s="13">
+      <c r="S20" s="11">
         <v>1010201</v>
       </c>
-      <c r="S20" s="13">
-        <v>-1</v>
-      </c>
-      <c r="T20" s="13">
-        <v>-1</v>
-      </c>
-      <c r="U20" s="15">
+      <c r="T20" s="11">
+        <v>-1</v>
+      </c>
+      <c r="U20" s="11">
+        <v>-1</v>
+      </c>
+      <c r="V20" s="9">
         <v>105001</v>
       </c>
-      <c r="V20" s="15">
-        <v>105002</v>
-      </c>
-      <c r="W20" s="15"/>
-      <c r="X20" s="15"/>
+      <c r="W20" s="9"/>
+      <c r="X20" s="9"/>
+      <c r="Y20" s="9"/>
+      <c r="Z20" s="9"/>
+      <c r="AA20" s="9"/>
     </row>
-    <row r="21" spans="2:24" ht="13.35" customHeight="1">
+    <row r="21" spans="2:27" ht="13.35" customHeight="1">
       <c r="B21" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C21" s="13">
+        <v>80</v>
+      </c>
+      <c r="C21" s="11">
         <v>1010202</v>
       </c>
-      <c r="D21" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="H21" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="I21" s="13">
-        <v>3</v>
-      </c>
-      <c r="J21" s="13">
+      <c r="D21" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="I21" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="J21" s="11">
+        <v>3</v>
+      </c>
+      <c r="K21" s="11">
         <v>0</v>
       </c>
-      <c r="K21" s="13">
-        <v>3</v>
-      </c>
-      <c r="L21" s="13">
-        <v>-1</v>
-      </c>
-      <c r="M21" s="13">
-        <v>-1</v>
-      </c>
-      <c r="N21" s="13">
-        <v>-1</v>
-      </c>
-      <c r="O21" s="13">
-        <v>-1</v>
-      </c>
-      <c r="P21" s="13">
-        <v>-1</v>
-      </c>
-      <c r="Q21" s="13" t="str">
+      <c r="L21" s="11">
+        <v>3</v>
+      </c>
+      <c r="M21" s="11">
+        <v>-1</v>
+      </c>
+      <c r="N21" s="11">
+        <v>-1</v>
+      </c>
+      <c r="O21" s="11">
+        <v>-1</v>
+      </c>
+      <c r="P21" s="11">
+        <v>-1</v>
+      </c>
+      <c r="Q21" s="11">
+        <v>-1</v>
+      </c>
+      <c r="R21" s="11" t="str">
         <f t="shared" si="2"/>
         <v>-1,-1,-1,-1</v>
       </c>
-      <c r="R21" s="13">
+      <c r="S21" s="11">
         <v>1010202</v>
       </c>
-      <c r="S21" s="13">
-        <v>-1</v>
-      </c>
-      <c r="T21" s="13">
-        <v>-1</v>
-      </c>
-      <c r="U21" s="15">
+      <c r="T21" s="11">
+        <v>-1</v>
+      </c>
+      <c r="U21" s="11">
+        <v>-1</v>
+      </c>
+      <c r="V21" s="9">
         <v>105001</v>
       </c>
-      <c r="V21" s="15">
-        <v>105002</v>
-      </c>
-      <c r="W21" s="15"/>
-      <c r="X21" s="15"/>
+      <c r="W21" s="9"/>
+      <c r="X21" s="9"/>
+      <c r="Y21" s="9"/>
+      <c r="Z21" s="9"/>
+      <c r="AA21" s="9"/>
     </row>
-    <row r="22" spans="2:24" ht="13.35" customHeight="1">
+    <row r="22" spans="2:27" ht="13.35" customHeight="1">
       <c r="B22" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C22" s="13">
+        <v>83</v>
+      </c>
+      <c r="C22" s="11">
         <v>1010203</v>
       </c>
-      <c r="D22" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="F22" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="G22" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="H22" s="10" t="s">
+      <c r="D22" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="H22" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="I22" s="12">
+      <c r="I22" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="J22" s="10">
         <v>2</v>
       </c>
-      <c r="J22" s="12">
+      <c r="K22" s="10">
         <v>4</v>
       </c>
-      <c r="K22" s="12">
-        <v>3</v>
-      </c>
-      <c r="L22" s="13">
-        <v>-1</v>
-      </c>
-      <c r="M22" s="13">
-        <v>-1</v>
-      </c>
-      <c r="N22" s="13">
-        <v>-1</v>
-      </c>
-      <c r="O22" s="13">
-        <v>-1</v>
-      </c>
-      <c r="P22" s="13">
-        <v>-1</v>
-      </c>
-      <c r="Q22" s="13" t="str">
-        <f t="shared" ref="Q22" si="3">M22&amp;","&amp;N22&amp;","&amp;O22&amp;","&amp;P22</f>
+      <c r="L22" s="10">
+        <v>3</v>
+      </c>
+      <c r="M22" s="11">
+        <v>-1</v>
+      </c>
+      <c r="N22" s="11">
+        <v>-1</v>
+      </c>
+      <c r="O22" s="11">
+        <v>-1</v>
+      </c>
+      <c r="P22" s="11">
+        <v>-1</v>
+      </c>
+      <c r="Q22" s="11">
+        <v>-1</v>
+      </c>
+      <c r="R22" s="11" t="str">
+        <f t="shared" ref="R22:R27" si="3">N22&amp;","&amp;O22&amp;","&amp;P22&amp;","&amp;Q22</f>
         <v>-1,-1,-1,-1</v>
       </c>
-      <c r="R22" s="12">
+      <c r="S22" s="10">
         <v>1010203</v>
       </c>
-      <c r="S22" s="13">
-        <v>-1</v>
-      </c>
-      <c r="T22" s="13">
-        <v>-1</v>
-      </c>
-      <c r="U22" s="15">
+      <c r="T22" s="11">
+        <v>-1</v>
+      </c>
+      <c r="U22" s="11">
+        <v>-1</v>
+      </c>
+      <c r="V22" s="9">
         <v>104001</v>
       </c>
-      <c r="V22" s="15">
+      <c r="W22" s="9"/>
+      <c r="X22" s="9"/>
+      <c r="Y22" s="9"/>
+      <c r="Z22" s="9">
         <v>104002</v>
       </c>
-      <c r="W22" s="15">
-        <v>104003</v>
-      </c>
-      <c r="X22" s="15">
-        <v>104004</v>
-      </c>
+      <c r="AA22" s="9"/>
+    </row>
+    <row r="23" spans="2:27" ht="13.35" customHeight="1">
+      <c r="B23" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" s="14">
+        <v>1010301</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="I23" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="J23" s="11">
+        <v>3</v>
+      </c>
+      <c r="K23" s="11">
+        <v>0</v>
+      </c>
+      <c r="L23" s="11">
+        <v>3</v>
+      </c>
+      <c r="M23" s="11">
+        <v>-1</v>
+      </c>
+      <c r="N23" s="11">
+        <v>-1</v>
+      </c>
+      <c r="O23" s="11">
+        <v>-1</v>
+      </c>
+      <c r="P23" s="11">
+        <v>-1</v>
+      </c>
+      <c r="Q23" s="11">
+        <v>-1</v>
+      </c>
+      <c r="R23" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>-1,-1,-1,-1</v>
+      </c>
+      <c r="S23" s="14">
+        <v>1010301</v>
+      </c>
+      <c r="T23" s="11">
+        <v>-1</v>
+      </c>
+      <c r="U23" s="11">
+        <v>-1</v>
+      </c>
+      <c r="V23" s="9">
+        <v>105001</v>
+      </c>
+      <c r="W23" s="9"/>
+      <c r="X23" s="9"/>
+      <c r="Y23" s="9"/>
+      <c r="Z23" s="9"/>
+      <c r="AA23" s="9"/>
+    </row>
+    <row r="24" spans="2:27" ht="13.35" customHeight="1">
+      <c r="B24" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24" s="14">
+        <v>1010302</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="I24" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="J24" s="11">
+        <v>3</v>
+      </c>
+      <c r="K24" s="11">
+        <v>0</v>
+      </c>
+      <c r="L24" s="11">
+        <v>3</v>
+      </c>
+      <c r="M24" s="11">
+        <v>-1</v>
+      </c>
+      <c r="N24" s="11">
+        <v>-1</v>
+      </c>
+      <c r="O24" s="11">
+        <v>-1</v>
+      </c>
+      <c r="P24" s="11">
+        <v>-1</v>
+      </c>
+      <c r="Q24" s="11">
+        <v>-1</v>
+      </c>
+      <c r="R24" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>-1,-1,-1,-1</v>
+      </c>
+      <c r="S24" s="14">
+        <v>1010302</v>
+      </c>
+      <c r="T24" s="11">
+        <v>-1</v>
+      </c>
+      <c r="U24" s="11">
+        <v>-1</v>
+      </c>
+      <c r="V24" s="9">
+        <v>105001</v>
+      </c>
+      <c r="W24" s="9"/>
+      <c r="X24" s="9"/>
+      <c r="Y24" s="9"/>
+      <c r="Z24" s="9"/>
+      <c r="AA24" s="9"/>
+    </row>
+    <row r="25" spans="2:27" ht="13.35" customHeight="1">
+      <c r="B25" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C25" s="14">
+        <v>1010303</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="I25" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="J25" s="11">
+        <v>3</v>
+      </c>
+      <c r="K25" s="11">
+        <v>0</v>
+      </c>
+      <c r="L25" s="11">
+        <v>3</v>
+      </c>
+      <c r="M25" s="11">
+        <v>-1</v>
+      </c>
+      <c r="N25" s="11">
+        <v>-1</v>
+      </c>
+      <c r="O25" s="11">
+        <v>-1</v>
+      </c>
+      <c r="P25" s="11">
+        <v>-1</v>
+      </c>
+      <c r="Q25" s="11">
+        <v>-1</v>
+      </c>
+      <c r="R25" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>-1,-1,-1,-1</v>
+      </c>
+      <c r="S25" s="14">
+        <v>1010303</v>
+      </c>
+      <c r="T25" s="11">
+        <v>-1</v>
+      </c>
+      <c r="U25" s="11">
+        <v>-1</v>
+      </c>
+      <c r="V25" s="9">
+        <v>105001</v>
+      </c>
+      <c r="W25" s="9"/>
+      <c r="X25" s="9"/>
+      <c r="Y25" s="9"/>
+      <c r="Z25" s="9"/>
+      <c r="AA25" s="9"/>
+    </row>
+    <row r="26" spans="2:27" ht="13.35" customHeight="1">
+      <c r="B26" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C26" s="14">
+        <v>1010304</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="I26" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="J26" s="11">
+        <v>3</v>
+      </c>
+      <c r="K26" s="11">
+        <v>0</v>
+      </c>
+      <c r="L26" s="11">
+        <v>3</v>
+      </c>
+      <c r="M26" s="11">
+        <v>-1</v>
+      </c>
+      <c r="N26" s="11">
+        <v>-1</v>
+      </c>
+      <c r="O26" s="11">
+        <v>-1</v>
+      </c>
+      <c r="P26" s="11">
+        <v>-1</v>
+      </c>
+      <c r="Q26" s="11">
+        <v>-1</v>
+      </c>
+      <c r="R26" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>-1,-1,-1,-1</v>
+      </c>
+      <c r="S26" s="14">
+        <v>1010304</v>
+      </c>
+      <c r="T26" s="11">
+        <v>-1</v>
+      </c>
+      <c r="U26" s="11">
+        <v>-1</v>
+      </c>
+      <c r="V26" s="9">
+        <v>105001</v>
+      </c>
+      <c r="W26" s="9"/>
+      <c r="X26" s="9"/>
+      <c r="Y26" s="9"/>
+      <c r="Z26" s="9"/>
+      <c r="AA26" s="9"/>
+    </row>
+    <row r="27" spans="2:27" ht="13.35" customHeight="1">
+      <c r="B27" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="C27" s="14">
+        <v>1010305</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="I27" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="J27" s="10">
+        <v>3</v>
+      </c>
+      <c r="K27" s="10">
+        <v>4</v>
+      </c>
+      <c r="L27" s="10">
+        <v>3</v>
+      </c>
+      <c r="M27" s="11">
+        <v>-1</v>
+      </c>
+      <c r="N27" s="11">
+        <v>-1</v>
+      </c>
+      <c r="O27" s="11">
+        <v>-1</v>
+      </c>
+      <c r="P27" s="11">
+        <v>-1</v>
+      </c>
+      <c r="Q27" s="11">
+        <v>-1</v>
+      </c>
+      <c r="R27" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>-1,-1,-1,-1</v>
+      </c>
+      <c r="S27" s="14">
+        <v>1010305</v>
+      </c>
+      <c r="T27" s="11">
+        <v>-1</v>
+      </c>
+      <c r="U27" s="11">
+        <v>-1</v>
+      </c>
+      <c r="V27" s="9">
+        <v>107001</v>
+      </c>
+      <c r="W27" s="9"/>
+      <c r="X27" s="9"/>
+      <c r="Y27" s="9"/>
+      <c r="Z27" s="9"/>
+      <c r="AA27" s="9"/>
+    </row>
+    <row r="28" spans="2:27" ht="13.35" customHeight="1">
+      <c r="B28" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1010501</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="H28" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="I28" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="J28" s="11">
+        <v>3</v>
+      </c>
+      <c r="K28" s="11">
+        <v>0</v>
+      </c>
+      <c r="L28" s="11">
+        <v>1</v>
+      </c>
+      <c r="M28" s="11">
+        <v>-1</v>
+      </c>
+      <c r="N28" s="11">
+        <v>-1</v>
+      </c>
+      <c r="O28" s="11">
+        <v>-1</v>
+      </c>
+      <c r="P28" s="11">
+        <v>-1</v>
+      </c>
+      <c r="Q28" s="11">
+        <v>-1</v>
+      </c>
+      <c r="R28" s="11" t="str">
+        <f t="shared" ref="R28:R32" si="4">N28&amp;","&amp;O28&amp;","&amp;P28&amp;","&amp;Q28</f>
+        <v>-1,-1,-1,-1</v>
+      </c>
+      <c r="S28" s="14">
+        <v>1010501</v>
+      </c>
+      <c r="T28" s="11">
+        <v>-1</v>
+      </c>
+      <c r="U28" s="11">
+        <v>-1</v>
+      </c>
+      <c r="V28" s="9">
+        <v>105001</v>
+      </c>
+    </row>
+    <row r="29" spans="2:27" ht="13.35" customHeight="1">
+      <c r="B29" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1010502</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="H29" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="I29" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="J29" s="11">
+        <v>3</v>
+      </c>
+      <c r="K29" s="11">
+        <v>0</v>
+      </c>
+      <c r="L29" s="11">
+        <v>1</v>
+      </c>
+      <c r="M29" s="11">
+        <v>-1</v>
+      </c>
+      <c r="N29" s="11">
+        <v>-1</v>
+      </c>
+      <c r="O29" s="11">
+        <v>-1</v>
+      </c>
+      <c r="P29" s="11">
+        <v>-1</v>
+      </c>
+      <c r="Q29" s="11">
+        <v>-1</v>
+      </c>
+      <c r="R29" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>-1,-1,-1,-1</v>
+      </c>
+      <c r="S29" s="14">
+        <v>1010502</v>
+      </c>
+      <c r="T29" s="11">
+        <v>-1</v>
+      </c>
+      <c r="U29" s="11">
+        <v>-1</v>
+      </c>
+      <c r="V29" s="9">
+        <v>105001</v>
+      </c>
+    </row>
+    <row r="30" spans="2:27" ht="13.35" customHeight="1">
+      <c r="B30" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1010503</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="H30" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="I30" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="J30" s="11">
+        <v>3</v>
+      </c>
+      <c r="K30" s="11">
+        <v>0</v>
+      </c>
+      <c r="L30" s="11">
+        <v>3</v>
+      </c>
+      <c r="M30" s="11">
+        <v>-1</v>
+      </c>
+      <c r="N30" s="11">
+        <v>-1</v>
+      </c>
+      <c r="O30" s="11">
+        <v>-1</v>
+      </c>
+      <c r="P30" s="11">
+        <v>-1</v>
+      </c>
+      <c r="Q30" s="11">
+        <v>-1</v>
+      </c>
+      <c r="R30" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>-1,-1,-1,-1</v>
+      </c>
+      <c r="S30" s="14">
+        <v>1010503</v>
+      </c>
+      <c r="T30" s="11">
+        <v>-1</v>
+      </c>
+      <c r="U30" s="11">
+        <v>-1</v>
+      </c>
+      <c r="V30" s="9">
+        <v>105001</v>
+      </c>
+    </row>
+    <row r="31" spans="2:27" ht="13.35" customHeight="1">
+      <c r="B31" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1010504</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H31" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="I31" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="J31" s="10">
+        <v>3</v>
+      </c>
+      <c r="K31" s="10">
+        <v>4</v>
+      </c>
+      <c r="L31" s="10">
+        <v>3</v>
+      </c>
+      <c r="M31" s="11">
+        <v>-1</v>
+      </c>
+      <c r="N31" s="11">
+        <v>-1</v>
+      </c>
+      <c r="O31" s="11">
+        <v>-1</v>
+      </c>
+      <c r="P31" s="11">
+        <v>-1</v>
+      </c>
+      <c r="Q31" s="11">
+        <v>-1</v>
+      </c>
+      <c r="R31" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>-1,-1,-1,-1</v>
+      </c>
+      <c r="S31" s="14">
+        <v>1010504</v>
+      </c>
+      <c r="T31" s="11">
+        <v>-1</v>
+      </c>
+      <c r="U31" s="11">
+        <v>-1</v>
+      </c>
+      <c r="V31" s="9">
+        <v>107001</v>
+      </c>
+    </row>
+    <row r="32" spans="2:27" ht="13.35" customHeight="1">
+      <c r="B32" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C32" s="1">
+        <v>1010505</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H32" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="I32" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="J32" s="10">
+        <v>3</v>
+      </c>
+      <c r="K32" s="10">
+        <v>4</v>
+      </c>
+      <c r="L32" s="10">
+        <v>3</v>
+      </c>
+      <c r="M32" s="11">
+        <v>-1</v>
+      </c>
+      <c r="N32" s="11">
+        <v>-1</v>
+      </c>
+      <c r="O32" s="11">
+        <v>-1</v>
+      </c>
+      <c r="P32" s="11">
+        <v>-1</v>
+      </c>
+      <c r="Q32" s="11">
+        <v>-1</v>
+      </c>
+      <c r="R32" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>-1,-1,-1,-1</v>
+      </c>
+      <c r="S32" s="14">
+        <v>1010505</v>
+      </c>
+      <c r="T32" s="11">
+        <v>-1</v>
+      </c>
+      <c r="U32" s="11">
+        <v>-1</v>
+      </c>
+      <c r="V32" s="9">
+        <v>107001</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" ht="13.35" customHeight="1">
+      <c r="B33" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1010506</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="G33" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="H33" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="I33" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="J33" s="10">
+        <v>2</v>
+      </c>
+      <c r="K33" s="10">
+        <v>4</v>
+      </c>
+      <c r="L33" s="10">
+        <v>2</v>
+      </c>
+      <c r="M33" s="11">
+        <v>-1</v>
+      </c>
+      <c r="N33" s="11">
+        <v>-1</v>
+      </c>
+      <c r="O33" s="11">
+        <v>-1</v>
+      </c>
+      <c r="P33" s="11">
+        <v>-1</v>
+      </c>
+      <c r="Q33" s="11">
+        <v>-1</v>
+      </c>
+      <c r="R33" s="11" t="str">
+        <f t="shared" ref="R33" si="5">N33&amp;","&amp;O33&amp;","&amp;P33&amp;","&amp;Q33</f>
+        <v>-1,-1,-1,-1</v>
+      </c>
+      <c r="S33" s="10">
+        <v>1010506</v>
+      </c>
+      <c r="T33" s="11">
+        <v>-1</v>
+      </c>
+      <c r="U33" s="11">
+        <v>-1</v>
+      </c>
+      <c r="V33" s="9">
+        <v>104001</v>
+      </c>
+      <c r="W33" s="9"/>
+      <c r="X33" s="9"/>
+      <c r="Y33" s="9"/>
+      <c r="Z33" s="9">
+        <v>104002</v>
+      </c>
+      <c r="AA33" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
